--- a/else/Test/output/excel/防守图模版/防守图模版.xlsx
+++ b/else/Test/output/excel/防守图模版/防守图模版.xlsx
@@ -1554,87 +1554,87 @@
       </c>
       <c r="AN1" s="5" t="inlineStr">
         <is>
+          <t>最大速度</t>
+        </is>
+      </c>
+      <c r="AO1" s="5" t="inlineStr">
+        <is>
+          <t>可研究项目</t>
+        </is>
+      </c>
+      <c r="AP1" s="5" t="inlineStr">
+        <is>
+          <t>图标-计分屏</t>
+        </is>
+      </c>
+      <c r="AQ1" s="5" t="inlineStr">
+        <is>
+          <t>放置要求</t>
+        </is>
+      </c>
+      <c r="AR1" s="5" t="inlineStr">
+        <is>
+          <t>选择缩放</t>
+        </is>
+      </c>
+      <c r="AS1" s="5" t="inlineStr">
+        <is>
+          <t>隐藏小地图显示</t>
+        </is>
+      </c>
+      <c r="AT1" s="5" t="inlineStr">
+        <is>
+          <t>颜色值(红)</t>
+        </is>
+      </c>
+      <c r="AU1" s="5" t="inlineStr">
+        <is>
+          <t>可以逃跑</t>
+        </is>
+      </c>
+      <c r="AV1" s="5" t="inlineStr">
+        <is>
           <t>售出单位</t>
         </is>
       </c>
-      <c r="AO1" s="5" t="inlineStr">
-        <is>
-          <t>选择缩放</t>
-        </is>
-      </c>
-      <c r="AP1" s="5" t="inlineStr">
+      <c r="AW1" s="5" t="inlineStr">
+        <is>
+          <t>颜色值(蓝)</t>
+        </is>
+      </c>
+      <c r="AX1" s="5" t="inlineStr">
+        <is>
+          <t>颜色值(绿)</t>
+        </is>
+      </c>
+      <c r="AY1" s="5" t="inlineStr">
+        <is>
+          <t>雇佣开始时间</t>
+        </is>
+      </c>
+      <c r="AZ1" s="5" t="inlineStr">
+        <is>
+          <t>生命回复类型</t>
+        </is>
+      </c>
+      <c r="BA1" s="5" t="inlineStr">
+        <is>
+          <t>编辑器后缀</t>
+        </is>
+      </c>
+      <c r="BB1" s="5" t="inlineStr">
+        <is>
+          <t>攻击1-武器类型</t>
+        </is>
+      </c>
+      <c r="BC1" s="5" t="inlineStr">
+        <is>
+          <t>训练单位</t>
+        </is>
+      </c>
+      <c r="BD1" s="5" t="inlineStr">
         <is>
           <t>允许睡眠</t>
-        </is>
-      </c>
-      <c r="AQ1" s="5" t="inlineStr">
-        <is>
-          <t>训练单位</t>
-        </is>
-      </c>
-      <c r="AR1" s="5" t="inlineStr">
-        <is>
-          <t>攻击1-武器类型</t>
-        </is>
-      </c>
-      <c r="AS1" s="5" t="inlineStr">
-        <is>
-          <t>可研究项目</t>
-        </is>
-      </c>
-      <c r="AT1" s="5" t="inlineStr">
-        <is>
-          <t>图标-计分屏</t>
-        </is>
-      </c>
-      <c r="AU1" s="5" t="inlineStr">
-        <is>
-          <t>最大速度</t>
-        </is>
-      </c>
-      <c r="AV1" s="5" t="inlineStr">
-        <is>
-          <t>隐藏小地图显示</t>
-        </is>
-      </c>
-      <c r="AW1" s="5" t="inlineStr">
-        <is>
-          <t>放置要求</t>
-        </is>
-      </c>
-      <c r="AX1" s="5" t="inlineStr">
-        <is>
-          <t>颜色值(蓝)</t>
-        </is>
-      </c>
-      <c r="AY1" s="5" t="inlineStr">
-        <is>
-          <t>颜色值(红)</t>
-        </is>
-      </c>
-      <c r="AZ1" s="5" t="inlineStr">
-        <is>
-          <t>雇佣开始时间</t>
-        </is>
-      </c>
-      <c r="BA1" s="5" t="inlineStr">
-        <is>
-          <t>生命回复类型</t>
-        </is>
-      </c>
-      <c r="BB1" s="5" t="inlineStr">
-        <is>
-          <t>颜色值(绿)</t>
-        </is>
-      </c>
-      <c r="BC1" s="5" t="inlineStr">
-        <is>
-          <t>编辑器后缀</t>
-        </is>
-      </c>
-      <c r="BD1" s="5" t="inlineStr">
-        <is>
-          <t>可以逃跑</t>
         </is>
       </c>
     </row>
@@ -1836,87 +1836,87 @@
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
+          <t>maxSpd</t>
+        </is>
+      </c>
+      <c r="AO2" s="5" t="inlineStr">
+        <is>
+          <t>Researches</t>
+        </is>
+      </c>
+      <c r="AP2" s="5" t="inlineStr">
+        <is>
+          <t>ScoreScreenIcon</t>
+        </is>
+      </c>
+      <c r="AQ2" s="5" t="inlineStr">
+        <is>
+          <t>preventPlace</t>
+        </is>
+      </c>
+      <c r="AR2" s="5" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="AS2" s="5" t="inlineStr">
+        <is>
+          <t>hideOnMinimap</t>
+        </is>
+      </c>
+      <c r="AT2" s="5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AU2" s="5" t="inlineStr">
+        <is>
+          <t>canFlee</t>
+        </is>
+      </c>
+      <c r="AV2" s="5" t="inlineStr">
+        <is>
           <t>Sellunits</t>
         </is>
       </c>
-      <c r="AO2" s="5" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="AP2" s="5" t="inlineStr">
+      <c r="AW2" s="5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AX2" s="5" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY2" s="5" t="inlineStr">
+        <is>
+          <t>stockStart</t>
+        </is>
+      </c>
+      <c r="AZ2" s="5" t="inlineStr">
+        <is>
+          <t>regenType</t>
+        </is>
+      </c>
+      <c r="BA2" s="5" t="inlineStr">
+        <is>
+          <t>EditorSuffix</t>
+        </is>
+      </c>
+      <c r="BB2" s="5" t="inlineStr">
+        <is>
+          <t>weapTp1</t>
+        </is>
+      </c>
+      <c r="BC2" s="5" t="inlineStr">
+        <is>
+          <t>Trains</t>
+        </is>
+      </c>
+      <c r="BD2" s="5" t="inlineStr">
         <is>
           <t>canSleep</t>
-        </is>
-      </c>
-      <c r="AQ2" s="5" t="inlineStr">
-        <is>
-          <t>Trains</t>
-        </is>
-      </c>
-      <c r="AR2" s="5" t="inlineStr">
-        <is>
-          <t>weapTp1</t>
-        </is>
-      </c>
-      <c r="AS2" s="5" t="inlineStr">
-        <is>
-          <t>Researches</t>
-        </is>
-      </c>
-      <c r="AT2" s="5" t="inlineStr">
-        <is>
-          <t>ScoreScreenIcon</t>
-        </is>
-      </c>
-      <c r="AU2" s="5" t="inlineStr">
-        <is>
-          <t>maxSpd</t>
-        </is>
-      </c>
-      <c r="AV2" s="5" t="inlineStr">
-        <is>
-          <t>hideOnMinimap</t>
-        </is>
-      </c>
-      <c r="AW2" s="5" t="inlineStr">
-        <is>
-          <t>preventPlace</t>
-        </is>
-      </c>
-      <c r="AX2" s="5" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="AY2" s="5" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AZ2" s="5" t="inlineStr">
-        <is>
-          <t>stockStart</t>
-        </is>
-      </c>
-      <c r="BA2" s="5" t="inlineStr">
-        <is>
-          <t>regenType</t>
-        </is>
-      </c>
-      <c r="BB2" s="5" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BC2" s="5" t="inlineStr">
-        <is>
-          <t>EditorSuffix</t>
-        </is>
-      </c>
-      <c r="BD2" s="5" t="inlineStr">
-        <is>
-          <t>canFlee</t>
         </is>
       </c>
     </row>
@@ -2138,18 +2138,18 @@
       <c r="AK4" s="6" t="inlineStr"/>
       <c r="AL4" s="6" t="inlineStr"/>
       <c r="AM4" s="6" t="inlineStr"/>
-      <c r="AN4" s="6" t="inlineStr"/>
+      <c r="AN4" s="6" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
       <c r="AO4" s="6" t="inlineStr"/>
       <c r="AP4" s="6" t="inlineStr"/>
       <c r="AQ4" s="6" t="inlineStr"/>
       <c r="AR4" s="6" t="inlineStr"/>
       <c r="AS4" s="6" t="inlineStr"/>
       <c r="AT4" s="6" t="inlineStr"/>
-      <c r="AU4" s="6" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
+      <c r="AU4" s="6" t="inlineStr"/>
       <c r="AV4" s="6" t="inlineStr"/>
       <c r="AW4" s="6" t="inlineStr"/>
       <c r="AX4" s="6" t="inlineStr"/>
@@ -2975,12 +2975,12 @@
       <c r="AV11" s="6" t="inlineStr"/>
       <c r="AW11" s="6" t="inlineStr"/>
       <c r="AX11" s="6" t="inlineStr"/>
-      <c r="AY11" s="6" t="inlineStr"/>
-      <c r="AZ11" s="6" t="inlineStr">
+      <c r="AY11" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
+      <c r="AZ11" s="6" t="inlineStr"/>
       <c r="BA11" s="6" t="inlineStr"/>
       <c r="BB11" s="6" t="inlineStr"/>
       <c r="BC11" s="6" t="inlineStr"/>
@@ -5461,13 +5461,13 @@
       <c r="AX35" s="6" t="inlineStr"/>
       <c r="AY35" s="6" t="inlineStr"/>
       <c r="AZ35" s="6" t="inlineStr"/>
-      <c r="BA35" s="6" t="inlineStr"/>
+      <c r="BA35" s="6" t="inlineStr">
+        <is>
+          <t>（等级1）</t>
+        </is>
+      </c>
       <c r="BB35" s="6" t="inlineStr"/>
-      <c r="BC35" s="6" t="inlineStr">
-        <is>
-          <t>（等级1）</t>
-        </is>
-      </c>
+      <c r="BC35" s="6" t="inlineStr"/>
       <c r="BD35" s="6" t="inlineStr"/>
     </row>
     <row r="36">
@@ -6155,17 +6155,17 @@
       <c r="AN43" s="6" t="inlineStr"/>
       <c r="AO43" s="6" t="inlineStr"/>
       <c r="AP43" s="6" t="inlineStr"/>
-      <c r="AQ43" s="6" t="inlineStr"/>
+      <c r="AQ43" s="6" t="inlineStr">
+        <is>
+          <t>unflyable</t>
+        </is>
+      </c>
       <c r="AR43" s="6" t="inlineStr"/>
       <c r="AS43" s="6" t="inlineStr"/>
       <c r="AT43" s="6" t="inlineStr"/>
       <c r="AU43" s="6" t="inlineStr"/>
       <c r="AV43" s="6" t="inlineStr"/>
-      <c r="AW43" s="6" t="inlineStr">
-        <is>
-          <t>unflyable</t>
-        </is>
-      </c>
+      <c r="AW43" s="6" t="inlineStr"/>
       <c r="AX43" s="6" t="inlineStr"/>
       <c r="AY43" s="6" t="inlineStr"/>
       <c r="AZ43" s="6" t="inlineStr"/>
@@ -6258,11 +6258,7 @@
       <c r="AO44" s="6" t="inlineStr"/>
       <c r="AP44" s="6" t="inlineStr"/>
       <c r="AQ44" s="6" t="inlineStr"/>
-      <c r="AR44" s="6" t="inlineStr">
-        <is>
-          <t>missile</t>
-        </is>
-      </c>
+      <c r="AR44" s="6" t="inlineStr"/>
       <c r="AS44" s="6" t="inlineStr"/>
       <c r="AT44" s="6" t="inlineStr"/>
       <c r="AU44" s="6" t="inlineStr"/>
@@ -6272,7 +6268,11 @@
       <c r="AY44" s="6" t="inlineStr"/>
       <c r="AZ44" s="6" t="inlineStr"/>
       <c r="BA44" s="6" t="inlineStr"/>
-      <c r="BB44" s="6" t="inlineStr"/>
+      <c r="BB44" s="6" t="inlineStr">
+        <is>
+          <t>missile</t>
+        </is>
+      </c>
       <c r="BC44" s="6" t="inlineStr"/>
       <c r="BD44" s="6" t="inlineStr"/>
     </row>
@@ -8513,12 +8513,12 @@
       <c r="AV68" s="6" t="inlineStr"/>
       <c r="AW68" s="6" t="inlineStr"/>
       <c r="AX68" s="6" t="inlineStr"/>
-      <c r="AY68" s="6" t="inlineStr"/>
-      <c r="AZ68" s="6" t="inlineStr">
+      <c r="AY68" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="AZ68" s="6" t="inlineStr"/>
       <c r="BA68" s="6" t="inlineStr"/>
       <c r="BB68" s="6" t="inlineStr"/>
       <c r="BC68" s="6" t="inlineStr"/>
@@ -8606,11 +8606,7 @@
       <c r="AM69" s="6" t="inlineStr"/>
       <c r="AN69" s="6" t="inlineStr"/>
       <c r="AO69" s="6" t="inlineStr"/>
-      <c r="AP69" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AP69" s="6" t="inlineStr"/>
       <c r="AQ69" s="6" t="inlineStr"/>
       <c r="AR69" s="6" t="inlineStr"/>
       <c r="AS69" s="6" t="inlineStr"/>
@@ -8619,16 +8615,20 @@
       <c r="AV69" s="6" t="inlineStr"/>
       <c r="AW69" s="6" t="inlineStr"/>
       <c r="AX69" s="6" t="inlineStr"/>
-      <c r="AY69" s="6" t="inlineStr"/>
-      <c r="AZ69" s="6" t="inlineStr">
+      <c r="AY69" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="AZ69" s="6" t="inlineStr"/>
       <c r="BA69" s="6" t="inlineStr"/>
       <c r="BB69" s="6" t="inlineStr"/>
       <c r="BC69" s="6" t="inlineStr"/>
-      <c r="BD69" s="6" t="inlineStr"/>
+      <c r="BD69" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
@@ -8704,11 +8704,7 @@
       <c r="AM70" s="6" t="inlineStr"/>
       <c r="AN70" s="6" t="inlineStr"/>
       <c r="AO70" s="6" t="inlineStr"/>
-      <c r="AP70" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AP70" s="6" t="inlineStr"/>
       <c r="AQ70" s="6" t="inlineStr"/>
       <c r="AR70" s="6" t="inlineStr"/>
       <c r="AS70" s="6" t="inlineStr"/>
@@ -8717,16 +8713,20 @@
       <c r="AV70" s="6" t="inlineStr"/>
       <c r="AW70" s="6" t="inlineStr"/>
       <c r="AX70" s="6" t="inlineStr"/>
-      <c r="AY70" s="6" t="inlineStr"/>
-      <c r="AZ70" s="6" t="inlineStr">
+      <c r="AY70" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="AZ70" s="6" t="inlineStr"/>
       <c r="BA70" s="6" t="inlineStr"/>
       <c r="BB70" s="6" t="inlineStr"/>
       <c r="BC70" s="6" t="inlineStr"/>
-      <c r="BD70" s="6" t="inlineStr"/>
+      <c r="BD70" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
@@ -8815,12 +8815,12 @@
       <c r="AV71" s="6" t="inlineStr"/>
       <c r="AW71" s="6" t="inlineStr"/>
       <c r="AX71" s="6" t="inlineStr"/>
-      <c r="AY71" s="6" t="inlineStr"/>
-      <c r="AZ71" s="6" t="inlineStr">
+      <c r="AY71" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="AZ71" s="6" t="inlineStr"/>
       <c r="BA71" s="6" t="inlineStr"/>
       <c r="BB71" s="6" t="inlineStr"/>
       <c r="BC71" s="6" t="inlineStr"/>
@@ -9449,12 +9449,12 @@
       <c r="AV78" s="6" t="inlineStr"/>
       <c r="AW78" s="6" t="inlineStr"/>
       <c r="AX78" s="6" t="inlineStr"/>
-      <c r="AY78" s="6" t="inlineStr"/>
-      <c r="AZ78" s="6" t="inlineStr">
+      <c r="AY78" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="AZ78" s="6" t="inlineStr"/>
       <c r="BA78" s="6" t="inlineStr"/>
       <c r="BB78" s="6" t="inlineStr"/>
       <c r="BC78" s="6" t="inlineStr"/>
@@ -9614,11 +9614,7 @@
       <c r="AK80" s="6" t="inlineStr"/>
       <c r="AL80" s="6" t="inlineStr"/>
       <c r="AM80" s="6" t="inlineStr"/>
-      <c r="AN80" s="6" t="inlineStr">
-        <is>
-          <t>ngrw,nftb,nfsp,nogm,ngst</t>
-        </is>
-      </c>
+      <c r="AN80" s="6" t="inlineStr"/>
       <c r="AO80" s="6" t="inlineStr"/>
       <c r="AP80" s="6" t="inlineStr"/>
       <c r="AQ80" s="6" t="inlineStr"/>
@@ -9626,7 +9622,11 @@
       <c r="AS80" s="6" t="inlineStr"/>
       <c r="AT80" s="6" t="inlineStr"/>
       <c r="AU80" s="6" t="inlineStr"/>
-      <c r="AV80" s="6" t="inlineStr"/>
+      <c r="AV80" s="6" t="inlineStr">
+        <is>
+          <t>ngrw,nftb,nfsp,nogm,ngst</t>
+        </is>
+      </c>
       <c r="AW80" s="6" t="inlineStr"/>
       <c r="AX80" s="6" t="inlineStr"/>
       <c r="AY80" s="6" t="inlineStr"/>
@@ -10015,12 +10015,12 @@
       <c r="AT84" s="6" t="inlineStr"/>
       <c r="AU84" s="6" t="inlineStr"/>
       <c r="AV84" s="6" t="inlineStr"/>
-      <c r="AW84" s="6" t="inlineStr"/>
-      <c r="AX84" s="6" t="inlineStr">
+      <c r="AW84" s="6" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
+      <c r="AX84" s="6" t="inlineStr"/>
       <c r="AY84" s="6" t="inlineStr"/>
       <c r="AZ84" s="6" t="inlineStr"/>
       <c r="BA84" s="6" t="inlineStr"/>
@@ -10213,12 +10213,12 @@
       <c r="AV86" s="6" t="inlineStr"/>
       <c r="AW86" s="6" t="inlineStr"/>
       <c r="AX86" s="6" t="inlineStr"/>
-      <c r="AY86" s="6" t="inlineStr"/>
-      <c r="AZ86" s="6" t="inlineStr">
+      <c r="AY86" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="AZ86" s="6" t="inlineStr"/>
       <c r="BA86" s="6" t="inlineStr"/>
       <c r="BB86" s="6" t="inlineStr"/>
       <c r="BC86" s="6" t="inlineStr"/>
@@ -14574,12 +14574,12 @@
       <c r="AW134" s="6" t="inlineStr"/>
       <c r="AX134" s="6" t="inlineStr"/>
       <c r="AY134" s="6" t="inlineStr"/>
-      <c r="AZ134" s="6" t="inlineStr"/>
-      <c r="BA134" s="6" t="inlineStr">
+      <c r="AZ134" s="6" t="inlineStr">
         <is>
           <t>always</t>
         </is>
       </c>
+      <c r="BA134" s="6" t="inlineStr"/>
       <c r="BB134" s="6" t="inlineStr"/>
       <c r="BC134" s="6" t="inlineStr"/>
       <c r="BD134" s="6" t="inlineStr"/>
@@ -16035,21 +16035,21 @@
       <c r="AT150" s="6" t="inlineStr"/>
       <c r="AU150" s="6" t="inlineStr"/>
       <c r="AV150" s="6" t="inlineStr"/>
-      <c r="AW150" s="6" t="inlineStr"/>
-      <c r="AX150" s="6" t="inlineStr">
+      <c r="AW150" s="6" t="inlineStr">
         <is>
           <t>122</t>
         </is>
       </c>
+      <c r="AX150" s="6" t="inlineStr"/>
       <c r="AY150" s="6" t="inlineStr"/>
       <c r="AZ150" s="6" t="inlineStr"/>
-      <c r="BA150" s="6" t="inlineStr"/>
+      <c r="BA150" s="6" t="inlineStr">
+        <is>
+          <t>（等级3）</t>
+        </is>
+      </c>
       <c r="BB150" s="6" t="inlineStr"/>
-      <c r="BC150" s="6" t="inlineStr">
-        <is>
-          <t>（等级3）</t>
-        </is>
-      </c>
+      <c r="BC150" s="6" t="inlineStr"/>
       <c r="BD150" s="6" t="inlineStr"/>
     </row>
     <row r="151">
@@ -16146,24 +16146,24 @@
       <c r="AQ151" s="6" t="inlineStr"/>
       <c r="AR151" s="6" t="inlineStr"/>
       <c r="AS151" s="6" t="inlineStr"/>
-      <c r="AT151" s="6" t="inlineStr"/>
+      <c r="AT151" s="6" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
       <c r="AU151" s="6" t="inlineStr"/>
       <c r="AV151" s="6" t="inlineStr"/>
       <c r="AW151" s="6" t="inlineStr"/>
       <c r="AX151" s="6" t="inlineStr"/>
-      <c r="AY151" s="6" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
+      <c r="AY151" s="6" t="inlineStr"/>
       <c r="AZ151" s="6" t="inlineStr"/>
-      <c r="BA151" s="6" t="inlineStr"/>
+      <c r="BA151" s="6" t="inlineStr">
+        <is>
+          <t>（等级2）</t>
+        </is>
+      </c>
       <c r="BB151" s="6" t="inlineStr"/>
-      <c r="BC151" s="6" t="inlineStr">
-        <is>
-          <t>（等级2）</t>
-        </is>
-      </c>
+      <c r="BC151" s="6" t="inlineStr"/>
       <c r="BD151" s="6" t="inlineStr"/>
     </row>
     <row r="152">
@@ -16244,28 +16244,28 @@
       <c r="AQ152" s="6" t="inlineStr"/>
       <c r="AR152" s="6" t="inlineStr"/>
       <c r="AS152" s="6" t="inlineStr"/>
-      <c r="AT152" s="6" t="inlineStr"/>
+      <c r="AT152" s="6" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
       <c r="AU152" s="6" t="inlineStr"/>
       <c r="AV152" s="6" t="inlineStr"/>
       <c r="AW152" s="6" t="inlineStr"/>
-      <c r="AX152" s="6" t="inlineStr"/>
-      <c r="AY152" s="6" t="inlineStr">
+      <c r="AX152" s="6" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
+      <c r="AY152" s="6" t="inlineStr"/>
       <c r="AZ152" s="6" t="inlineStr"/>
-      <c r="BA152" s="6" t="inlineStr"/>
-      <c r="BB152" s="6" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="BC152" s="6" t="inlineStr">
+      <c r="BA152" s="6" t="inlineStr">
         <is>
           <t>(等级5)</t>
         </is>
       </c>
+      <c r="BB152" s="6" t="inlineStr"/>
+      <c r="BC152" s="6" t="inlineStr"/>
       <c r="BD152" s="6" t="inlineStr"/>
     </row>
     <row r="153">
@@ -16350,20 +16350,20 @@
       <c r="AU153" s="6" t="inlineStr"/>
       <c r="AV153" s="6" t="inlineStr"/>
       <c r="AW153" s="6" t="inlineStr"/>
-      <c r="AX153" s="6" t="inlineStr"/>
+      <c r="AX153" s="6" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
       <c r="AY153" s="6" t="inlineStr"/>
       <c r="AZ153" s="6" t="inlineStr"/>
-      <c r="BA153" s="6" t="inlineStr"/>
-      <c r="BB153" s="6" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="BC153" s="6" t="inlineStr">
+      <c r="BA153" s="6" t="inlineStr">
         <is>
           <t>(等级4)</t>
         </is>
       </c>
+      <c r="BB153" s="6" t="inlineStr"/>
+      <c r="BC153" s="6" t="inlineStr"/>
       <c r="BD153" s="6" t="inlineStr"/>
     </row>
     <row r="154">
@@ -16447,14 +16447,18 @@
       <c r="AP154" s="6" t="inlineStr"/>
       <c r="AQ154" s="6" t="inlineStr"/>
       <c r="AR154" s="6" t="inlineStr"/>
-      <c r="AS154" s="6" t="inlineStr"/>
+      <c r="AS154" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AT154" s="6" t="inlineStr"/>
-      <c r="AU154" s="6" t="inlineStr"/>
-      <c r="AV154" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AU154" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV154" s="6" t="inlineStr"/>
       <c r="AW154" s="6" t="inlineStr"/>
       <c r="AX154" s="6" t="inlineStr"/>
       <c r="AY154" s="6" t="inlineStr"/>
@@ -16462,11 +16466,7 @@
       <c r="BA154" s="6" t="inlineStr"/>
       <c r="BB154" s="6" t="inlineStr"/>
       <c r="BC154" s="6" t="inlineStr"/>
-      <c r="BD154" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BD154" s="6" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
@@ -16549,14 +16549,18 @@
       <c r="AP155" s="6" t="inlineStr"/>
       <c r="AQ155" s="6" t="inlineStr"/>
       <c r="AR155" s="6" t="inlineStr"/>
-      <c r="AS155" s="6" t="inlineStr"/>
+      <c r="AS155" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AT155" s="6" t="inlineStr"/>
-      <c r="AU155" s="6" t="inlineStr"/>
-      <c r="AV155" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AU155" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV155" s="6" t="inlineStr"/>
       <c r="AW155" s="6" t="inlineStr"/>
       <c r="AX155" s="6" t="inlineStr"/>
       <c r="AY155" s="6" t="inlineStr"/>
@@ -16564,11 +16568,7 @@
       <c r="BA155" s="6" t="inlineStr"/>
       <c r="BB155" s="6" t="inlineStr"/>
       <c r="BC155" s="6" t="inlineStr"/>
-      <c r="BD155" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BD155" s="6" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
@@ -16651,14 +16651,18 @@
       <c r="AP156" s="6" t="inlineStr"/>
       <c r="AQ156" s="6" t="inlineStr"/>
       <c r="AR156" s="6" t="inlineStr"/>
-      <c r="AS156" s="6" t="inlineStr"/>
+      <c r="AS156" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AT156" s="6" t="inlineStr"/>
-      <c r="AU156" s="6" t="inlineStr"/>
-      <c r="AV156" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AU156" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV156" s="6" t="inlineStr"/>
       <c r="AW156" s="6" t="inlineStr"/>
       <c r="AX156" s="6" t="inlineStr"/>
       <c r="AY156" s="6" t="inlineStr"/>
@@ -16666,11 +16670,7 @@
       <c r="BA156" s="6" t="inlineStr"/>
       <c r="BB156" s="6" t="inlineStr"/>
       <c r="BC156" s="6" t="inlineStr"/>
-      <c r="BD156" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BD156" s="6" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
@@ -16839,13 +16839,13 @@
       <c r="AX158" s="6" t="inlineStr"/>
       <c r="AY158" s="6" t="inlineStr"/>
       <c r="AZ158" s="6" t="inlineStr"/>
-      <c r="BA158" s="6" t="inlineStr"/>
+      <c r="BA158" s="6" t="inlineStr">
+        <is>
+          <t>(等级5)</t>
+        </is>
+      </c>
       <c r="BB158" s="6" t="inlineStr"/>
-      <c r="BC158" s="6" t="inlineStr">
-        <is>
-          <t>(等级5)</t>
-        </is>
-      </c>
+      <c r="BC158" s="6" t="inlineStr"/>
       <c r="BD158" s="6" t="inlineStr"/>
     </row>
     <row r="159">
@@ -16929,14 +16929,14 @@
       <c r="AL159" s="6" t="inlineStr"/>
       <c r="AM159" s="6" t="inlineStr"/>
       <c r="AN159" s="6" t="inlineStr"/>
-      <c r="AO159" s="6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="AO159" s="6" t="inlineStr"/>
       <c r="AP159" s="6" t="inlineStr"/>
       <c r="AQ159" s="6" t="inlineStr"/>
-      <c r="AR159" s="6" t="inlineStr"/>
+      <c r="AR159" s="6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="AS159" s="6" t="inlineStr"/>
       <c r="AT159" s="6" t="inlineStr"/>
       <c r="AU159" s="6" t="inlineStr"/>
@@ -16945,13 +16945,13 @@
       <c r="AX159" s="6" t="inlineStr"/>
       <c r="AY159" s="6" t="inlineStr"/>
       <c r="AZ159" s="6" t="inlineStr"/>
-      <c r="BA159" s="6" t="inlineStr"/>
+      <c r="BA159" s="6" t="inlineStr">
+        <is>
+          <t>(等级4)</t>
+        </is>
+      </c>
       <c r="BB159" s="6" t="inlineStr"/>
-      <c r="BC159" s="6" t="inlineStr">
-        <is>
-          <t>(等级4)</t>
-        </is>
-      </c>
+      <c r="BC159" s="6" t="inlineStr"/>
       <c r="BD159" s="6" t="inlineStr"/>
     </row>
     <row r="160">
@@ -17035,14 +17035,14 @@
       <c r="AL160" s="6" t="inlineStr"/>
       <c r="AM160" s="6" t="inlineStr"/>
       <c r="AN160" s="6" t="inlineStr"/>
-      <c r="AO160" s="6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
+      <c r="AO160" s="6" t="inlineStr"/>
       <c r="AP160" s="6" t="inlineStr"/>
       <c r="AQ160" s="6" t="inlineStr"/>
-      <c r="AR160" s="6" t="inlineStr"/>
+      <c r="AR160" s="6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="AS160" s="6" t="inlineStr"/>
       <c r="AT160" s="6" t="inlineStr"/>
       <c r="AU160" s="6" t="inlineStr"/>
@@ -17051,13 +17051,13 @@
       <c r="AX160" s="6" t="inlineStr"/>
       <c r="AY160" s="6" t="inlineStr"/>
       <c r="AZ160" s="6" t="inlineStr"/>
-      <c r="BA160" s="6" t="inlineStr"/>
+      <c r="BA160" s="6" t="inlineStr">
+        <is>
+          <t>(等级5)</t>
+        </is>
+      </c>
       <c r="BB160" s="6" t="inlineStr"/>
-      <c r="BC160" s="6" t="inlineStr">
-        <is>
-          <t>(等级5)</t>
-        </is>
-      </c>
+      <c r="BC160" s="6" t="inlineStr"/>
       <c r="BD160" s="6" t="inlineStr"/>
     </row>
     <row r="161">
@@ -17150,21 +17150,25 @@
       <c r="AM161" s="6" t="inlineStr"/>
       <c r="AN161" s="6" t="inlineStr"/>
       <c r="AO161" s="6" t="inlineStr"/>
-      <c r="AP161" s="6" t="inlineStr"/>
+      <c r="AP161" s="6" t="inlineStr">
+        <is>
+          <t>ReplaceableTextures\\CommandButtons\\BTNOrbOfDeath.blp</t>
+        </is>
+      </c>
       <c r="AQ161" s="6" t="inlineStr"/>
       <c r="AR161" s="6" t="inlineStr"/>
-      <c r="AS161" s="6" t="inlineStr"/>
-      <c r="AT161" s="6" t="inlineStr">
-        <is>
-          <t>ReplaceableTextures\\CommandButtons\\BTNOrbOfDeath.blp</t>
-        </is>
-      </c>
-      <c r="AU161" s="6" t="inlineStr"/>
-      <c r="AV161" s="6" t="inlineStr">
+      <c r="AS161" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="AT161" s="6" t="inlineStr"/>
+      <c r="AU161" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV161" s="6" t="inlineStr"/>
       <c r="AW161" s="6" t="inlineStr"/>
       <c r="AX161" s="6" t="inlineStr"/>
       <c r="AY161" s="6" t="inlineStr"/>
@@ -17172,11 +17176,7 @@
       <c r="BA161" s="6" t="inlineStr"/>
       <c r="BB161" s="6" t="inlineStr"/>
       <c r="BC161" s="6" t="inlineStr"/>
-      <c r="BD161" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BD161" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17683,122 +17683,122 @@
       </c>
       <c r="S1" s="5" t="inlineStr">
         <is>
+          <t>热键-普通</t>
+        </is>
+      </c>
+      <c r="T1" s="5" t="inlineStr">
+        <is>
+          <t>提示工具-关闭-扩展</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>命令串-使用/打开</t>
+        </is>
+      </c>
+      <c r="V1" s="5" t="inlineStr">
+        <is>
+          <t>持续时间-普通</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>图标-学习</t>
+        </is>
+      </c>
+      <c r="X1" s="5" t="inlineStr">
+        <is>
+          <t>热键-学习</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>魔法施放时间</t>
+        </is>
+      </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>图标-关闭</t>
+        </is>
+      </c>
+      <c r="AA1" s="5" t="inlineStr">
+        <is>
+          <t>图标-普通</t>
+        </is>
+      </c>
+      <c r="AB1" s="5" t="inlineStr">
+        <is>
+          <t>效果-目标附加点1</t>
+        </is>
+      </c>
+      <c r="AC1" s="5" t="inlineStr">
+        <is>
+          <t>热键-关闭</t>
+        </is>
+      </c>
+      <c r="AD1" s="5" t="inlineStr">
+        <is>
+          <t>魔法效果</t>
+        </is>
+      </c>
+      <c r="AE1" s="5" t="inlineStr">
+        <is>
+          <t>检查等价所属</t>
+        </is>
+      </c>
+      <c r="AF1" s="5" t="inlineStr">
+        <is>
+          <t>效果-施法者附加点1</t>
+        </is>
+      </c>
+      <c r="AG1" s="5" t="inlineStr">
+        <is>
+          <t>效果-施法动作</t>
+        </is>
+      </c>
+      <c r="AH1" s="5" t="inlineStr">
+        <is>
           <t>提示工具-关闭</t>
         </is>
       </c>
-      <c r="T1" s="5" t="inlineStr">
-        <is>
-          <t>持续时间-普通</t>
-        </is>
-      </c>
-      <c r="U1" s="5" t="inlineStr">
-        <is>
-          <t>图标-普通</t>
-        </is>
-      </c>
-      <c r="V1" s="5" t="inlineStr">
+      <c r="AI1" s="5" t="inlineStr">
+        <is>
+          <t>UnitID</t>
+        </is>
+      </c>
+      <c r="AJ1" s="5" t="inlineStr">
+        <is>
+          <t>编辑器后缀</t>
+        </is>
+      </c>
+      <c r="AK1" s="5" t="inlineStr">
+        <is>
+          <t>提示工具-普通-扩展</t>
+        </is>
+      </c>
+      <c r="AL1" s="5" t="inlineStr">
+        <is>
+          <t>提示工具-学习-扩展</t>
+        </is>
+      </c>
+      <c r="AM1" s="5" t="inlineStr">
+        <is>
+          <t>魔法消耗</t>
+        </is>
+      </c>
+      <c r="AN1" s="5" t="inlineStr">
         <is>
           <t>效果-投射物图像</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>检查等价所属</t>
-        </is>
-      </c>
-      <c r="X1" s="5" t="inlineStr">
-        <is>
-          <t>命令串-使用/打开</t>
-        </is>
-      </c>
-      <c r="Y1" s="5" t="inlineStr">
-        <is>
-          <t>效果-目标附加点1</t>
-        </is>
-      </c>
-      <c r="Z1" s="5" t="inlineStr">
+      <c r="AO1" s="5" t="inlineStr">
+        <is>
+          <t>目标允许</t>
+        </is>
+      </c>
+      <c r="AP1" s="5" t="inlineStr">
         <is>
           <t>持续时间-英雄</t>
-        </is>
-      </c>
-      <c r="AA1" s="5" t="inlineStr">
-        <is>
-          <t>效果-施法者附加点1</t>
-        </is>
-      </c>
-      <c r="AB1" s="5" t="inlineStr">
-        <is>
-          <t>UnitID</t>
-        </is>
-      </c>
-      <c r="AC1" s="5" t="inlineStr">
-        <is>
-          <t>魔法施放时间</t>
-        </is>
-      </c>
-      <c r="AD1" s="5" t="inlineStr">
-        <is>
-          <t>魔法效果</t>
-        </is>
-      </c>
-      <c r="AE1" s="5" t="inlineStr">
-        <is>
-          <t>图标-关闭</t>
-        </is>
-      </c>
-      <c r="AF1" s="5" t="inlineStr">
-        <is>
-          <t>提示工具-关闭-扩展</t>
-        </is>
-      </c>
-      <c r="AG1" s="5" t="inlineStr">
-        <is>
-          <t>效果-施法动作</t>
-        </is>
-      </c>
-      <c r="AH1" s="5" t="inlineStr">
-        <is>
-          <t>提示工具-学习-扩展</t>
-        </is>
-      </c>
-      <c r="AI1" s="5" t="inlineStr">
-        <is>
-          <t>图标-学习</t>
-        </is>
-      </c>
-      <c r="AJ1" s="5" t="inlineStr">
-        <is>
-          <t>提示工具-普通-扩展</t>
-        </is>
-      </c>
-      <c r="AK1" s="5" t="inlineStr">
-        <is>
-          <t>热键-关闭</t>
-        </is>
-      </c>
-      <c r="AL1" s="5" t="inlineStr">
-        <is>
-          <t>热键-普通</t>
-        </is>
-      </c>
-      <c r="AM1" s="5" t="inlineStr">
-        <is>
-          <t>魔法消耗</t>
-        </is>
-      </c>
-      <c r="AN1" s="5" t="inlineStr">
-        <is>
-          <t>编辑器后缀</t>
-        </is>
-      </c>
-      <c r="AO1" s="5" t="inlineStr">
-        <is>
-          <t>热键-学习</t>
-        </is>
-      </c>
-      <c r="AP1" s="5" t="inlineStr">
-        <is>
-          <t>目标允许</t>
         </is>
       </c>
     </row>
@@ -17895,122 +17895,122 @@
       </c>
       <c r="S2" s="5" t="inlineStr">
         <is>
+          <t>Hotkey</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>Unubertip</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>Dur</t>
+        </is>
+      </c>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>ResearchArt</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="inlineStr">
+        <is>
+          <t>Researchhotkey</t>
+        </is>
+      </c>
+      <c r="Y2" s="5" t="inlineStr">
+        <is>
+          <t>Cast</t>
+        </is>
+      </c>
+      <c r="Z2" s="5" t="inlineStr">
+        <is>
+          <t>Unart</t>
+        </is>
+      </c>
+      <c r="AA2" s="5" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="AB2" s="5" t="inlineStr">
+        <is>
+          <t>Targetattach</t>
+        </is>
+      </c>
+      <c r="AC2" s="5" t="inlineStr">
+        <is>
+          <t>Unhotkey</t>
+        </is>
+      </c>
+      <c r="AD2" s="5" t="inlineStr">
+        <is>
+          <t>BuffID</t>
+        </is>
+      </c>
+      <c r="AE2" s="5" t="inlineStr">
+        <is>
+          <t>checkDep</t>
+        </is>
+      </c>
+      <c r="AF2" s="5" t="inlineStr">
+        <is>
+          <t>Casterattach</t>
+        </is>
+      </c>
+      <c r="AG2" s="5" t="inlineStr">
+        <is>
+          <t>Animnames</t>
+        </is>
+      </c>
+      <c r="AH2" s="5" t="inlineStr">
+        <is>
           <t>Untip</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>Dur</t>
-        </is>
-      </c>
-      <c r="U2" s="5" t="inlineStr">
-        <is>
-          <t>Art</t>
-        </is>
-      </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="AI2" s="5" t="inlineStr">
+        <is>
+          <t>UnitID</t>
+        </is>
+      </c>
+      <c r="AJ2" s="5" t="inlineStr">
+        <is>
+          <t>EditorSuffix</t>
+        </is>
+      </c>
+      <c r="AK2" s="5" t="inlineStr">
+        <is>
+          <t>Ubertip</t>
+        </is>
+      </c>
+      <c r="AL2" s="5" t="inlineStr">
+        <is>
+          <t>Researchubertip</t>
+        </is>
+      </c>
+      <c r="AM2" s="5" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="AN2" s="5" t="inlineStr">
         <is>
           <t>Missileart</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
-        <is>
-          <t>checkDep</t>
-        </is>
-      </c>
-      <c r="X2" s="5" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
-      <c r="Y2" s="5" t="inlineStr">
-        <is>
-          <t>Targetattach</t>
-        </is>
-      </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AO2" s="5" t="inlineStr">
+        <is>
+          <t>targs</t>
+        </is>
+      </c>
+      <c r="AP2" s="5" t="inlineStr">
         <is>
           <t>HeroDur</t>
-        </is>
-      </c>
-      <c r="AA2" s="5" t="inlineStr">
-        <is>
-          <t>Casterattach</t>
-        </is>
-      </c>
-      <c r="AB2" s="5" t="inlineStr">
-        <is>
-          <t>UnitID</t>
-        </is>
-      </c>
-      <c r="AC2" s="5" t="inlineStr">
-        <is>
-          <t>Cast</t>
-        </is>
-      </c>
-      <c r="AD2" s="5" t="inlineStr">
-        <is>
-          <t>BuffID</t>
-        </is>
-      </c>
-      <c r="AE2" s="5" t="inlineStr">
-        <is>
-          <t>Unart</t>
-        </is>
-      </c>
-      <c r="AF2" s="5" t="inlineStr">
-        <is>
-          <t>Unubertip</t>
-        </is>
-      </c>
-      <c r="AG2" s="5" t="inlineStr">
-        <is>
-          <t>Animnames</t>
-        </is>
-      </c>
-      <c r="AH2" s="5" t="inlineStr">
-        <is>
-          <t>Researchubertip</t>
-        </is>
-      </c>
-      <c r="AI2" s="5" t="inlineStr">
-        <is>
-          <t>ResearchArt</t>
-        </is>
-      </c>
-      <c r="AJ2" s="5" t="inlineStr">
-        <is>
-          <t>Ubertip</t>
-        </is>
-      </c>
-      <c r="AK2" s="5" t="inlineStr">
-        <is>
-          <t>Unhotkey</t>
-        </is>
-      </c>
-      <c r="AL2" s="5" t="inlineStr">
-        <is>
-          <t>Hotkey</t>
-        </is>
-      </c>
-      <c r="AM2" s="5" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="AN2" s="5" t="inlineStr">
-        <is>
-          <t>EditorSuffix</t>
-        </is>
-      </c>
-      <c r="AO2" s="5" t="inlineStr">
-        <is>
-          <t>Researchhotkey</t>
-        </is>
-      </c>
-      <c r="AP2" s="5" t="inlineStr">
-        <is>
-          <t>targs</t>
         </is>
       </c>
     </row>
@@ -18067,12 +18067,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S3" s="6" t="inlineStr"/>
+      <c r="S3" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T3" s="6" t="inlineStr"/>
       <c r="U3" s="6" t="inlineStr"/>
       <c r="V3" s="6" t="inlineStr"/>
       <c r="W3" s="6" t="inlineStr"/>
-      <c r="X3" s="6" t="inlineStr"/>
+      <c r="X3" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y3" s="6" t="inlineStr"/>
       <c r="Z3" s="6" t="inlineStr"/>
       <c r="AA3" s="6" t="inlineStr"/>
@@ -18082,13 +18090,10 @@
       <c r="AE3" s="6" t="inlineStr"/>
       <c r="AF3" s="6" t="inlineStr"/>
       <c r="AG3" s="6" t="inlineStr"/>
-      <c r="AH3" s="6" t="inlineStr">
-        <is>
-          <t>该光环能给予周围的友军单位一个具有攻击力的护盾保护，敌人对这些单位进行一次近战攻击就会受到一定的伤害。|n|n|cffffcc00等级1|r-返回&lt;AEah,DataA1,%&gt;%的伤害。|n|cffffcc00等级2|r-返回&lt;AEah,DataA2,%&gt;%的伤害。|n|cffffcc00等级3|r-返回&lt;AEah,DataA3,%&gt;%的伤害。|n|cffffcc00等级4|r-返回&lt;AEah,DataA4,%&gt;%的伤害。|n|cffffcc00等级5|r-返回&lt;AEah,DataA5,%&gt;%的伤害。</t>
-        </is>
-      </c>
+      <c r="AH3" s="6" t="inlineStr"/>
       <c r="AI3" s="6" t="inlineStr"/>
-      <c r="AJ3" s="6" t="inlineStr">
+      <c r="AJ3" s="6" t="inlineStr"/>
+      <c r="AK3" s="6" t="inlineStr">
         <is>
           <t>{
 "该光环能给予周围的友军单位一个具有攻击力的护盾保护，敌人对这些单位进行一次近战攻击就会受到相当于&lt;AEah,DataA1,%&gt;%自身攻击力的伤害。",
@@ -18099,20 +18104,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK3" s="6" t="inlineStr"/>
       <c r="AL3" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>该光环能给予周围的友军单位一个具有攻击力的护盾保护，敌人对这些单位进行一次近战攻击就会受到一定的伤害。|n|n|cffffcc00等级1|r-返回&lt;AEah,DataA1,%&gt;%的伤害。|n|cffffcc00等级2|r-返回&lt;AEah,DataA2,%&gt;%的伤害。|n|cffffcc00等级3|r-返回&lt;AEah,DataA3,%&gt;%的伤害。|n|cffffcc00等级4|r-返回&lt;AEah,DataA4,%&gt;%的伤害。|n|cffffcc00等级5|r-返回&lt;AEah,DataA5,%&gt;%的伤害。</t>
         </is>
       </c>
       <c r="AM3" s="6" t="inlineStr"/>
       <c r="AN3" s="6" t="inlineStr"/>
       <c r="AO3" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AP3" s="6" t="inlineStr">
         <is>
           <t>{
 "ground,vulnerable,air,invulnerable,friend,organic,self",
@@ -18123,6 +18122,7 @@
 }</t>
         </is>
       </c>
+      <c r="AP3" s="6" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -18182,7 +18182,11 @@
       <c r="U4" s="6" t="inlineStr"/>
       <c r="V4" s="6" t="inlineStr"/>
       <c r="W4" s="6" t="inlineStr"/>
-      <c r="X4" s="6" t="inlineStr"/>
+      <c r="X4" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y4" s="6" t="inlineStr"/>
       <c r="Z4" s="6" t="inlineStr"/>
       <c r="AA4" s="6" t="inlineStr"/>
@@ -18192,13 +18196,10 @@
       <c r="AE4" s="6" t="inlineStr"/>
       <c r="AF4" s="6" t="inlineStr"/>
       <c r="AG4" s="6" t="inlineStr"/>
-      <c r="AH4" s="6" t="inlineStr">
-        <is>
-          <t>一种能增加周围友军单位远程攻击力的光环。|n|n|cffffcc00等级1|r-增加&lt;AEar,DataA1,%&gt;%的远程攻击力。|n|cffffcc00等级2|r-增加&lt;AEar,DataA2,%&gt;%的远程攻击力。|n|cffffcc00等级3|r-增加&lt;AEar,DataA3,%&gt;%的远程攻击力。|n|cffffcc00等级4|r-增加&lt;AEar,DataA4,%&gt;%的远程攻击力。|n|cffffcc00等级5|r-增加&lt;AEar,DataA5,%&gt;%的远程攻击力。</t>
-        </is>
-      </c>
+      <c r="AH4" s="6" t="inlineStr"/>
       <c r="AI4" s="6" t="inlineStr"/>
-      <c r="AJ4" s="6" t="inlineStr">
+      <c r="AJ4" s="6" t="inlineStr"/>
+      <c r="AK4" s="6" t="inlineStr">
         <is>
           <t>{
 "一种能增加周围友军单位&lt;AEar,DataA1,%&gt;%远程攻击力的光环。",
@@ -18209,15 +18210,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK4" s="6" t="inlineStr"/>
-      <c r="AL4" s="6" t="inlineStr"/>
+      <c r="AL4" s="6" t="inlineStr">
+        <is>
+          <t>一种能增加周围友军单位远程攻击力的光环。|n|n|cffffcc00等级1|r-增加&lt;AEar,DataA1,%&gt;%的远程攻击力。|n|cffffcc00等级2|r-增加&lt;AEar,DataA2,%&gt;%的远程攻击力。|n|cffffcc00等级3|r-增加&lt;AEar,DataA3,%&gt;%的远程攻击力。|n|cffffcc00等级4|r-增加&lt;AEar,DataA4,%&gt;%的远程攻击力。|n|cffffcc00等级5|r-增加&lt;AEar,DataA5,%&gt;%的远程攻击力。</t>
+        </is>
+      </c>
       <c r="AM4" s="6" t="inlineStr"/>
       <c r="AN4" s="6" t="inlineStr"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO4" s="6" t="inlineStr"/>
       <c r="AP4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
@@ -18277,12 +18277,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S5" s="6" t="inlineStr"/>
+      <c r="S5" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T5" s="6" t="inlineStr"/>
       <c r="U5" s="6" t="inlineStr"/>
       <c r="V5" s="6" t="inlineStr"/>
       <c r="W5" s="6" t="inlineStr"/>
-      <c r="X5" s="6" t="inlineStr"/>
+      <c r="X5" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y5" s="6" t="inlineStr"/>
       <c r="Z5" s="6" t="inlineStr"/>
       <c r="AA5" s="6" t="inlineStr"/>
@@ -18292,7 +18300,21 @@
       <c r="AE5" s="6" t="inlineStr"/>
       <c r="AF5" s="6" t="inlineStr"/>
       <c r="AG5" s="6" t="inlineStr"/>
-      <c r="AH5" s="6" t="inlineStr">
+      <c r="AH5" s="6" t="inlineStr"/>
+      <c r="AI5" s="6" t="inlineStr"/>
+      <c r="AJ5" s="6" t="inlineStr"/>
+      <c r="AK5" s="6" t="inlineStr">
+        <is>
+          <t>{
+"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
+"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
+"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
+"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
+"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
+}</t>
+        </is>
+      </c>
+      <c r="AL5" s="6" t="inlineStr">
         <is>
           <t>[=[
 能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。
@@ -18303,35 +18325,13 @@
 |cffffcc00等级 5|r - 冷却时间6秒，魔法消耗20点。]=]</t>
         </is>
       </c>
-      <c r="AI5" s="6" t="inlineStr"/>
-      <c r="AJ5" s="6" t="inlineStr">
-        <is>
-          <t>{
-"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
-"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
-"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
-"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
-"能让守望者瞬间移动一段距离，从而逃离战场或者快速加入战斗。冷却时间和魔法消耗会随技能等级的增加而减少。",
-}</t>
-        </is>
-      </c>
-      <c r="AK5" s="6" t="inlineStr"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AM5" s="6" t="inlineStr">
         <is>
           <t>{50,42,35,27,20}</t>
         </is>
       </c>
       <c r="AN5" s="6" t="inlineStr"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO5" s="6" t="inlineStr"/>
       <c r="AP5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
@@ -18387,22 +18387,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S6" s="6" t="inlineStr"/>
-      <c r="T6" s="6" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="T6" s="6" t="inlineStr"/>
+      <c r="U6" s="6" t="inlineStr"/>
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>{3.0,5.0,7.0,9.0,11.0}</t>
         </is>
       </c>
-      <c r="U6" s="6" t="inlineStr"/>
-      <c r="V6" s="6" t="inlineStr"/>
       <c r="W6" s="6" t="inlineStr"/>
-      <c r="X6" s="6" t="inlineStr"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y6" s="6" t="inlineStr"/>
-      <c r="Z6" s="6" t="inlineStr">
-        <is>
-          <t>{2.0,3.0,4.0,5.0,6.0}</t>
-        </is>
-      </c>
+      <c r="Z6" s="6" t="inlineStr"/>
       <c r="AA6" s="6" t="inlineStr"/>
       <c r="AB6" s="6" t="inlineStr"/>
       <c r="AC6" s="6" t="inlineStr"/>
@@ -18410,13 +18414,10 @@
       <c r="AE6" s="6" t="inlineStr"/>
       <c r="AF6" s="6" t="inlineStr"/>
       <c r="AG6" s="6" t="inlineStr"/>
-      <c r="AH6" s="6" t="inlineStr">
-        <is>
-          <t>从地下伸出缠绕的根须将目标暂时固定，并造成持续伤害。|n|n|cffffcc00等级1|r-&lt;AEer,DataA1&gt;伤害/秒，持续&lt;AEer,Dur1&gt;秒。|n|cffffcc00等级2|r-&lt;AEer,DataA2&gt;伤害/秒，持续&lt;AEer,Dur2&gt;秒。|n|cffffcc00等级3|r-&lt;AEer,DataA3&gt;伤害/秒，持续&lt;AEer,Dur3&gt;秒。|n|cffffcc00等级4|r-&lt;AEer,DataA4&gt;伤害/秒，持续&lt;AEer,Dur4&gt;秒。|n|cffffcc00等级5|r-&lt;AEer,DataA5&gt;伤害/秒，持续&lt;AEer,Dur5&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH6" s="6" t="inlineStr"/>
       <c r="AI6" s="6" t="inlineStr"/>
-      <c r="AJ6" s="6" t="inlineStr">
+      <c r="AJ6" s="6" t="inlineStr"/>
+      <c r="AK6" s="6" t="inlineStr">
         <is>
           <t>{
 "从地下伸出缠绕的根须将目标在&lt;AEer,Dur1&gt;秒内固定住，并对其造成每秒&lt;AEer,DataA1&gt;点的伤害。",
@@ -18427,10 +18428,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK6" s="6" t="inlineStr"/>
       <c r="AL6" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>从地下伸出缠绕的根须将目标暂时固定，并造成持续伤害。|n|n|cffffcc00等级1|r-&lt;AEer,DataA1&gt;伤害/秒，持续&lt;AEer,Dur1&gt;秒。|n|cffffcc00等级2|r-&lt;AEer,DataA2&gt;伤害/秒，持续&lt;AEer,Dur2&gt;秒。|n|cffffcc00等级3|r-&lt;AEer,DataA3&gt;伤害/秒，持续&lt;AEer,Dur3&gt;秒。|n|cffffcc00等级4|r-&lt;AEer,DataA4&gt;伤害/秒，持续&lt;AEer,Dur4&gt;秒。|n|cffffcc00等级5|r-&lt;AEer,DataA5&gt;伤害/秒，持续&lt;AEer,Dur5&gt;秒。</t>
         </is>
       </c>
       <c r="AM6" s="6" t="inlineStr">
@@ -18439,12 +18439,12 @@
         </is>
       </c>
       <c r="AN6" s="6" t="inlineStr"/>
-      <c r="AO6" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP6" s="6" t="inlineStr"/>
+      <c r="AO6" s="6" t="inlineStr"/>
+      <c r="AP6" s="6" t="inlineStr">
+        <is>
+          <t>{2.0,3.0,4.0,5.0,6.0}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -18491,7 +18491,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S7" s="6" t="inlineStr"/>
+      <c r="S7" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T7" s="6" t="inlineStr"/>
       <c r="U7" s="6" t="inlineStr"/>
       <c r="V7" s="6" t="inlineStr"/>
@@ -18506,7 +18510,21 @@
       <c r="AE7" s="6" t="inlineStr"/>
       <c r="AF7" s="6" t="inlineStr"/>
       <c r="AG7" s="6" t="inlineStr"/>
-      <c r="AH7" s="6" t="inlineStr">
+      <c r="AH7" s="6" t="inlineStr"/>
+      <c r="AI7" s="6" t="inlineStr"/>
+      <c r="AJ7" s="6" t="inlineStr"/>
+      <c r="AK7" s="6" t="inlineStr">
+        <is>
+          <t>{
+"给予&lt;AEev,DataA1,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
+"给予&lt;AEev,DataA2,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
+"给予&lt;AEev,DataA3,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
+"给予&lt;AEev,DataA4,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
+"给予&lt;AEev,DataA5,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
+}</t>
+        </is>
+      </c>
+      <c r="AL7" s="6" t="inlineStr">
         <is>
           <t>[=[
 给予一定的概率使得恶魔猎手躲避掉敌人的攻击。
@@ -18515,24 +18533,6 @@
 |cffffcc00等级 3|r - 25%的闪避率
 |cffffcc00等级 4|r - 30%的闪避率
 |cffffcc00等级 5|r - 35%的闪避率]=]</t>
-        </is>
-      </c>
-      <c r="AI7" s="6" t="inlineStr"/>
-      <c r="AJ7" s="6" t="inlineStr">
-        <is>
-          <t>{
-"给予&lt;AEev,DataA1,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
-"给予&lt;AEev,DataA2,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
-"给予&lt;AEev,DataA3,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
-"给予&lt;AEev,DataA4,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
-"给予&lt;AEev,DataA5,%&gt;%的概率让恶魔猎手躲避掉敌人的攻击。",
-}</t>
-        </is>
-      </c>
-      <c r="AK7" s="6" t="inlineStr"/>
-      <c r="AL7" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
         </is>
       </c>
       <c r="AM7" s="6" t="inlineStr"/>
@@ -18597,12 +18597,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S8" s="6" t="inlineStr"/>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T8" s="6" t="inlineStr"/>
       <c r="U8" s="6" t="inlineStr"/>
       <c r="V8" s="6" t="inlineStr"/>
       <c r="W8" s="6" t="inlineStr"/>
-      <c r="X8" s="6" t="inlineStr"/>
+      <c r="X8" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y8" s="6" t="inlineStr"/>
       <c r="Z8" s="6" t="inlineStr"/>
       <c r="AA8" s="6" t="inlineStr"/>
@@ -18612,13 +18620,10 @@
       <c r="AE8" s="6" t="inlineStr"/>
       <c r="AF8" s="6" t="inlineStr"/>
       <c r="AG8" s="6" t="inlineStr"/>
-      <c r="AH8" s="6" t="inlineStr">
-        <is>
-          <t>守望者对周围的敌人发射出锋利的尖刀进行伤害。|n|n|cffffcc00等级1|r-对每个目标造成&lt;AEfk,DataA1&gt;点伤害。|n|cffffcc00等级2|r-对每个目标造成&lt;AEfk,DataA2&gt;点伤害。|n|cffffcc00等级3|r-对每个目标造成&lt;AEfk,DataA3&gt;点伤害。|n|cffffcc00等级4|r-对每个目标造成&lt;AEfk,DataA4&gt;点伤害。|n|cffffcc00等级5|r-对每个目标造成&lt;AEfk,DataA5&gt;点伤害。</t>
-        </is>
-      </c>
+      <c r="AH8" s="6" t="inlineStr"/>
       <c r="AI8" s="6" t="inlineStr"/>
-      <c r="AJ8" s="6" t="inlineStr">
+      <c r="AJ8" s="6" t="inlineStr"/>
+      <c r="AK8" s="6" t="inlineStr">
         <is>
           <t>{
 "守望者对周围的敌人发射出锋利的尖刀进行伤害，每把尖刀造成&lt;AEfk,DataA1&gt;点的伤害。",
@@ -18629,19 +18634,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK8" s="6" t="inlineStr"/>
       <c r="AL8" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>守望者对周围的敌人发射出锋利的尖刀进行伤害。|n|n|cffffcc00等级1|r-对每个目标造成&lt;AEfk,DataA1&gt;点伤害。|n|cffffcc00等级2|r-对每个目标造成&lt;AEfk,DataA2&gt;点伤害。|n|cffffcc00等级3|r-对每个目标造成&lt;AEfk,DataA3&gt;点伤害。|n|cffffcc00等级4|r-对每个目标造成&lt;AEfk,DataA4&gt;点伤害。|n|cffffcc00等级5|r-对每个目标造成&lt;AEfk,DataA5&gt;点伤害。</t>
         </is>
       </c>
       <c r="AM8" s="6" t="inlineStr"/>
       <c r="AN8" s="6" t="inlineStr"/>
-      <c r="AO8" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO8" s="6" t="inlineStr"/>
       <c r="AP8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -18701,16 +18701,24 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S9" s="6" t="inlineStr"/>
-      <c r="T9" s="6" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T9" s="6" t="inlineStr"/>
+      <c r="U9" s="6" t="inlineStr"/>
+      <c r="V9" s="6" t="inlineStr">
         <is>
           <t>{20.0,30.0,40.0,50.0,20.0}</t>
         </is>
       </c>
-      <c r="U9" s="6" t="inlineStr"/>
-      <c r="V9" s="6" t="inlineStr"/>
       <c r="W9" s="6" t="inlineStr"/>
-      <c r="X9" s="6" t="inlineStr"/>
+      <c r="X9" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y9" s="6" t="inlineStr"/>
       <c r="Z9" s="6" t="inlineStr"/>
       <c r="AA9" s="6" t="inlineStr"/>
@@ -18720,7 +18728,21 @@
       <c r="AE9" s="6" t="inlineStr"/>
       <c r="AF9" s="6" t="inlineStr"/>
       <c r="AG9" s="6" t="inlineStr"/>
-      <c r="AH9" s="6" t="inlineStr">
+      <c r="AH9" s="6" t="inlineStr"/>
+      <c r="AI9" s="6" t="inlineStr"/>
+      <c r="AJ9" s="6" t="inlineStr"/>
+      <c r="AK9" s="6" t="inlineStr">
+        <is>
+          <t>{
+"将一定范围内的树木转化成&lt;AEfn,DataA1&gt;个树人。",
+"将一定范围内的树木转化成&lt;AEfn,DataA2&gt;个树人。",
+"将一定范围内的树木转化成&lt;AEfn,DataA3&gt;个树人。",
+"将一定范围内的树木转化成&lt;AEfn,DataA4&gt;个树人。",
+"将一定范围内的树木转化成&lt;AEfn,DataA5&gt;个树人。",
+}</t>
+        </is>
+      </c>
+      <c r="AL9" s="6" t="inlineStr">
         <is>
           <t>[=[
 将一定范围内的树木转化成树人。
@@ -18731,35 +18753,13 @@
 |cffffcc00等级 5|r - 召唤出6只树人。]=]</t>
         </is>
       </c>
-      <c r="AI9" s="6" t="inlineStr"/>
-      <c r="AJ9" s="6" t="inlineStr">
-        <is>
-          <t>{
-"将一定范围内的树木转化成&lt;AEfn,DataA1&gt;个树人。",
-"将一定范围内的树木转化成&lt;AEfn,DataA2&gt;个树人。",
-"将一定范围内的树木转化成&lt;AEfn,DataA3&gt;个树人。",
-"将一定范围内的树木转化成&lt;AEfn,DataA4&gt;个树人。",
-"将一定范围内的树木转化成&lt;AEfn,DataA5&gt;个树人。",
-}</t>
-        </is>
-      </c>
-      <c r="AK9" s="6" t="inlineStr"/>
-      <c r="AL9" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AM9" s="6" t="inlineStr">
         <is>
           <t>{130,130,130,130,130}</t>
         </is>
       </c>
       <c r="AN9" s="6" t="inlineStr"/>
-      <c r="AO9" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO9" s="6" t="inlineStr"/>
       <c r="AP9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
@@ -18829,6 +18829,53 @@
       </c>
       <c r="S10" s="6" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>{
+"取消怒气释放之后可以停止消耗魔法。",
+"取消怒气释放之后可以停止消耗魔法。",
+"取消怒气释放之后可以停止消耗魔法。",
+"取消怒气释放之后可以停止消耗魔法。",
+"取消怒气释放之后可以停止消耗魔法。",
+}</t>
+        </is>
+      </c>
+      <c r="U10" s="6" t="inlineStr"/>
+      <c r="V10" s="6" t="inlineStr"/>
+      <c r="W10" s="6" t="inlineStr"/>
+      <c r="X10" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Y10" s="6" t="inlineStr"/>
+      <c r="Z10" s="6" t="inlineStr"/>
+      <c r="AA10" s="6" t="inlineStr"/>
+      <c r="AB10" s="6" t="inlineStr"/>
+      <c r="AC10" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD10" s="6" t="inlineStr">
+        <is>
+          <t>{
+"B000,B001",
+"B000,B001",
+"B000,B001",
+"B000,B001",
+"B000,B001",
+}</t>
+        </is>
+      </c>
+      <c r="AE10" s="6" t="inlineStr"/>
+      <c r="AF10" s="6" t="inlineStr"/>
+      <c r="AG10" s="6" t="inlineStr"/>
+      <c r="AH10" s="6" t="inlineStr">
+        <is>
           <t>{
 "取消怒气释放(|cffffcc00W|r) - [|cffffcc00等级 1|r]",
 "取消怒气释放(|cffffcc00W|r) - [|cffffcc00等级 2|r]",
@@ -18838,47 +18885,9 @@
 }</t>
         </is>
       </c>
-      <c r="T10" s="6" t="inlineStr"/>
-      <c r="U10" s="6" t="inlineStr"/>
-      <c r="V10" s="6" t="inlineStr"/>
-      <c r="W10" s="6" t="inlineStr"/>
-      <c r="X10" s="6" t="inlineStr"/>
-      <c r="Y10" s="6" t="inlineStr"/>
-      <c r="Z10" s="6" t="inlineStr"/>
-      <c r="AA10" s="6" t="inlineStr"/>
-      <c r="AB10" s="6" t="inlineStr"/>
-      <c r="AC10" s="6" t="inlineStr"/>
-      <c r="AD10" s="6" t="inlineStr">
-        <is>
-          <t>{
-"B000,B001",
-"B000,B001",
-"B000,B001",
-"B000,B001",
-"B000,B001",
-}</t>
-        </is>
-      </c>
-      <c r="AE10" s="6" t="inlineStr"/>
-      <c r="AF10" s="6" t="inlineStr">
-        <is>
-          <t>{
-"取消怒气释放之后可以停止消耗魔法。",
-"取消怒气释放之后可以停止消耗魔法。",
-"取消怒气释放之后可以停止消耗魔法。",
-"取消怒气释放之后可以停止消耗魔法。",
-"取消怒气释放之后可以停止消耗魔法。",
-}</t>
-        </is>
-      </c>
-      <c r="AG10" s="6" t="inlineStr"/>
-      <c r="AH10" s="6" t="inlineStr">
-        <is>
-          <t>让自己的怒气爆发，从而是周围的单位持续的受到伤害。|n|n|cffffcc00等级1|r-伤害10/秒，魔法消耗5/秒。|n|cffffcc00等级2|r-伤害15/秒，魔法消耗5/秒。|n|cffffcc00等级3|r-伤害20/秒，魔法消耗5/秒。|n|cffffcc00等级4|r-伤害25/秒，魔法消耗5/秒。|n|cffffcc00等级5|r-伤害30/秒，魔法消耗5/秒。</t>
-        </is>
-      </c>
       <c r="AI10" s="6" t="inlineStr"/>
-      <c r="AJ10" s="6" t="inlineStr">
+      <c r="AJ10" s="6" t="inlineStr"/>
+      <c r="AK10" s="6" t="inlineStr">
         <is>
           <t>{
 "激活怒气之后会让该单位处怒暴状态，对周围的地面单位会造成每秒&lt;AEim,DataA1&gt;点的伤害。|n该技能会持续地消耗魔法值。",
@@ -18889,14 +18898,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK10" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AL10" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>让自己的怒气爆发，从而是周围的单位持续的受到伤害。|n|n|cffffcc00等级1|r-伤害10/秒，魔法消耗5/秒。|n|cffffcc00等级2|r-伤害15/秒，魔法消耗5/秒。|n|cffffcc00等级3|r-伤害20/秒，魔法消耗5/秒。|n|cffffcc00等级4|r-伤害25/秒，魔法消耗5/秒。|n|cffffcc00等级5|r-伤害30/秒，魔法消耗5/秒。</t>
         </is>
       </c>
       <c r="AM10" s="6" t="inlineStr">
@@ -18905,11 +18909,7 @@
         </is>
       </c>
       <c r="AN10" s="6" t="inlineStr"/>
-      <c r="AO10" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO10" s="6" t="inlineStr"/>
       <c r="AP10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
@@ -18969,12 +18969,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S11" s="6" t="inlineStr"/>
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T11" s="6" t="inlineStr"/>
       <c r="U11" s="6" t="inlineStr"/>
       <c r="V11" s="6" t="inlineStr"/>
       <c r="W11" s="6" t="inlineStr"/>
-      <c r="X11" s="6" t="inlineStr"/>
+      <c r="X11" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y11" s="6" t="inlineStr"/>
       <c r="Z11" s="6" t="inlineStr"/>
       <c r="AA11" s="6" t="inlineStr"/>
@@ -18984,13 +18992,10 @@
       <c r="AE11" s="6" t="inlineStr"/>
       <c r="AF11" s="6" t="inlineStr"/>
       <c r="AG11" s="6" t="inlineStr"/>
-      <c r="AH11" s="6" t="inlineStr">
-        <is>
-          <t>射出一道能量波来消耗掉目标单位一定的魔法值，目标单位的魔法值在燃烧的过程中,也会对其造成同等数量的伤害值。|n|n|cffffcc00等级1|r-消耗掉目标&lt;AEmb,DataA1&gt;点魔法。|n|cffffcc00等级2|r-消耗掉目标&lt;AEmb,DataA2&gt;点魔法。|n|cffffcc00等级3|r-消耗掉目标&lt;AEmb,DataA3&gt;点魔法。|n|cffffcc00等级4|r-消耗掉目标&lt;AEmb,DataA4&gt;点魔法。|n|cffffcc00等级5|r-消耗掉目标&lt;AEmb,DataA5&gt;点魔法。</t>
-        </is>
-      </c>
+      <c r="AH11" s="6" t="inlineStr"/>
       <c r="AI11" s="6" t="inlineStr"/>
-      <c r="AJ11" s="6" t="inlineStr">
+      <c r="AJ11" s="6" t="inlineStr"/>
+      <c r="AK11" s="6" t="inlineStr">
         <is>
           <t>{
 "射出一道能量波从而消耗掉目标单位&lt;AEmb,DataA1&gt;点的魔法值。目标单位的魔法值在燃烧的过程中，也会对其造成同等数量的伤害值。",
@@ -19001,10 +19006,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK11" s="6" t="inlineStr"/>
       <c r="AL11" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>射出一道能量波来消耗掉目标单位一定的魔法值，目标单位的魔法值在燃烧的过程中,也会对其造成同等数量的伤害值。|n|n|cffffcc00等级1|r-消耗掉目标&lt;AEmb,DataA1&gt;点魔法。|n|cffffcc00等级2|r-消耗掉目标&lt;AEmb,DataA2&gt;点魔法。|n|cffffcc00等级3|r-消耗掉目标&lt;AEmb,DataA3&gt;点魔法。|n|cffffcc00等级4|r-消耗掉目标&lt;AEmb,DataA4&gt;点魔法。|n|cffffcc00等级5|r-消耗掉目标&lt;AEmb,DataA5&gt;点魔法。</t>
         </is>
       </c>
       <c r="AM11" s="6" t="inlineStr">
@@ -19013,11 +19017,7 @@
         </is>
       </c>
       <c r="AN11" s="6" t="inlineStr"/>
-      <c r="AO11" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO11" s="6" t="inlineStr"/>
       <c r="AP11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
@@ -19071,18 +19071,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S12" s="6" t="inlineStr"/>
+      <c r="S12" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T12" s="6" t="inlineStr"/>
       <c r="U12" s="6" t="inlineStr"/>
       <c r="V12" s="6" t="inlineStr"/>
       <c r="W12" s="6" t="inlineStr"/>
-      <c r="X12" s="6" t="inlineStr"/>
+      <c r="X12" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y12" s="6" t="inlineStr"/>
-      <c r="Z12" s="6" t="inlineStr">
-        <is>
-          <t>{60.0,70.0,80.0}</t>
-        </is>
-      </c>
+      <c r="Z12" s="6" t="inlineStr"/>
       <c r="AA12" s="6" t="inlineStr"/>
       <c r="AB12" s="6" t="inlineStr"/>
       <c r="AC12" s="6" t="inlineStr"/>
@@ -19090,13 +19094,10 @@
       <c r="AE12" s="6" t="inlineStr"/>
       <c r="AF12" s="6" t="inlineStr"/>
       <c r="AG12" s="6" t="inlineStr"/>
-      <c r="AH12" s="6" t="inlineStr">
-        <is>
-          <t>让恶魔猎手变身为一个威力巨大的恶魔。该恶魔具有远程攻击能力并会增加生命值。|n|n|cffffcc00等级1|r-增加300点生命，持续60秒。|n|cffffcc00等级2|r-增加600点生命，持续70秒。|n|cffffcc00等级3|r-增加900点生命，持续80秒。</t>
-        </is>
-      </c>
+      <c r="AH12" s="6" t="inlineStr"/>
       <c r="AI12" s="6" t="inlineStr"/>
-      <c r="AJ12" s="6" t="inlineStr">
+      <c r="AJ12" s="6" t="inlineStr"/>
+      <c r="AK12" s="6" t="inlineStr">
         <is>
           <t>{
 "让恶魔猎手变身为一个威力巨大的恶魔。该恶魔具有远程攻击能力并会增加&lt;AEme,DataE1&gt;点的生命值。|n持续&lt;AEme,HeroDur1&gt;秒。",
@@ -19105,20 +19106,19 @@
 }</t>
         </is>
       </c>
-      <c r="AK12" s="6" t="inlineStr"/>
       <c r="AL12" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>让恶魔猎手变身为一个威力巨大的恶魔。该恶魔具有远程攻击能力并会增加生命值。|n|n|cffffcc00等级1|r-增加300点生命，持续60秒。|n|cffffcc00等级2|r-增加600点生命，持续70秒。|n|cffffcc00等级3|r-增加900点生命，持续80秒。</t>
         </is>
       </c>
       <c r="AM12" s="6" t="inlineStr"/>
       <c r="AN12" s="6" t="inlineStr"/>
-      <c r="AO12" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AP12" s="6" t="inlineStr"/>
+      <c r="AO12" s="6" t="inlineStr"/>
+      <c r="AP12" s="6" t="inlineStr">
+        <is>
+          <t>{60.0,70.0,80.0}</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -19175,12 +19175,20 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S13" s="6" t="inlineStr"/>
+      <c r="S13" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T13" s="6" t="inlineStr"/>
       <c r="U13" s="6" t="inlineStr"/>
       <c r="V13" s="6" t="inlineStr"/>
       <c r="W13" s="6" t="inlineStr"/>
-      <c r="X13" s="6" t="inlineStr"/>
+      <c r="X13" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y13" s="6" t="inlineStr"/>
       <c r="Z13" s="6" t="inlineStr"/>
       <c r="AA13" s="6" t="inlineStr"/>
@@ -19190,7 +19198,19 @@
       <c r="AE13" s="6" t="inlineStr"/>
       <c r="AF13" s="6" t="inlineStr"/>
       <c r="AG13" s="6" t="inlineStr"/>
-      <c r="AH13" s="6" t="inlineStr">
+      <c r="AH13" s="6" t="inlineStr"/>
+      <c r="AI13" s="6" t="inlineStr"/>
+      <c r="AJ13" s="6" t="inlineStr"/>
+      <c r="AK13" s="6" t="inlineStr">
+        <is>
+          <t>{
+"召唤出一阵阵的流星雨，每阵流星雨对敌人造成每秒&lt;AEsf,DataA1&gt;点的伤害。|n持续&lt;AEsf,Dur1&gt;秒，对建筑伤害会加成35%。",
+"召唤出一阵阵的流星雨，每阵流星雨对敌人造成每秒&lt;AEsf,DataA2&gt;点的伤害。|n持续&lt;AEsf,Dur2&gt;秒，对建筑伤害会加成35%。",
+"召唤出一阵阵的流星雨，每阵流星雨对敌人造成每秒&lt;AEsf,DataA3&gt;点的伤害。|n持续&lt;AEsf,Dur3&gt;秒，对建筑伤害会加成35%。",
+}</t>
+        </is>
+      </c>
+      <c r="AL13" s="6" t="inlineStr">
         <is>
           <t>[=[
 召唤出一阵阵的流星雨，每阵流星雨对敌人造成每秒的伤害，对建筑的伤害会加成35%。
@@ -19199,29 +19219,9 @@
 |cffffcc00等级 3|r - 伤害70/秒]=]</t>
         </is>
       </c>
-      <c r="AI13" s="6" t="inlineStr"/>
-      <c r="AJ13" s="6" t="inlineStr">
-        <is>
-          <t>{
-"召唤出一阵阵的流星雨，每阵流星雨对敌人造成每秒&lt;AEsf,DataA1&gt;点的伤害。|n持续&lt;AEsf,Dur1&gt;秒，对建筑伤害会加成35%。",
-"召唤出一阵阵的流星雨，每阵流星雨对敌人造成每秒&lt;AEsf,DataA2&gt;点的伤害。|n持续&lt;AEsf,Dur2&gt;秒，对建筑伤害会加成35%。",
-"召唤出一阵阵的流星雨，每阵流星雨对敌人造成每秒&lt;AEsf,DataA3&gt;点的伤害。|n持续&lt;AEsf,Dur3&gt;秒，对建筑伤害会加成35%。",
-}</t>
-        </is>
-      </c>
-      <c r="AK13" s="6" t="inlineStr"/>
-      <c r="AL13" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
       <c r="AM13" s="6" t="inlineStr"/>
       <c r="AN13" s="6" t="inlineStr"/>
-      <c r="AO13" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="AO13" s="6" t="inlineStr"/>
       <c r="AP13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
@@ -19281,22 +19281,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S14" s="6" t="inlineStr"/>
-      <c r="T14" s="6" t="inlineStr">
+      <c r="S14" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T14" s="6" t="inlineStr"/>
+      <c r="U14" s="6" t="inlineStr"/>
+      <c r="V14" s="6" t="inlineStr">
         <is>
           <t>{3.0,6.0,9.0,12.0,15.0}</t>
         </is>
       </c>
-      <c r="U14" s="6" t="inlineStr"/>
-      <c r="V14" s="6" t="inlineStr"/>
       <c r="W14" s="6" t="inlineStr"/>
-      <c r="X14" s="6" t="inlineStr"/>
+      <c r="X14" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y14" s="6" t="inlineStr"/>
-      <c r="Z14" s="6" t="inlineStr">
-        <is>
-          <t>{2.0,4.0,6.0,8.0,10.0}</t>
-        </is>
-      </c>
+      <c r="Z14" s="6" t="inlineStr"/>
       <c r="AA14" s="6" t="inlineStr"/>
       <c r="AB14" s="6" t="inlineStr"/>
       <c r="AC14" s="6" t="inlineStr"/>
@@ -19304,13 +19308,10 @@
       <c r="AE14" s="6" t="inlineStr"/>
       <c r="AF14" s="6" t="inlineStr"/>
       <c r="AG14" s="6" t="inlineStr"/>
-      <c r="AH14" s="6" t="inlineStr">
-        <is>
-          <t>投掷出一把毒性的匕首，能对敌方的地面单位造成巨大的伤害。最初造成很大的伤害，随后每秒造成一定的伤害。匕首上的毒素能在短时间内减慢目标单位的攻击速度和移动速度。|n|n|cffffcc00等级1|r-&lt;AEsh,DataE1&gt;点初始伤害，&lt;AEsh,DataA1&gt;点持续伤害。|n|cffffcc00等级2|r-&lt;AEsh,DataE2&gt;点初始伤害，&lt;AEsh,DataA2&gt;点持续伤害。|n|cffffcc00等级3|r-&lt;AEsh,DataE3&gt;点初始伤害，&lt;AEsh,DataA3&gt;点持续伤害。|n|cffffcc00等级4|r-&lt;AEsh,DataE4&gt;点初始伤害，&lt;AEsh,DataA4&gt;点持续伤害。|n|cffffcc00等级5|r-&lt;AEsh,DataE5&gt;点初始伤害，&lt;AEsh,DataA5&gt;点持续伤害。</t>
-        </is>
-      </c>
+      <c r="AH14" s="6" t="inlineStr"/>
       <c r="AI14" s="6" t="inlineStr"/>
-      <c r="AJ14" s="6" t="inlineStr">
+      <c r="AJ14" s="6" t="inlineStr"/>
+      <c r="AK14" s="6" t="inlineStr">
         <is>
           <t>{
 "投掷出一把毒性的匕首，能对敌方的地面单位造成巨大的伤害。最初造成&lt;AEsh,DataE1&gt;点的伤害，随后每&lt;AEsh,Cast1&gt;秒造成&lt;AEsh,DataA1&gt;点的伤害，持续&lt;AEsh,Dur1&gt;秒。匕首上的毒素能在短时间内减慢目标单位的攻击速度和移动速度。",
@@ -19321,10 +19322,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK14" s="6" t="inlineStr"/>
       <c r="AL14" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>投掷出一把毒性的匕首，能对敌方的地面单位造成巨大的伤害。最初造成很大的伤害，随后每秒造成一定的伤害。匕首上的毒素能在短时间内减慢目标单位的攻击速度和移动速度。|n|n|cffffcc00等级1|r-&lt;AEsh,DataE1&gt;点初始伤害，&lt;AEsh,DataA1&gt;点持续伤害。|n|cffffcc00等级2|r-&lt;AEsh,DataE2&gt;点初始伤害，&lt;AEsh,DataA2&gt;点持续伤害。|n|cffffcc00等级3|r-&lt;AEsh,DataE3&gt;点初始伤害，&lt;AEsh,DataA3&gt;点持续伤害。|n|cffffcc00等级4|r-&lt;AEsh,DataE4&gt;点初始伤害，&lt;AEsh,DataA4&gt;点持续伤害。|n|cffffcc00等级5|r-&lt;AEsh,DataE5&gt;点初始伤害，&lt;AEsh,DataA5&gt;点持续伤害。</t>
         </is>
       </c>
       <c r="AM14" s="6" t="inlineStr">
@@ -19333,12 +19333,12 @@
         </is>
       </c>
       <c r="AN14" s="6" t="inlineStr"/>
-      <c r="AO14" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AP14" s="6" t="inlineStr"/>
+      <c r="AO14" s="6" t="inlineStr"/>
+      <c r="AP14" s="6" t="inlineStr">
+        <is>
+          <t>{2.0,4.0,6.0,8.0,10.0}</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -19393,22 +19393,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S15" s="6" t="inlineStr"/>
-      <c r="T15" s="6" t="inlineStr">
+      <c r="S15" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="T15" s="6" t="inlineStr"/>
+      <c r="U15" s="6" t="inlineStr"/>
+      <c r="V15" s="6" t="inlineStr">
         <is>
           <t>{60.0,70.0,80.0,90.0,100.0}</t>
         </is>
       </c>
-      <c r="U15" s="6" t="inlineStr"/>
-      <c r="V15" s="6" t="inlineStr"/>
       <c r="W15" s="6" t="inlineStr"/>
-      <c r="X15" s="6" t="inlineStr"/>
+      <c r="X15" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y15" s="6" t="inlineStr"/>
-      <c r="Z15" s="6" t="inlineStr">
-        <is>
-          <t>{60.0,70.0,80.0,90.0,100.0}</t>
-        </is>
-      </c>
+      <c r="Z15" s="6" t="inlineStr"/>
       <c r="AA15" s="6" t="inlineStr"/>
       <c r="AB15" s="6" t="inlineStr"/>
       <c r="AC15" s="6" t="inlineStr"/>
@@ -19416,13 +19420,10 @@
       <c r="AE15" s="6" t="inlineStr"/>
       <c r="AF15" s="6" t="inlineStr"/>
       <c r="AG15" s="6" t="inlineStr"/>
-      <c r="AH15" s="6" t="inlineStr">
-        <is>
-          <t>能召唤出几头用来侦察地图的猫头鹰。|n能看见隐形单位。|n|n|cffffcc00等级1|r-消耗&lt;AEst,Cost1&gt;点魔法值来召唤出一头猫头鹰。|n|cffffcc00等级2|r-消耗&lt;AEst,Cost2&gt;点魔法值来召唤出一头猫头鹰。|n|cffffcc00等级3|r-消耗&lt;AEst,Cost3&gt;点魔法值来召唤出一头猫头鹰。|n|cffffcc00等级4|r-消耗&lt;AEst,Cost4&gt;点魔法值来召唤出二头猫头鹰。|n|cffffcc00等级5|r-消耗&lt;AEst,Cost5&gt;点魔法值来召唤出三头猫头鹰。</t>
-        </is>
-      </c>
+      <c r="AH15" s="6" t="inlineStr"/>
       <c r="AI15" s="6" t="inlineStr"/>
-      <c r="AJ15" s="6" t="inlineStr">
+      <c r="AJ15" s="6" t="inlineStr"/>
+      <c r="AK15" s="6" t="inlineStr">
         <is>
           <t>{
 "能召唤出一头用来侦察地图的猫头鹰。|n能看见隐形单位。|n持续&lt;AEst,Dur1&gt;秒。",
@@ -19433,10 +19434,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK15" s="6" t="inlineStr"/>
       <c r="AL15" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>能召唤出几头用来侦察地图的猫头鹰。|n能看见隐形单位。|n|n|cffffcc00等级1|r-消耗&lt;AEst,Cost1&gt;点魔法值来召唤出一头猫头鹰。|n|cffffcc00等级2|r-消耗&lt;AEst,Cost2&gt;点魔法值来召唤出一头猫头鹰。|n|cffffcc00等级3|r-消耗&lt;AEst,Cost3&gt;点魔法值来召唤出一头猫头鹰。|n|cffffcc00等级4|r-消耗&lt;AEst,Cost4&gt;点魔法值来召唤出二头猫头鹰。|n|cffffcc00等级5|r-消耗&lt;AEst,Cost5&gt;点魔法值来召唤出三头猫头鹰。</t>
         </is>
       </c>
       <c r="AM15" s="6" t="inlineStr">
@@ -19445,12 +19445,12 @@
         </is>
       </c>
       <c r="AN15" s="6" t="inlineStr"/>
-      <c r="AO15" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP15" s="6" t="inlineStr"/>
+      <c r="AO15" s="6" t="inlineStr"/>
+      <c r="AP15" s="6" t="inlineStr">
+        <is>
+          <t>{60.0,70.0,80.0,90.0,100.0}</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -19499,20 +19499,35 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S16" s="6" t="inlineStr"/>
-      <c r="T16" s="6" t="inlineStr">
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T16" s="6" t="inlineStr"/>
+      <c r="U16" s="6" t="inlineStr"/>
+      <c r="V16" s="6" t="inlineStr">
         <is>
           <t>{180.0,180.0,180.0}</t>
         </is>
       </c>
-      <c r="U16" s="6" t="inlineStr"/>
-      <c r="V16" s="6" t="inlineStr"/>
       <c r="W16" s="6" t="inlineStr"/>
-      <c r="X16" s="6" t="inlineStr"/>
+      <c r="X16" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y16" s="6" t="inlineStr"/>
       <c r="Z16" s="6" t="inlineStr"/>
       <c r="AA16" s="6" t="inlineStr"/>
-      <c r="AB16" s="6" t="inlineStr">
+      <c r="AB16" s="6" t="inlineStr"/>
+      <c r="AC16" s="6" t="inlineStr"/>
+      <c r="AD16" s="6" t="inlineStr"/>
+      <c r="AE16" s="6" t="inlineStr"/>
+      <c r="AF16" s="6" t="inlineStr"/>
+      <c r="AG16" s="6" t="inlineStr"/>
+      <c r="AH16" s="6" t="inlineStr"/>
+      <c r="AI16" s="6" t="inlineStr">
         <is>
           <t>{
 "espv",
@@ -19521,18 +19536,8 @@
 }</t>
         </is>
       </c>
-      <c r="AC16" s="6" t="inlineStr"/>
-      <c r="AD16" s="6" t="inlineStr"/>
-      <c r="AE16" s="6" t="inlineStr"/>
-      <c r="AF16" s="6" t="inlineStr"/>
-      <c r="AG16" s="6" t="inlineStr"/>
-      <c r="AH16" s="6" t="inlineStr">
-        <is>
-          <t>召唤出一个强大的复仇之神，复仇之神能的能力随着技能等级的增加而增加，它会从周围的尸体中复活许多无敌的幽灵来为你战斗。当复仇之死掉的时候，那些幽灵也会自动消失。|n持续&lt;AEsv,Dur1&gt;秒。|n|n|cffffcc00等级1|r-召唤复仇天神，拥有1500点生命，31点攻击。|n|cffffcc00等级2|r-召唤复杀戮天神，拥有175点生命，45点攻击。|n|cffffcc00等级3|r-召唤死神，拥有1890点生命，58点攻击。</t>
-        </is>
-      </c>
-      <c r="AI16" s="6" t="inlineStr"/>
-      <c r="AJ16" s="6" t="inlineStr">
+      <c r="AJ16" s="6" t="inlineStr"/>
+      <c r="AK16" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出一个拥有1500点生命，31点攻击的复仇天神，复仇天神能从周围的尸体中复活许多无敌的幽灵来为你战斗。当复仇天神死掉的时候，那些幽灵也会自动消失。|n持续&lt;AEsv,Dur1&gt;秒。",
@@ -19541,10 +19546,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK16" s="6" t="inlineStr"/>
       <c r="AL16" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>召唤出一个强大的复仇之神，复仇之神能的能力随着技能等级的增加而增加，它会从周围的尸体中复活许多无敌的幽灵来为你战斗。当复仇之死掉的时候，那些幽灵也会自动消失。|n持续&lt;AEsv,Dur1&gt;秒。|n|n|cffffcc00等级1|r-召唤复仇天神，拥有1500点生命，31点攻击。|n|cffffcc00等级2|r-召唤复杀戮天神，拥有175点生命，45点攻击。|n|cffffcc00等级3|r-召唤死神，拥有1890点生命，58点攻击。</t>
         </is>
       </c>
       <c r="AM16" s="6" t="inlineStr">
@@ -19553,11 +19557,7 @@
         </is>
       </c>
       <c r="AN16" s="6" t="inlineStr"/>
-      <c r="AO16" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="AO16" s="6" t="inlineStr"/>
       <c r="AP16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
@@ -19619,22 +19619,26 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S17" s="6" t="inlineStr"/>
-      <c r="T17" s="6" t="inlineStr">
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T17" s="6" t="inlineStr"/>
+      <c r="U17" s="6" t="inlineStr"/>
+      <c r="V17" s="6" t="inlineStr">
         <is>
           <t>{20.0,20.0,20.0}</t>
         </is>
       </c>
-      <c r="U17" s="6" t="inlineStr"/>
-      <c r="V17" s="6" t="inlineStr"/>
       <c r="W17" s="6" t="inlineStr"/>
-      <c r="X17" s="6" t="inlineStr"/>
+      <c r="X17" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y17" s="6" t="inlineStr"/>
-      <c r="Z17" s="6" t="inlineStr">
-        <is>
-          <t>{20.0,20.0,20.0}</t>
-        </is>
-      </c>
+      <c r="Z17" s="6" t="inlineStr"/>
       <c r="AA17" s="6" t="inlineStr"/>
       <c r="AB17" s="6" t="inlineStr"/>
       <c r="AC17" s="6" t="inlineStr"/>
@@ -19642,13 +19646,10 @@
       <c r="AE17" s="6" t="inlineStr"/>
       <c r="AF17" s="6" t="inlineStr"/>
       <c r="AG17" s="6" t="inlineStr"/>
-      <c r="AH17" s="6" t="inlineStr">
-        <is>
-          <t>在一大片范围内召唤出一阵强大的能量雨，恢复周围友军单位的生命值。|n持续20秒。|n|n|cffffcc等级1|r-20点/秒|n|cffffcc等级2|r-40点/秒|n|cffffcc等级3|r-80点/秒</t>
-        </is>
-      </c>
+      <c r="AH17" s="6" t="inlineStr"/>
       <c r="AI17" s="6" t="inlineStr"/>
-      <c r="AJ17" s="6" t="inlineStr">
+      <c r="AJ17" s="6" t="inlineStr"/>
+      <c r="AK17" s="6" t="inlineStr">
         <is>
           <t>{
 "在一大片范围内召唤出一阵强大的能量雨，能以每秒&lt;AEtq,DataA1&gt;点的速度恢复其中友军单位的生命值。|n持续&lt;AEtq,Dur1&gt;秒。",
@@ -19657,10 +19658,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK17" s="6" t="inlineStr"/>
       <c r="AL17" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>在一大片范围内召唤出一阵强大的能量雨，恢复周围友军单位的生命值。|n持续20秒。|n|n|cffffcc等级1|r-20点/秒|n|cffffcc等级2|r-40点/秒|n|cffffcc等级3|r-80点/秒</t>
         </is>
       </c>
       <c r="AM17" s="6" t="inlineStr">
@@ -19669,12 +19669,12 @@
         </is>
       </c>
       <c r="AN17" s="6" t="inlineStr"/>
-      <c r="AO17" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AP17" s="6" t="inlineStr"/>
+      <c r="AO17" s="6" t="inlineStr"/>
+      <c r="AP17" s="6" t="inlineStr">
+        <is>
+          <t>{20.0,20.0,20.0}</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -19725,12 +19725,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S18" s="6" t="inlineStr"/>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T18" s="6" t="inlineStr"/>
       <c r="U18" s="6" t="inlineStr"/>
       <c r="V18" s="6" t="inlineStr"/>
       <c r="W18" s="6" t="inlineStr"/>
-      <c r="X18" s="6" t="inlineStr"/>
+      <c r="X18" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y18" s="6" t="inlineStr"/>
       <c r="Z18" s="6" t="inlineStr"/>
       <c r="AA18" s="6" t="inlineStr"/>
@@ -19740,13 +19748,10 @@
       <c r="AE18" s="6" t="inlineStr"/>
       <c r="AF18" s="6" t="inlineStr"/>
       <c r="AG18" s="6" t="inlineStr"/>
-      <c r="AH18" s="6" t="inlineStr">
-        <is>
-          <t>能加快周围友军单位的魔法值恢复速度。|n|n|cffffcc00等级1|r-提升周围友军每秒1点的魔法恢复速度。|n|cffffcc00等级2|r-提升周围友军每秒2点的魔法恢复速度。|n|cffffcc00等级3|r-提升周围友军每秒3点的魔法恢复速度。|n|cffffcc00等级4|r-提升周围友军每秒4点的魔法恢复速度。|n|cffffcc00等级5|r-提升周围友军每秒5点的魔法恢复速度。</t>
-        </is>
-      </c>
+      <c r="AH18" s="6" t="inlineStr"/>
       <c r="AI18" s="6" t="inlineStr"/>
-      <c r="AJ18" s="6" t="inlineStr">
+      <c r="AJ18" s="6" t="inlineStr"/>
+      <c r="AK18" s="6" t="inlineStr">
         <is>
           <t>{
 "能加快周围友军单位1每秒的魔法值恢复速度。",
@@ -19757,19 +19762,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK18" s="6" t="inlineStr"/>
       <c r="AL18" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>能加快周围友军单位的魔法值恢复速度。|n|n|cffffcc00等级1|r-提升周围友军每秒1点的魔法恢复速度。|n|cffffcc00等级2|r-提升周围友军每秒2点的魔法恢复速度。|n|cffffcc00等级3|r-提升周围友军每秒3点的魔法恢复速度。|n|cffffcc00等级4|r-提升周围友军每秒4点的魔法恢复速度。|n|cffffcc00等级5|r-提升周围友军每秒5点的魔法恢复速度。</t>
         </is>
       </c>
       <c r="AM18" s="6" t="inlineStr"/>
       <c r="AN18" s="6" t="inlineStr"/>
-      <c r="AO18" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO18" s="6" t="inlineStr"/>
       <c r="AP18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
@@ -19821,12 +19821,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S19" s="6" t="inlineStr"/>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T19" s="6" t="inlineStr"/>
       <c r="U19" s="6" t="inlineStr"/>
       <c r="V19" s="6" t="inlineStr"/>
       <c r="W19" s="6" t="inlineStr"/>
-      <c r="X19" s="6" t="inlineStr"/>
+      <c r="X19" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y19" s="6" t="inlineStr"/>
       <c r="Z19" s="6" t="inlineStr"/>
       <c r="AA19" s="6" t="inlineStr"/>
@@ -19836,13 +19844,10 @@
       <c r="AE19" s="6" t="inlineStr"/>
       <c r="AF19" s="6" t="inlineStr"/>
       <c r="AG19" s="6" t="inlineStr"/>
-      <c r="AH19" s="6" t="inlineStr">
-        <is>
-          <t>为周围友军提供一定额外的护甲。|n|n|cffffcc00等级1|r-增加&lt;AHad,DataA1&gt;点的护甲。|n|cffffcc00等级2|r-增加&lt;AHad,DataA2&gt;点的护甲。|n|cffffcc00等级3|r-增加&lt;AHad,DataA3&gt;点的护甲。|n|cffffcc00等级4|r-增加&lt;AHad,DataA4&gt;点的护甲。|n|cffffcc00等级5|r-增加&lt;AHad,DataA5&gt;点的护甲。</t>
-        </is>
-      </c>
+      <c r="AH19" s="6" t="inlineStr"/>
       <c r="AI19" s="6" t="inlineStr"/>
-      <c r="AJ19" s="6" t="inlineStr">
+      <c r="AJ19" s="6" t="inlineStr"/>
+      <c r="AK19" s="6" t="inlineStr">
         <is>
           <t>{
 "为周围友军提供&lt;AHad,DataA1&gt;点的额外护甲。",
@@ -19853,19 +19858,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK19" s="6" t="inlineStr"/>
       <c r="AL19" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>为周围友军提供一定额外的护甲。|n|n|cffffcc00等级1|r-增加&lt;AHad,DataA1&gt;点的护甲。|n|cffffcc00等级2|r-增加&lt;AHad,DataA2&gt;点的护甲。|n|cffffcc00等级3|r-增加&lt;AHad,DataA3&gt;点的护甲。|n|cffffcc00等级4|r-增加&lt;AHad,DataA4&gt;点的护甲。|n|cffffcc00等级5|r-增加&lt;AHad,DataA5&gt;点的护甲。</t>
         </is>
       </c>
       <c r="AM19" s="6" t="inlineStr"/>
       <c r="AN19" s="6" t="inlineStr"/>
-      <c r="AO19" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO19" s="6" t="inlineStr"/>
       <c r="AP19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
@@ -19929,6 +19929,33 @@
       </c>
       <c r="S20" s="6" t="inlineStr">
         <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T20" s="6" t="inlineStr"/>
+      <c r="U20" s="6" t="inlineStr"/>
+      <c r="V20" s="6" t="inlineStr"/>
+      <c r="W20" s="6" t="inlineStr"/>
+      <c r="X20" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y20" s="6" t="inlineStr"/>
+      <c r="Z20" s="6" t="inlineStr"/>
+      <c r="AA20" s="6" t="inlineStr"/>
+      <c r="AB20" s="6" t="inlineStr"/>
+      <c r="AC20" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AD20" s="6" t="inlineStr"/>
+      <c r="AE20" s="6" t="inlineStr"/>
+      <c r="AF20" s="6" t="inlineStr"/>
+      <c r="AG20" s="6" t="inlineStr"/>
+      <c r="AH20" s="6" t="inlineStr">
+        <is>
           <t>{
 "取消天神下凡(|cffffcc00R|r)  - [|cffffcc00等级 1|r]",
 "取消天神下凡(|cffffcc00R|r)  - [|cffffcc00等级 2|r]",
@@ -19936,27 +19963,9 @@
 }</t>
         </is>
       </c>
-      <c r="T20" s="6" t="inlineStr"/>
-      <c r="U20" s="6" t="inlineStr"/>
-      <c r="V20" s="6" t="inlineStr"/>
-      <c r="W20" s="6" t="inlineStr"/>
-      <c r="X20" s="6" t="inlineStr"/>
-      <c r="Y20" s="6" t="inlineStr"/>
-      <c r="Z20" s="6" t="inlineStr"/>
-      <c r="AA20" s="6" t="inlineStr"/>
-      <c r="AB20" s="6" t="inlineStr"/>
-      <c r="AC20" s="6" t="inlineStr"/>
-      <c r="AD20" s="6" t="inlineStr"/>
-      <c r="AE20" s="6" t="inlineStr"/>
-      <c r="AF20" s="6" t="inlineStr"/>
-      <c r="AG20" s="6" t="inlineStr"/>
-      <c r="AH20" s="6" t="inlineStr">
-        <is>
-          <t>激活了该技能以后能提高山丘之王，使得山丘之王如天神一样强大。|n|n|cffffcc00等级1|r-&lt;AHav,DataA1&gt;点的护甲,&lt;AHav,DataB1&gt;点的生命值,&lt;AHav,DataC1&gt;点的攻击力并使其对魔法免疫。|n持续&lt;AHav,Dur2&gt;秒。|n|cffffcc00等级2|r-&lt;AHav,DataA2&gt;点的护甲,&lt;AHav,DataB2&gt;点的生命值,&lt;AHav,DataC2&gt;点的攻击力并使其对魔法免疫。|n持续&lt;AHav,Dur2&gt;秒。|n|cffffcc00等级3|r-&lt;AHav,DataA3&gt;点的护甲,&lt;AHav,DataB3&gt;点的生命值,&lt;AHav,DataC3&gt;点的攻击力并使其对魔法免疫。|n持续&lt;AHav,Dur3&gt;秒。</t>
-        </is>
-      </c>
       <c r="AI20" s="6" t="inlineStr"/>
-      <c r="AJ20" s="6" t="inlineStr">
+      <c r="AJ20" s="6" t="inlineStr"/>
+      <c r="AK20" s="6" t="inlineStr">
         <is>
           <t>{
 "激活该技能能提高山丘之王&lt;AHav,DataA1&gt;点的护甲，&lt;AHav,DataB1&gt;点的生命值，&lt;AHav,DataC1&gt;点的攻击力并使其对魔法免疫。|n持续&lt;AHav,Dur1&gt;秒。",
@@ -19965,14 +19974,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK20" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
       <c r="AL20" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>激活了该技能以后能提高山丘之王，使得山丘之王如天神一样强大。|n|n|cffffcc00等级1|r-&lt;AHav,DataA1&gt;点的护甲,&lt;AHav,DataB1&gt;点的生命值,&lt;AHav,DataC1&gt;点的攻击力并使其对魔法免疫。|n持续&lt;AHav,Dur2&gt;秒。|n|cffffcc00等级2|r-&lt;AHav,DataA2&gt;点的护甲,&lt;AHav,DataB2&gt;点的生命值,&lt;AHav,DataC2&gt;点的攻击力并使其对魔法免疫。|n持续&lt;AHav,Dur2&gt;秒。|n|cffffcc00等级3|r-&lt;AHav,DataA3&gt;点的护甲,&lt;AHav,DataB3&gt;点的生命值,&lt;AHav,DataC3&gt;点的攻击力并使其对魔法免疫。|n持续&lt;AHav,Dur3&gt;秒。</t>
         </is>
       </c>
       <c r="AM20" s="6" t="inlineStr">
@@ -19981,11 +19985,7 @@
         </is>
       </c>
       <c r="AN20" s="6" t="inlineStr"/>
-      <c r="AO20" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="AO20" s="6" t="inlineStr"/>
       <c r="AP20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
@@ -20041,12 +20041,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S21" s="6" t="inlineStr"/>
+      <c r="S21" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T21" s="6" t="inlineStr"/>
       <c r="U21" s="6" t="inlineStr"/>
       <c r="V21" s="6" t="inlineStr"/>
       <c r="W21" s="6" t="inlineStr"/>
-      <c r="X21" s="6" t="inlineStr"/>
+      <c r="X21" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y21" s="6" t="inlineStr"/>
       <c r="Z21" s="6" t="inlineStr"/>
       <c r="AA21" s="6" t="inlineStr"/>
@@ -20056,13 +20064,10 @@
       <c r="AE21" s="6" t="inlineStr"/>
       <c r="AF21" s="6" t="inlineStr"/>
       <c r="AG21" s="6" t="inlineStr"/>
-      <c r="AH21" s="6" t="inlineStr">
-        <is>
-          <t>给予一定的概率使得山丘之王的常规攻击能附带附加伤害值并在2秒内使得对手处于眩晕状态。|n|n|cffffcc00等级1|r-每次攻击&lt;AHbh,DataA1&gt;%的概率造成额外的25点伤害。|n|cffffcc00等级2|r-每次攻击&lt;AHbh,DataA2&gt;%的概率造成额外的30点伤害。|n|cffffcc00等级3|r-每次攻击&lt;AHbh,DataA3&gt;%的概率造成额外的35点伤害。|n|cffffcc00等级4|r-每次攻击&lt;AHbh,DataA4&gt;%的概率造成额外的40点伤害。|n|cffffcc00等级5|r-每次攻击&lt;AHbh,DataA5&gt;%的概率造成额外的45点伤害。</t>
-        </is>
-      </c>
+      <c r="AH21" s="6" t="inlineStr"/>
       <c r="AI21" s="6" t="inlineStr"/>
-      <c r="AJ21" s="6" t="inlineStr">
+      <c r="AJ21" s="6" t="inlineStr"/>
+      <c r="AK21" s="6" t="inlineStr">
         <is>
           <t>{
 "给予&lt;AHbh,DataA1&gt;%的概率使得山丘之王的常规攻击能附带&lt;AHbh,DataC1&gt;点的额外伤害值，并在&lt;AHbh,Dur1&gt;秒内使得对手处于眩晕状态。",
@@ -20073,19 +20078,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK21" s="6" t="inlineStr"/>
       <c r="AL21" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>给予一定的概率使得山丘之王的常规攻击能附带附加伤害值并在2秒内使得对手处于眩晕状态。|n|n|cffffcc00等级1|r-每次攻击&lt;AHbh,DataA1&gt;%的概率造成额外的25点伤害。|n|cffffcc00等级2|r-每次攻击&lt;AHbh,DataA2&gt;%的概率造成额外的30点伤害。|n|cffffcc00等级3|r-每次攻击&lt;AHbh,DataA3&gt;%的概率造成额外的35点伤害。|n|cffffcc00等级4|r-每次攻击&lt;AHbh,DataA4&gt;%的概率造成额外的40点伤害。|n|cffffcc00等级5|r-每次攻击&lt;AHbh,DataA5&gt;%的概率造成额外的45点伤害。</t>
         </is>
       </c>
       <c r="AM21" s="6" t="inlineStr"/>
       <c r="AN21" s="6" t="inlineStr"/>
-      <c r="AO21" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO21" s="6" t="inlineStr"/>
       <c r="AP21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
@@ -20141,22 +20141,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S22" s="6" t="inlineStr"/>
-      <c r="T22" s="6" t="inlineStr">
+      <c r="S22" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T22" s="6" t="inlineStr"/>
+      <c r="U22" s="6" t="inlineStr"/>
+      <c r="V22" s="6" t="inlineStr">
         <is>
           <t>{12.0,15.0,18.0,21.0,24.0}</t>
         </is>
       </c>
-      <c r="U22" s="6" t="inlineStr"/>
-      <c r="V22" s="6" t="inlineStr"/>
       <c r="W22" s="6" t="inlineStr"/>
-      <c r="X22" s="6" t="inlineStr"/>
+      <c r="X22" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y22" s="6" t="inlineStr"/>
-      <c r="Z22" s="6" t="inlineStr">
-        <is>
-          <t>{4.0,5.0,6.0,7.0,8.0}</t>
-        </is>
-      </c>
+      <c r="Z22" s="6" t="inlineStr"/>
       <c r="AA22" s="6" t="inlineStr"/>
       <c r="AB22" s="6" t="inlineStr"/>
       <c r="AC22" s="6" t="inlineStr"/>
@@ -20164,13 +20168,10 @@
       <c r="AE22" s="6" t="inlineStr"/>
       <c r="AF22" s="6" t="inlineStr"/>
       <c r="AG22" s="6" t="inlineStr"/>
-      <c r="AH22" s="6" t="inlineStr">
-        <is>
-          <t>使一个非机械单位的重量变轻，并通过&lt;AHbn,DataA1,%&gt;%在较短时期降低其移动速度。变轻的单位不能攻击，但是他们能够施放魔法，几个魔法可以形成更强大的攻击。|n|n|cffffcc00等级1|r-&lt;AHbn,Cost1&gt;魔法,持续&lt;AHbn,Dur1&gt;秒。|n|cffffcc00等级2|r-&lt;AHbn,Cost2&gt;魔法,持续&lt;AHbn,Dur2&gt;秒。|n|cffffcc00等级3|r-&lt;AHbn,Cost3&gt;魔法,持续&lt;AHbn,Dur3&gt;秒。|n|cffffcc00等级4|r-&lt;AHbn,Cost4&gt;魔法,持续&lt;AHbn,Dur4&gt;秒。|n|cffffcc00等级5|r-&lt;AHbn,Cost5&gt;魔法,持续&lt;AHbn,Dur5&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH22" s="6" t="inlineStr"/>
       <c r="AI22" s="6" t="inlineStr"/>
-      <c r="AJ22" s="6" t="inlineStr">
+      <c r="AJ22" s="6" t="inlineStr"/>
+      <c r="AK22" s="6" t="inlineStr">
         <is>
           <t>{
 "使一个非机械敌对单位的重量变轻，并通过 &lt;AHbn,DataA1,%&gt;% 降低其移动速度持续 &lt;AHbn,Dur1&gt; 秒。变轻的单位不能攻击，但是他们能够施放魔法，几个魔法可以形成更强大的攻击。",
@@ -20181,10 +20182,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK22" s="6" t="inlineStr"/>
       <c r="AL22" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>使一个非机械单位的重量变轻，并通过&lt;AHbn,DataA1,%&gt;%在较短时期降低其移动速度。变轻的单位不能攻击，但是他们能够施放魔法，几个魔法可以形成更强大的攻击。|n|n|cffffcc00等级1|r-&lt;AHbn,Cost1&gt;魔法,持续&lt;AHbn,Dur1&gt;秒。|n|cffffcc00等级2|r-&lt;AHbn,Cost2&gt;魔法,持续&lt;AHbn,Dur2&gt;秒。|n|cffffcc00等级3|r-&lt;AHbn,Cost3&gt;魔法,持续&lt;AHbn,Dur3&gt;秒。|n|cffffcc00等级4|r-&lt;AHbn,Cost4&gt;魔法,持续&lt;AHbn,Dur4&gt;秒。|n|cffffcc00等级5|r-&lt;AHbn,Cost5&gt;魔法,持续&lt;AHbn,Dur5&gt;秒。</t>
         </is>
       </c>
       <c r="AM22" s="6" t="inlineStr">
@@ -20194,11 +20194,6 @@
       </c>
       <c r="AN22" s="6" t="inlineStr"/>
       <c r="AO22" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP22" s="6" t="inlineStr">
         <is>
           <t>{
 "enemies,organic",
@@ -20209,6 +20204,11 @@
 }</t>
         </is>
       </c>
+      <c r="AP22" s="6" t="inlineStr">
+        <is>
+          <t>{4.0,5.0,6.0,7.0,8.0}</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -20271,12 +20271,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S23" s="6" t="inlineStr"/>
+      <c r="S23" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T23" s="6" t="inlineStr"/>
       <c r="U23" s="6" t="inlineStr"/>
       <c r="V23" s="6" t="inlineStr"/>
       <c r="W23" s="6" t="inlineStr"/>
-      <c r="X23" s="6" t="inlineStr"/>
+      <c r="X23" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y23" s="6" t="inlineStr"/>
       <c r="Z23" s="6" t="inlineStr"/>
       <c r="AA23" s="6" t="inlineStr"/>
@@ -20286,13 +20294,10 @@
       <c r="AE23" s="6" t="inlineStr"/>
       <c r="AF23" s="6" t="inlineStr"/>
       <c r="AG23" s="6" t="inlineStr"/>
-      <c r="AH23" s="6" t="inlineStr">
-        <is>
-          <t>能召唤出若干次冰片攻击，对目标区域内的单位造成一定的伤害。|n|n|cffffcc00等级1|r-&lt;AHbz,DataA1&gt;次攻击，每次造成&lt;AHbz,DataB1&gt;点的伤害。|n|cffffcc00等级2|r-&lt;AHbz,DataA2&gt;次攻击，每次造成&lt;AHbz,DataB2&gt;点的伤害。|n|cffffcc00等级3|r-&lt;AHbz,DataA3&gt;次攻击，每次造成&lt;AHbz,DataB3&gt;点的伤害。|n|cffffcc00等级4|r-&lt;AHbz,DataA4&gt;次攻击，每次造成&lt;AHbz,DataB4&gt;点的伤害。|n|cffffcc00等级5|r-&lt;AHbz,DataA5&gt;次攻击，每次造成&lt;AHbz,DataB5&gt;点的伤害。</t>
-        </is>
-      </c>
+      <c r="AH23" s="6" t="inlineStr"/>
       <c r="AI23" s="6" t="inlineStr"/>
-      <c r="AJ23" s="6" t="inlineStr">
+      <c r="AJ23" s="6" t="inlineStr"/>
+      <c r="AK23" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出&lt;AHbz,DataA1&gt;次的冰片攻击，每一次攻击能对一小块区域内的单位造成&lt;AHbz,DataB1&gt;的伤害值。",
@@ -20303,20 +20308,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK23" s="6" t="inlineStr"/>
       <c r="AL23" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>能召唤出若干次冰片攻击，对目标区域内的单位造成一定的伤害。|n|n|cffffcc00等级1|r-&lt;AHbz,DataA1&gt;次攻击，每次造成&lt;AHbz,DataB1&gt;点的伤害。|n|cffffcc00等级2|r-&lt;AHbz,DataA2&gt;次攻击，每次造成&lt;AHbz,DataB2&gt;点的伤害。|n|cffffcc00等级3|r-&lt;AHbz,DataA3&gt;次攻击，每次造成&lt;AHbz,DataB3&gt;点的伤害。|n|cffffcc00等级4|r-&lt;AHbz,DataA4&gt;次攻击，每次造成&lt;AHbz,DataB4&gt;点的伤害。|n|cffffcc00等级5|r-&lt;AHbz,DataA5&gt;次攻击，每次造成&lt;AHbz,DataB5&gt;点的伤害。</t>
         </is>
       </c>
       <c r="AM23" s="6" t="inlineStr"/>
       <c r="AN23" s="6" t="inlineStr"/>
       <c r="AO23" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP23" s="6" t="inlineStr">
         <is>
           <t>{
 "enemies",
@@ -20327,6 +20326,7 @@
 }</t>
         </is>
       </c>
+      <c r="AP23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -20381,12 +20381,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S24" s="6" t="inlineStr"/>
+      <c r="S24" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T24" s="6" t="inlineStr"/>
       <c r="U24" s="6" t="inlineStr"/>
       <c r="V24" s="6" t="inlineStr"/>
       <c r="W24" s="6" t="inlineStr"/>
-      <c r="X24" s="6" t="inlineStr"/>
+      <c r="X24" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y24" s="6" t="inlineStr"/>
       <c r="Z24" s="6" t="inlineStr"/>
       <c r="AA24" s="6" t="inlineStr"/>
@@ -20396,13 +20404,10 @@
       <c r="AE24" s="6" t="inlineStr"/>
       <c r="AF24" s="6" t="inlineStr"/>
       <c r="AG24" s="6" t="inlineStr"/>
-      <c r="AH24" s="6" t="inlineStr">
-        <is>
-          <t>让魔法能量在血魔法师和目标单位之间转移。能每秒吸取敌人一定点数的魔法值。或者是每秒向己方单位转移一定点数的魔法值。|n|n吸吮魔法能让血魔法师的魔法值超过它自己的最大值。但是如果你不是尽快使用超量的魔法值的话，那么这些魔法值会很快地消失。|n持续&lt;AHdr,Dur1&gt;秒。|n|n|cffffcc00等级1|r-每秒吸取点&lt;AHdr,DataB1&gt;魔法值。|n|cffffcc00等级2|r-每秒吸取&lt;AHdr,DataB2&gt;点魔法值。|n|cffffcc00等级3|r-每秒吸取&lt;AHdr,DataB3&gt;点魔法值。|n|cffffcc00等级4|r-每秒吸取&lt;AHdr,DataB4&gt;点魔法值。|n|cffffcc00等级5|r-每秒吸取&lt;AHdr,DataB5&gt;点魔法值。</t>
-        </is>
-      </c>
+      <c r="AH24" s="6" t="inlineStr"/>
       <c r="AI24" s="6" t="inlineStr"/>
-      <c r="AJ24" s="6" t="inlineStr">
+      <c r="AJ24" s="6" t="inlineStr"/>
+      <c r="AK24" s="6" t="inlineStr">
         <is>
           <t>{
 "让魔法能量在血魔法师和目标单位之间转移。能每秒吸取敌人&lt;AHdr,DataB1&gt;点魔法值。或者是每秒向己方单位转移&lt;AHdr,DataE1&gt;点魔法值。|n|n吸吮魔法能让血魔法师的魔法值超过它自己的最大值。但是如果你不是尽快使用超量的魔法值的话，那么这些魔法值会很快消失。|n持续&lt;AHdr,Dur1&gt;秒。",
@@ -20413,19 +20418,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK24" s="6" t="inlineStr"/>
       <c r="AL24" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>让魔法能量在血魔法师和目标单位之间转移。能每秒吸取敌人一定点数的魔法值。或者是每秒向己方单位转移一定点数的魔法值。|n|n吸吮魔法能让血魔法师的魔法值超过它自己的最大值。但是如果你不是尽快使用超量的魔法值的话，那么这些魔法值会很快地消失。|n持续&lt;AHdr,Dur1&gt;秒。|n|n|cffffcc00等级1|r-每秒吸取点&lt;AHdr,DataB1&gt;魔法值。|n|cffffcc00等级2|r-每秒吸取&lt;AHdr,DataB2&gt;点魔法值。|n|cffffcc00等级3|r-每秒吸取&lt;AHdr,DataB3&gt;点魔法值。|n|cffffcc00等级4|r-每秒吸取&lt;AHdr,DataB4&gt;点魔法值。|n|cffffcc00等级5|r-每秒吸取&lt;AHdr,DataB5&gt;点魔法值。</t>
         </is>
       </c>
       <c r="AM24" s="6" t="inlineStr"/>
       <c r="AN24" s="6" t="inlineStr"/>
-      <c r="AO24" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO24" s="6" t="inlineStr"/>
       <c r="AP24" s="6" t="inlineStr"/>
     </row>
     <row r="25">
@@ -20479,6 +20479,37 @@
       </c>
       <c r="S25" s="6" t="inlineStr">
         <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T25" s="6" t="inlineStr"/>
+      <c r="U25" s="6" t="inlineStr"/>
+      <c r="V25" s="6" t="inlineStr">
+        <is>
+          <t>{5.0,7.0,9.0,11.0,13.0}</t>
+        </is>
+      </c>
+      <c r="W25" s="6" t="inlineStr"/>
+      <c r="X25" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="Y25" s="6" t="inlineStr"/>
+      <c r="Z25" s="6" t="inlineStr"/>
+      <c r="AA25" s="6" t="inlineStr"/>
+      <c r="AB25" s="6" t="inlineStr"/>
+      <c r="AC25" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AD25" s="6" t="inlineStr"/>
+      <c r="AE25" s="6" t="inlineStr"/>
+      <c r="AF25" s="6" t="inlineStr"/>
+      <c r="AG25" s="6" t="inlineStr"/>
+      <c r="AH25" s="6" t="inlineStr">
+        <is>
           <t>{
 "取消神圣护甲(|cffffcc00W|r)",
 "取消神圣护甲(|cffffcc00W|r)",
@@ -20488,35 +20519,9 @@
 }</t>
         </is>
       </c>
-      <c r="T25" s="6" t="inlineStr">
-        <is>
-          <t>{5.0,7.0,9.0,11.0,13.0}</t>
-        </is>
-      </c>
-      <c r="U25" s="6" t="inlineStr"/>
-      <c r="V25" s="6" t="inlineStr"/>
-      <c r="W25" s="6" t="inlineStr"/>
-      <c r="X25" s="6" t="inlineStr"/>
-      <c r="Y25" s="6" t="inlineStr"/>
-      <c r="Z25" s="6" t="inlineStr">
-        <is>
-          <t>{5.0,7.0,9.0,11.0,13.0}</t>
-        </is>
-      </c>
-      <c r="AA25" s="6" t="inlineStr"/>
-      <c r="AB25" s="6" t="inlineStr"/>
-      <c r="AC25" s="6" t="inlineStr"/>
-      <c r="AD25" s="6" t="inlineStr"/>
-      <c r="AE25" s="6" t="inlineStr"/>
-      <c r="AF25" s="6" t="inlineStr"/>
-      <c r="AG25" s="6" t="inlineStr"/>
-      <c r="AH25" s="6" t="inlineStr">
-        <is>
-          <t>在一定的时间内使得圣骑士对所有的攻击免疫。|n|n|cffffcc00等级1|r-持续&lt;AHds,Dur1&gt;秒。|n|cffffcc00等级2|r-持续&lt;AHds,Dur2&gt;秒。|n|cffffcc00等级3|r-持续&lt;AHds,Dur3&gt;秒。|n|cffffcc00等级4|r-持续&lt;AHds,Dur4&gt;秒。|n|cffffcc00等级5|r-持续&lt;AHds,Dur5&gt;秒。</t>
-        </is>
-      </c>
       <c r="AI25" s="6" t="inlineStr"/>
-      <c r="AJ25" s="6" t="inlineStr">
+      <c r="AJ25" s="6" t="inlineStr"/>
+      <c r="AK25" s="6" t="inlineStr">
         <is>
           <t>{
 "在&lt;AHds,Dur1&gt;秒内使得圣骑士对所有的攻击免疫。",
@@ -20527,14 +20532,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK25" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AL25" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>在一定的时间内使得圣骑士对所有的攻击免疫。|n|n|cffffcc00等级1|r-持续&lt;AHds,Dur1&gt;秒。|n|cffffcc00等级2|r-持续&lt;AHds,Dur2&gt;秒。|n|cffffcc00等级3|r-持续&lt;AHds,Dur3&gt;秒。|n|cffffcc00等级4|r-持续&lt;AHds,Dur4&gt;秒。|n|cffffcc00等级5|r-持续&lt;AHds,Dur5&gt;秒。</t>
         </is>
       </c>
       <c r="AM25" s="6" t="inlineStr">
@@ -20543,12 +20543,12 @@
         </is>
       </c>
       <c r="AN25" s="6" t="inlineStr"/>
-      <c r="AO25" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP25" s="6" t="inlineStr"/>
+      <c r="AO25" s="6" t="inlineStr"/>
+      <c r="AP25" s="6" t="inlineStr">
+        <is>
+          <t>{5.0,7.0,9.0,11.0,13.0}</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -20603,28 +20603,37 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S26" s="6" t="inlineStr"/>
+      <c r="S26" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T26" s="6" t="inlineStr"/>
       <c r="U26" s="6" t="inlineStr"/>
       <c r="V26" s="6" t="inlineStr"/>
       <c r="W26" s="6" t="inlineStr"/>
-      <c r="X26" s="6" t="inlineStr"/>
+      <c r="X26" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y26" s="6" t="inlineStr"/>
       <c r="Z26" s="6" t="inlineStr"/>
       <c r="AA26" s="6" t="inlineStr"/>
       <c r="AB26" s="6" t="inlineStr"/>
-      <c r="AC26" s="6" t="inlineStr"/>
+      <c r="AC26" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="AD26" s="6" t="inlineStr"/>
       <c r="AE26" s="6" t="inlineStr"/>
       <c r="AF26" s="6" t="inlineStr"/>
       <c r="AG26" s="6" t="inlineStr"/>
-      <c r="AH26" s="6" t="inlineStr">
-        <is>
-          <t>通过附加的火焰伤害来增加女祭司的攻击力。|n|n|cffffcc00等级1|r-增加&lt;AHfa,DataA1&gt;点的伤害。|n|cffffcc00等级2|r-增加&lt;AHfa,DataA2&gt;点的伤害。|n|cffffcc00等级3|r-增加&lt;AHfa,DataA3&gt;点的伤害。|n|cffffcc00等级4|r-增加&lt;AHfa,DataA4&gt;点的伤害。|n|cffffcc00等级5|r-增加&lt;AHfa,DataA5&gt;点的伤害。</t>
-        </is>
-      </c>
+      <c r="AH26" s="6" t="inlineStr"/>
       <c r="AI26" s="6" t="inlineStr"/>
-      <c r="AJ26" s="6" t="inlineStr">
+      <c r="AJ26" s="6" t="inlineStr"/>
+      <c r="AK26" s="6" t="inlineStr">
         <is>
           <t>{
 "增加&lt;AHfa,DataA1&gt;点的火焰伤害，但是每次攻击会消耗一定的魔法值。",
@@ -20635,23 +20644,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK26" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
       <c r="AL26" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>通过附加的火焰伤害来增加女祭司的攻击力。|n|n|cffffcc00等级1|r-增加&lt;AHfa,DataA1&gt;点的伤害。|n|cffffcc00等级2|r-增加&lt;AHfa,DataA2&gt;点的伤害。|n|cffffcc00等级3|r-增加&lt;AHfa,DataA3&gt;点的伤害。|n|cffffcc00等级4|r-增加&lt;AHfa,DataA4&gt;点的伤害。|n|cffffcc00等级5|r-增加&lt;AHfa,DataA5&gt;点的伤害。</t>
         </is>
       </c>
       <c r="AM26" s="6" t="inlineStr"/>
       <c r="AN26" s="6" t="inlineStr"/>
-      <c r="AO26" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO26" s="6" t="inlineStr"/>
       <c r="AP26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
@@ -20711,32 +20711,37 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S27" s="6" t="inlineStr"/>
+      <c r="S27" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T27" s="6" t="inlineStr"/>
       <c r="U27" s="6" t="inlineStr"/>
       <c r="V27" s="6" t="inlineStr"/>
       <c r="W27" s="6" t="inlineStr"/>
-      <c r="X27" s="6" t="inlineStr"/>
-      <c r="Y27" s="6" t="inlineStr"/>
+      <c r="X27" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="Y27" s="6" t="inlineStr">
+        <is>
+          <t>{0.0,0.0,0.0,0.0,0.0}</t>
+        </is>
+      </c>
       <c r="Z27" s="6" t="inlineStr"/>
       <c r="AA27" s="6" t="inlineStr"/>
       <c r="AB27" s="6" t="inlineStr"/>
-      <c r="AC27" s="6" t="inlineStr">
-        <is>
-          <t>{0.0,0.0,0.0,0.0,0.0}</t>
-        </is>
-      </c>
+      <c r="AC27" s="6" t="inlineStr"/>
       <c r="AD27" s="6" t="inlineStr"/>
       <c r="AE27" s="6" t="inlineStr"/>
       <c r="AF27" s="6" t="inlineStr"/>
       <c r="AG27" s="6" t="inlineStr"/>
-      <c r="AH27" s="6" t="inlineStr">
-        <is>
-          <t>召唤出一道巨大的火焰，对目标区域内的敌方步兵造成长时间的伤害。|n|n|cffffcc00等级1|r-持续3秒，每秒45点的伤害，在接下来的6秒时间内持续造成极度轻微的伤害。|n|cffffcc00等级2|r-持续3秒，每秒80点的伤害，在接下来的6秒时间内持续造成轻微的伤害。|n|cffffcc00等级3|r-持续3秒，每秒110点的伤害，在接下来的6秒时间内持续造成中等程度的伤害。|n|cffffcc00等级4|r-持续3秒，每秒145点的伤害，在接下来的6秒时间内持续造成中等程度的伤害。|n|cffffcc00等级5|r-持续3秒，每秒190点的伤害，在接下来的6秒时间内持续造成中等程度的伤害。</t>
-        </is>
-      </c>
+      <c r="AH27" s="6" t="inlineStr"/>
       <c r="AI27" s="6" t="inlineStr"/>
-      <c r="AJ27" s="6" t="inlineStr">
+      <c r="AJ27" s="6" t="inlineStr"/>
+      <c r="AK27" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出一道巨大的火焰，持续时间为3秒，每秒对敌方的地面单位造成45点的伤害。在火焰慢慢熄灭的过程中，敌方单位将持续受到极度轻微的伤害。",
@@ -20747,20 +20752,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK27" s="6" t="inlineStr"/>
       <c r="AL27" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>召唤出一道巨大的火焰，对目标区域内的敌方步兵造成长时间的伤害。|n|n|cffffcc00等级1|r-持续3秒，每秒45点的伤害，在接下来的6秒时间内持续造成极度轻微的伤害。|n|cffffcc00等级2|r-持续3秒，每秒80点的伤害，在接下来的6秒时间内持续造成轻微的伤害。|n|cffffcc00等级3|r-持续3秒，每秒110点的伤害，在接下来的6秒时间内持续造成中等程度的伤害。|n|cffffcc00等级4|r-持续3秒，每秒145点的伤害，在接下来的6秒时间内持续造成中等程度的伤害。|n|cffffcc00等级5|r-持续3秒，每秒190点的伤害，在接下来的6秒时间内持续造成中等程度的伤害。</t>
         </is>
       </c>
       <c r="AM27" s="6" t="inlineStr"/>
       <c r="AN27" s="6" t="inlineStr"/>
       <c r="AO27" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP27" s="6" t="inlineStr">
         <is>
           <t>{
 "enemies",
@@ -20771,6 +20770,7 @@
 }</t>
         </is>
       </c>
+      <c r="AP27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -20821,12 +20821,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S28" s="6" t="inlineStr"/>
+      <c r="S28" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T28" s="6" t="inlineStr"/>
       <c r="U28" s="6" t="inlineStr"/>
       <c r="V28" s="6" t="inlineStr"/>
       <c r="W28" s="6" t="inlineStr"/>
-      <c r="X28" s="6" t="inlineStr"/>
+      <c r="X28" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y28" s="6" t="inlineStr"/>
       <c r="Z28" s="6" t="inlineStr"/>
       <c r="AA28" s="6" t="inlineStr"/>
@@ -20836,13 +20844,10 @@
       <c r="AE28" s="6" t="inlineStr"/>
       <c r="AF28" s="6" t="inlineStr"/>
       <c r="AG28" s="6" t="inlineStr"/>
-      <c r="AH28" s="6" t="inlineStr">
-        <is>
-          <t>神圣之光能治愈友军单位或者对敌军的不死单位造成一定的伤害。|n|n|cffffcc00等级1|r-恢复目标单位&lt;AHhb,DataA1&gt;点的生命值。|n|cffffcc00等级2|r-恢复目标单位&lt;AHhb,DataA2&gt;点的生命值。|n|cffffcc00等级3|r-恢复目标单位&lt;AHhb,DataA3&gt;点的生命值。|n|cffffcc00等级4|r-恢复目标单位&lt;AHhb,DataA4&gt;点的生命值。|n|cffffcc00等级5|r-恢复目标单位&lt;AHhb,DataA5&gt;点的生命值。</t>
-        </is>
-      </c>
+      <c r="AH28" s="6" t="inlineStr"/>
       <c r="AI28" s="6" t="inlineStr"/>
-      <c r="AJ28" s="6" t="inlineStr">
+      <c r="AJ28" s="6" t="inlineStr"/>
+      <c r="AK28" s="6" t="inlineStr">
         <is>
           <t>{
 "神圣之光能治愈自己或友军单位&lt;AHhb,DataA1&gt;点的生命值或者对敌军的不死单位造成一半的伤害。",
@@ -20853,20 +20858,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK28" s="6" t="inlineStr"/>
       <c r="AL28" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>神圣之光能治愈友军单位或者对敌军的不死单位造成一定的伤害。|n|n|cffffcc00等级1|r-恢复目标单位&lt;AHhb,DataA1&gt;点的生命值。|n|cffffcc00等级2|r-恢复目标单位&lt;AHhb,DataA2&gt;点的生命值。|n|cffffcc00等级3|r-恢复目标单位&lt;AHhb,DataA3&gt;点的生命值。|n|cffffcc00等级4|r-恢复目标单位&lt;AHhb,DataA4&gt;点的生命值。|n|cffffcc00等级5|r-恢复目标单位&lt;AHhb,DataA5&gt;点的生命值。</t>
         </is>
       </c>
       <c r="AM28" s="6" t="inlineStr"/>
       <c r="AN28" s="6" t="inlineStr"/>
       <c r="AO28" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP28" s="6" t="inlineStr">
         <is>
           <t>{
 "notself,ground,nonancient,vulnerable,air,invulnerable,organic,self",
@@ -20877,6 +20876,7 @@
 }</t>
         </is>
       </c>
+      <c r="AP28" s="6" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -20933,12 +20933,20 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S29" s="6" t="inlineStr"/>
+      <c r="S29" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T29" s="6" t="inlineStr"/>
       <c r="U29" s="6" t="inlineStr"/>
       <c r="V29" s="6" t="inlineStr"/>
       <c r="W29" s="6" t="inlineStr"/>
-      <c r="X29" s="6" t="inlineStr"/>
+      <c r="X29" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y29" s="6" t="inlineStr"/>
       <c r="Z29" s="6" t="inlineStr"/>
       <c r="AA29" s="6" t="inlineStr"/>
@@ -20948,13 +20956,10 @@
       <c r="AE29" s="6" t="inlineStr"/>
       <c r="AF29" s="6" t="inlineStr"/>
       <c r="AG29" s="6" t="inlineStr"/>
-      <c r="AH29" s="6" t="inlineStr">
-        <is>
-          <t>将几个单位（包括大魔法师在内）传送到一个友军单位或者建筑物旁边。|n|n|cffffcc00等级1|r-魔法消耗100点，冷却时间30秒。|n|cffffcc00等级2|r-魔法消耗80点，冷却时间20秒。|n|cffffcc00等级3|r-魔法消耗60点，冷却时间10秒。</t>
-        </is>
-      </c>
+      <c r="AH29" s="6" t="inlineStr"/>
       <c r="AI29" s="6" t="inlineStr"/>
-      <c r="AJ29" s="6" t="inlineStr">
+      <c r="AJ29" s="6" t="inlineStr"/>
+      <c r="AK29" s="6" t="inlineStr">
         <is>
           <t>{
 [=[
@@ -20972,10 +20977,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK29" s="6" t="inlineStr"/>
       <c r="AL29" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>将几个单位（包括大魔法师在内）传送到一个友军单位或者建筑物旁边。|n|n|cffffcc00等级1|r-魔法消耗100点，冷却时间30秒。|n|cffffcc00等级2|r-魔法消耗80点，冷却时间20秒。|n|cffffcc00等级3|r-魔法消耗60点，冷却时间10秒。</t>
         </is>
       </c>
       <c r="AM29" s="6" t="inlineStr">
@@ -20984,11 +20988,7 @@
         </is>
       </c>
       <c r="AN29" s="6" t="inlineStr"/>
-      <c r="AO29" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="AO29" s="6" t="inlineStr"/>
       <c r="AP29" s="6" t="inlineStr"/>
     </row>
     <row r="30">
@@ -21042,12 +21042,20 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S30" s="6" t="inlineStr"/>
+      <c r="S30" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T30" s="6" t="inlineStr"/>
       <c r="U30" s="6" t="inlineStr"/>
       <c r="V30" s="6" t="inlineStr"/>
       <c r="W30" s="6" t="inlineStr"/>
-      <c r="X30" s="6" t="inlineStr"/>
+      <c r="X30" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y30" s="6" t="inlineStr"/>
       <c r="Z30" s="6" t="inlineStr"/>
       <c r="AA30" s="6" t="inlineStr"/>
@@ -21057,13 +21065,10 @@
       <c r="AE30" s="6" t="inlineStr"/>
       <c r="AF30" s="6" t="inlineStr"/>
       <c r="AG30" s="6" t="inlineStr"/>
-      <c r="AH30" s="6" t="inlineStr">
-        <is>
-          <t>召唤一只强大的火凤凰。火凤凰全身燃烧剧烈的火焰，烧伤附近的空中敌人。具有魔法免疫、抗性皮肤。当火凤凰死后，会变成一只蛋，可以再次孵化成火凤凰。|n|n|cffffcc00能攻击地面和空中单位。|r|n|n|cffffcc00等级1|r-1个火凤凰。|n|cffffcc00等级2|r-2个火凤凰。|n|cffffcc00等级3|r-3个火凤凰。</t>
-        </is>
-      </c>
+      <c r="AH30" s="6" t="inlineStr"/>
       <c r="AI30" s="6" t="inlineStr"/>
-      <c r="AJ30" s="6" t="inlineStr">
+      <c r="AJ30" s="6" t="inlineStr"/>
+      <c r="AK30" s="6" t="inlineStr">
         <is>
           <t>{
 "短时间内召唤1只强大的火凤凰。火凤凰全身燃烧剧烈的火焰，烧伤附近的空中敌人。具有魔法免疫、抗性皮肤。当火凤凰死后，会变成一只蛋，可以再次孵化成火凤凰。|n|n|cffffcc00能攻击地面和空中单位。|r",
@@ -21072,10 +21077,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK30" s="6" t="inlineStr"/>
       <c r="AL30" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>召唤一只强大的火凤凰。火凤凰全身燃烧剧烈的火焰，烧伤附近的空中敌人。具有魔法免疫、抗性皮肤。当火凤凰死后，会变成一只蛋，可以再次孵化成火凤凰。|n|n|cffffcc00能攻击地面和空中单位。|r|n|n|cffffcc00等级1|r-1个火凤凰。|n|cffffcc00等级2|r-2个火凤凰。|n|cffffcc00等级3|r-3个火凤凰。</t>
         </is>
       </c>
       <c r="AM30" s="6" t="inlineStr">
@@ -21084,11 +21088,7 @@
         </is>
       </c>
       <c r="AN30" s="6" t="inlineStr"/>
-      <c r="AO30" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="AO30" s="6" t="inlineStr"/>
       <c r="AP30" s="6" t="inlineStr"/>
     </row>
     <row r="31">
@@ -21153,13 +21153,10 @@
       <c r="AE31" s="6" t="inlineStr"/>
       <c r="AF31" s="6" t="inlineStr"/>
       <c r="AG31" s="6" t="inlineStr"/>
-      <c r="AH31" s="6" t="inlineStr">
-        <is>
-          <t>复活周围几个个友军单位。|n|n|cffffcc00等级1|r-&lt;AHre,DataA1&gt;个友军单位。|n|cffffcc00等级2|r-&lt;AHre,DataA2&gt;个友军单位。|n|cffffcc00等级3|r-&lt;AHre,DataA3&gt;个友军单位。</t>
-        </is>
-      </c>
+      <c r="AH31" s="6" t="inlineStr"/>
       <c r="AI31" s="6" t="inlineStr"/>
-      <c r="AJ31" s="6" t="inlineStr">
+      <c r="AJ31" s="6" t="inlineStr"/>
+      <c r="AK31" s="6" t="inlineStr">
         <is>
           <t>{
 "复活周围&lt;AHre,DataA1&gt;个友军单位。",
@@ -21168,8 +21165,11 @@
 }</t>
         </is>
       </c>
-      <c r="AK31" s="6" t="inlineStr"/>
-      <c r="AL31" s="6" t="inlineStr"/>
+      <c r="AL31" s="6" t="inlineStr">
+        <is>
+          <t>复活周围几个个友军单位。|n|n|cffffcc00等级1|r-&lt;AHre,DataA1&gt;个友军单位。|n|cffffcc00等级2|r-&lt;AHre,DataA2&gt;个友军单位。|n|cffffcc00等级3|r-&lt;AHre,DataA3&gt;个友军单位。</t>
+        </is>
+      </c>
       <c r="AM31" s="6" t="inlineStr"/>
       <c r="AN31" s="6" t="inlineStr"/>
       <c r="AO31" s="6" t="inlineStr"/>
@@ -21224,12 +21224,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S32" s="6" t="inlineStr"/>
+      <c r="S32" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T32" s="6" t="inlineStr"/>
       <c r="U32" s="6" t="inlineStr"/>
       <c r="V32" s="6" t="inlineStr"/>
       <c r="W32" s="6" t="inlineStr"/>
-      <c r="X32" s="6" t="inlineStr"/>
+      <c r="X32" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y32" s="6" t="inlineStr"/>
       <c r="Z32" s="6" t="inlineStr"/>
       <c r="AA32" s="6" t="inlineStr"/>
@@ -21239,13 +21247,10 @@
       <c r="AE32" s="6" t="inlineStr"/>
       <c r="AF32" s="6" t="inlineStr"/>
       <c r="AG32" s="6" t="inlineStr"/>
-      <c r="AH32" s="6" t="inlineStr">
-        <is>
-          <t>向目标投掷一巨大的魔法锤，对其造成一定伤害并使其处于眩晕状态。|n|n|cffffcc00等级1|r-&lt;AHtb,DataA1&gt;点伤害，&lt;AHtb,Dur1&gt;秒眩晕状态。|n|cffffcc00等级2|r-&lt;AHtb,DataA2&gt;点伤害，&lt;AHtb,Dur2&gt;秒眩晕状态。|n|cffffcc00等级3|r-&lt;AHtb,DataA3&gt;点伤害，&lt;AHtb,Dur3&gt;秒眩晕状态。|n|cffffcc00等级4|r-&lt;AHtb,DataA4&gt;点伤害，&lt;AHtb,Dur4&gt;秒眩晕状态。|n|cffffcc00等级5|r-&lt;AHtb,DataA5&gt;点伤害，&lt;AHtb,Dur5&gt;秒眩晕状态。</t>
-        </is>
-      </c>
+      <c r="AH32" s="6" t="inlineStr"/>
       <c r="AI32" s="6" t="inlineStr"/>
-      <c r="AJ32" s="6" t="inlineStr">
+      <c r="AJ32" s="6" t="inlineStr"/>
+      <c r="AK32" s="6" t="inlineStr">
         <is>
           <t>{
 "向目标投掷一巨大的魔法锤，对其造成&lt;AHtb,DataA1&gt;点伤害并使其&lt;AHtb,Dur1&gt;秒内处于眩晕状态。",
@@ -21256,19 +21261,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK32" s="6" t="inlineStr"/>
       <c r="AL32" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>向目标投掷一巨大的魔法锤，对其造成一定伤害并使其处于眩晕状态。|n|n|cffffcc00等级1|r-&lt;AHtb,DataA1&gt;点伤害，&lt;AHtb,Dur1&gt;秒眩晕状态。|n|cffffcc00等级2|r-&lt;AHtb,DataA2&gt;点伤害，&lt;AHtb,Dur2&gt;秒眩晕状态。|n|cffffcc00等级3|r-&lt;AHtb,DataA3&gt;点伤害，&lt;AHtb,Dur3&gt;秒眩晕状态。|n|cffffcc00等级4|r-&lt;AHtb,DataA4&gt;点伤害，&lt;AHtb,Dur4&gt;秒眩晕状态。|n|cffffcc00等级5|r-&lt;AHtb,DataA5&gt;点伤害，&lt;AHtb,Dur5&gt;秒眩晕状态。</t>
         </is>
       </c>
       <c r="AM32" s="6" t="inlineStr"/>
       <c r="AN32" s="6" t="inlineStr"/>
-      <c r="AO32" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO32" s="6" t="inlineStr"/>
       <c r="AP32" s="6" t="inlineStr"/>
     </row>
     <row r="33">
@@ -21324,12 +21324,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S33" s="6" t="inlineStr"/>
+      <c r="S33" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T33" s="6" t="inlineStr"/>
       <c r="U33" s="6" t="inlineStr"/>
       <c r="V33" s="6" t="inlineStr"/>
       <c r="W33" s="6" t="inlineStr"/>
-      <c r="X33" s="6" t="inlineStr"/>
+      <c r="X33" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y33" s="6" t="inlineStr"/>
       <c r="Z33" s="6" t="inlineStr"/>
       <c r="AA33" s="6" t="inlineStr"/>
@@ -21339,13 +21347,10 @@
       <c r="AE33" s="6" t="inlineStr"/>
       <c r="AF33" s="6" t="inlineStr"/>
       <c r="AG33" s="6" t="inlineStr"/>
-      <c r="AH33" s="6" t="inlineStr">
-        <is>
-          <t>重击地面，对周围的地面单位造成伤害并减慢其移动速度和攻击速度。|n|n|cffffcc00等级1|r-&lt;AHtc,DataA1&gt;点伤害，&lt;AHtc,DataC1,%&gt;%的移动速度，&lt;AHtc,DataD1,%&gt;%的攻击速度。|n|cffffcc00等级2|r-&lt;AHtc,DataA2&gt;点伤害，&lt;AHtc,DataC2,%&gt;%的移动速度，&lt;AHtc,DataD2,%&gt;%的攻击速度。|n|cffffcc00等级3|r-&lt;AHtc,DataA3&gt;点伤害，&lt;AHtc,DataC3,%&gt;%的移动速度，&lt;AHtc,DataD3,%&gt;%的攻击速度。|n|cffffcc00等级4|r-&lt;AHtc,DataA4&gt;点伤害，&lt;AHtc,DataC4,%&gt;%的移动速度，&lt;AHtc,DataD4,%&gt;%的攻击速度。|n|cffffcc00等级5|r-&lt;AHtc,DataA5&gt;点伤害，&lt;AHtc,DataC5,%&gt;%的移动速度，&lt;AHtc,DataD5,%&gt;%的攻击速度。</t>
-        </is>
-      </c>
+      <c r="AH33" s="6" t="inlineStr"/>
       <c r="AI33" s="6" t="inlineStr"/>
-      <c r="AJ33" s="6" t="inlineStr">
+      <c r="AJ33" s="6" t="inlineStr"/>
+      <c r="AK33" s="6" t="inlineStr">
         <is>
           <t>{
 "重击地面，对周围的地面单位造成&lt;AHtc,DataA1&gt;点伤害并使其减慢 &lt;AHtc,DataC1,%&gt;%的移动速度和&lt;AHtc,DataD1,%&gt;%的攻击速度。",
@@ -21356,19 +21361,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK33" s="6" t="inlineStr"/>
       <c r="AL33" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>重击地面，对周围的地面单位造成伤害并减慢其移动速度和攻击速度。|n|n|cffffcc00等级1|r-&lt;AHtc,DataA1&gt;点伤害，&lt;AHtc,DataC1,%&gt;%的移动速度，&lt;AHtc,DataD1,%&gt;%的攻击速度。|n|cffffcc00等级2|r-&lt;AHtc,DataA2&gt;点伤害，&lt;AHtc,DataC2,%&gt;%的移动速度，&lt;AHtc,DataD2,%&gt;%的攻击速度。|n|cffffcc00等级3|r-&lt;AHtc,DataA3&gt;点伤害，&lt;AHtc,DataC3,%&gt;%的移动速度，&lt;AHtc,DataD3,%&gt;%的攻击速度。|n|cffffcc00等级4|r-&lt;AHtc,DataA4&gt;点伤害，&lt;AHtc,DataC4,%&gt;%的移动速度，&lt;AHtc,DataD4,%&gt;%的攻击速度。|n|cffffcc00等级5|r-&lt;AHtc,DataA5&gt;点伤害，&lt;AHtc,DataC5,%&gt;%的移动速度，&lt;AHtc,DataD5,%&gt;%的攻击速度。</t>
         </is>
       </c>
       <c r="AM33" s="6" t="inlineStr"/>
       <c r="AN33" s="6" t="inlineStr"/>
-      <c r="AO33" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO33" s="6" t="inlineStr"/>
       <c r="AP33" s="6" t="inlineStr"/>
     </row>
     <row r="34">
@@ -21429,7 +21429,14 @@
       <c r="Y34" s="6" t="inlineStr"/>
       <c r="Z34" s="6" t="inlineStr"/>
       <c r="AA34" s="6" t="inlineStr"/>
-      <c r="AB34" s="6" t="inlineStr">
+      <c r="AB34" s="6" t="inlineStr"/>
+      <c r="AC34" s="6" t="inlineStr"/>
+      <c r="AD34" s="6" t="inlineStr"/>
+      <c r="AE34" s="6" t="inlineStr"/>
+      <c r="AF34" s="6" t="inlineStr"/>
+      <c r="AG34" s="6" t="inlineStr"/>
+      <c r="AH34" s="6" t="inlineStr"/>
+      <c r="AI34" s="6" t="inlineStr">
         <is>
           <t>{
 "hwat",
@@ -21440,18 +21447,8 @@
 }</t>
         </is>
       </c>
-      <c r="AC34" s="6" t="inlineStr"/>
-      <c r="AD34" s="6" t="inlineStr"/>
-      <c r="AE34" s="6" t="inlineStr"/>
-      <c r="AF34" s="6" t="inlineStr"/>
-      <c r="AG34" s="6" t="inlineStr"/>
-      <c r="AH34" s="6" t="inlineStr">
-        <is>
-          <t>召唤出一个水元素来帮大魔法师进行战斗。|n持续60秒。|n|n|cffffcc00能攻击地面和空中单位。|r|n|n|cffffcc00等级1|r-水元素拥有656点生命值，22点的伤害。|n|cffffcc00等级2|r-水元素拥有843点生命值，37点的伤害。|n|cffffcc00等级3|r-水元素拥有1125点生命值，50点的伤害。|n|cffffcc00等级4|r-水元素拥有1453点生命值，64点的伤害。|n|cffffcc00等级5|r-水元素拥有1785点生命值，83点的伤害。</t>
-        </is>
-      </c>
-      <c r="AI34" s="6" t="inlineStr"/>
-      <c r="AJ34" s="6" t="inlineStr">
+      <c r="AJ34" s="6" t="inlineStr"/>
+      <c r="AK34" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出一个具有656生命值的水元素来帮大魔法师进行战斗。攻击力为22点。|n持续60秒。|n|n|cffffcc00能攻击地面和空中单位。|r",
@@ -21462,8 +21459,11 @@
 }</t>
         </is>
       </c>
-      <c r="AK34" s="6" t="inlineStr"/>
-      <c r="AL34" s="6" t="inlineStr"/>
+      <c r="AL34" s="6" t="inlineStr">
+        <is>
+          <t>召唤出一个水元素来帮大魔法师进行战斗。|n持续60秒。|n|n|cffffcc00能攻击地面和空中单位。|r|n|n|cffffcc00等级1|r-水元素拥有656点生命值，22点的伤害。|n|cffffcc00等级2|r-水元素拥有843点生命值，37点的伤害。|n|cffffcc00等级3|r-水元素拥有1125点生命值，50点的伤害。|n|cffffcc00等级4|r-水元素拥有1453点生命值，64点的伤害。|n|cffffcc00等级5|r-水元素拥有1785点生命值，83点的伤害。</t>
+        </is>
+      </c>
       <c r="AM34" s="6" t="inlineStr">
         <is>
           <t>{135,135,135,135,135}</t>
@@ -21517,15 +21517,15 @@
       <c r="AG35" s="6" t="inlineStr"/>
       <c r="AH35" s="6" t="inlineStr"/>
       <c r="AI35" s="6" t="inlineStr"/>
-      <c r="AJ35" s="6" t="inlineStr"/>
+      <c r="AJ35" s="6" t="inlineStr">
+        <is>
+          <t>(无效不可用的)</t>
+        </is>
+      </c>
       <c r="AK35" s="6" t="inlineStr"/>
       <c r="AL35" s="6" t="inlineStr"/>
       <c r="AM35" s="6" t="inlineStr"/>
-      <c r="AN35" s="6" t="inlineStr">
-        <is>
-          <t>(无效不可用的)</t>
-        </is>
-      </c>
+      <c r="AN35" s="6" t="inlineStr"/>
       <c r="AO35" s="6" t="inlineStr"/>
       <c r="AP35" s="6" t="inlineStr"/>
     </row>
@@ -21573,15 +21573,15 @@
       <c r="AG36" s="6" t="inlineStr"/>
       <c r="AH36" s="6" t="inlineStr"/>
       <c r="AI36" s="6" t="inlineStr"/>
-      <c r="AJ36" s="6" t="inlineStr"/>
+      <c r="AJ36" s="6" t="inlineStr">
+        <is>
+          <t>(无效不可用的)</t>
+        </is>
+      </c>
       <c r="AK36" s="6" t="inlineStr"/>
       <c r="AL36" s="6" t="inlineStr"/>
       <c r="AM36" s="6" t="inlineStr"/>
-      <c r="AN36" s="6" t="inlineStr">
-        <is>
-          <t>(无效不可用的)</t>
-        </is>
-      </c>
+      <c r="AN36" s="6" t="inlineStr"/>
       <c r="AO36" s="6" t="inlineStr"/>
       <c r="AP36" s="6" t="inlineStr"/>
     </row>
@@ -21629,15 +21629,15 @@
       <c r="AG37" s="6" t="inlineStr"/>
       <c r="AH37" s="6" t="inlineStr"/>
       <c r="AI37" s="6" t="inlineStr"/>
-      <c r="AJ37" s="6" t="inlineStr"/>
+      <c r="AJ37" s="6" t="inlineStr">
+        <is>
+          <t>(无效不可用的)</t>
+        </is>
+      </c>
       <c r="AK37" s="6" t="inlineStr"/>
       <c r="AL37" s="6" t="inlineStr"/>
       <c r="AM37" s="6" t="inlineStr"/>
-      <c r="AN37" s="6" t="inlineStr">
-        <is>
-          <t>(无效不可用的)</t>
-        </is>
-      </c>
+      <c r="AN37" s="6" t="inlineStr"/>
       <c r="AO37" s="6" t="inlineStr"/>
       <c r="AP37" s="6" t="inlineStr"/>
     </row>
@@ -21705,13 +21705,10 @@
       <c r="AE38" s="6" t="inlineStr"/>
       <c r="AF38" s="6" t="inlineStr"/>
       <c r="AG38" s="6" t="inlineStr"/>
-      <c r="AH38" s="6" t="inlineStr">
-        <is>
-          <t>能增加周围单位的移动速度和攻击速度。|n|n|cffffcc00等级1|r-提高&lt;AOae,DataA1,%&gt;%的移动速度和&lt;AOae,DataB1,%&gt;%的攻击速度。|n|cffffcc00等级2|r-提高&lt;AOae,DataA2,%&gt;%的移动速度和&lt;AOae,DataB2,%&gt;%的攻击速度。|n|cffffcc00等级3|r-提高&lt;AOae,DataA3,%&gt;%的移动速度和&lt;AOae,DataB3,%&gt;%的攻击速度。|n|cffffcc00等级4|r-提高&lt;AOae,DataA4,%&gt;%的移动速度和&lt;AOae,DataB4,%&gt;%的攻击速度。|n|cffffcc00等级5|r-提高&lt;AOae,DataA5,%&gt;%的移动速度和&lt;AOae,DataB5,%&gt;%的攻击速度。</t>
-        </is>
-      </c>
+      <c r="AH38" s="6" t="inlineStr"/>
       <c r="AI38" s="6" t="inlineStr"/>
-      <c r="AJ38" s="6" t="inlineStr">
+      <c r="AJ38" s="6" t="inlineStr"/>
+      <c r="AK38" s="6" t="inlineStr">
         <is>
           <t>{
 "增加周围单位&lt;AOae,DataA1,%&gt;%的移动速度和&lt;AOae,DataB1,%&gt;%的攻击速度。",
@@ -21722,8 +21719,11 @@
 }</t>
         </is>
       </c>
-      <c r="AK38" s="6" t="inlineStr"/>
-      <c r="AL38" s="6" t="inlineStr"/>
+      <c r="AL38" s="6" t="inlineStr">
+        <is>
+          <t>能增加周围单位的移动速度和攻击速度。|n|n|cffffcc00等级1|r-提高&lt;AOae,DataA1,%&gt;%的移动速度和&lt;AOae,DataB1,%&gt;%的攻击速度。|n|cffffcc00等级2|r-提高&lt;AOae,DataA2,%&gt;%的移动速度和&lt;AOae,DataB2,%&gt;%的攻击速度。|n|cffffcc00等级3|r-提高&lt;AOae,DataA3,%&gt;%的移动速度和&lt;AOae,DataB3,%&gt;%的攻击速度。|n|cffffcc00等级4|r-提高&lt;AOae,DataA4,%&gt;%的移动速度和&lt;AOae,DataB4,%&gt;%的攻击速度。|n|cffffcc00等级5|r-提高&lt;AOae,DataA5,%&gt;%的移动速度和&lt;AOae,DataB5,%&gt;%的攻击速度。</t>
+        </is>
+      </c>
       <c r="AM38" s="6" t="inlineStr"/>
       <c r="AN38" s="6" t="inlineStr"/>
       <c r="AO38" s="6" t="inlineStr"/>
@@ -21786,7 +21786,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S39" s="6" t="inlineStr"/>
+      <c r="S39" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T39" s="6" t="inlineStr"/>
       <c r="U39" s="6" t="inlineStr"/>
       <c r="V39" s="6" t="inlineStr"/>
@@ -21801,13 +21805,10 @@
       <c r="AE39" s="6" t="inlineStr"/>
       <c r="AF39" s="6" t="inlineStr"/>
       <c r="AG39" s="6" t="inlineStr"/>
-      <c r="AH39" s="6" t="inlineStr">
-        <is>
-          <t>投掷出一道能进行跳跃的闪电。每次跳跃都会减小闪电的攻击力。|n|n|cffffcc00等级1|r-&lt;AOcl,DataA1&gt;点伤害，跳跃&lt;AOcl,DataB1&gt;次。|n|cffffcc00等级2|r-&lt;AOcl,DataA2&gt;点伤害，跳跃&lt;AOcl,DataB2&gt;次。|n|cffffcc00等级3|r-&lt;AOcl,DataA3&gt;点伤害，跳跃&lt;AOcl,DataB3&gt;次。|n|cffffcc00等级4|r-&lt;AOcl,DataA4&gt;点伤害，跳跃&lt;AOcl,DataB4&gt;次。|n|cffffcc00等级5|r-&lt;AOcl,DataA5&gt;点伤害，跳跃&lt;AOcl,DataB5&gt;次。</t>
-        </is>
-      </c>
+      <c r="AH39" s="6" t="inlineStr"/>
       <c r="AI39" s="6" t="inlineStr"/>
-      <c r="AJ39" s="6" t="inlineStr">
+      <c r="AJ39" s="6" t="inlineStr"/>
+      <c r="AK39" s="6" t="inlineStr">
         <is>
           <t>{
 "投掷出一道具有攻击力的闪电，第一个单位造成&lt;AOcl,DataA1&gt;点的伤害，然后闪电跳跃向周围&lt;AOcl,DataB1&gt;个敌方的其他单位。每次跳跃都会减小闪电的攻击力。",
@@ -21818,10 +21819,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK39" s="6" t="inlineStr"/>
       <c r="AL39" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>投掷出一道能进行跳跃的闪电。每次跳跃都会减小闪电的攻击力。|n|n|cffffcc00等级1|r-&lt;AOcl,DataA1&gt;点伤害，跳跃&lt;AOcl,DataB1&gt;次。|n|cffffcc00等级2|r-&lt;AOcl,DataA2&gt;点伤害，跳跃&lt;AOcl,DataB2&gt;次。|n|cffffcc00等级3|r-&lt;AOcl,DataA3&gt;点伤害，跳跃&lt;AOcl,DataB3&gt;次。|n|cffffcc00等级4|r-&lt;AOcl,DataA4&gt;点伤害，跳跃&lt;AOcl,DataB4&gt;次。|n|cffffcc00等级5|r-&lt;AOcl,DataA5&gt;点伤害，跳跃&lt;AOcl,DataB5&gt;次。</t>
         </is>
       </c>
       <c r="AM39" s="6" t="inlineStr"/>
@@ -21887,7 +21887,11 @@
       <c r="U40" s="6" t="inlineStr"/>
       <c r="V40" s="6" t="inlineStr"/>
       <c r="W40" s="6" t="inlineStr"/>
-      <c r="X40" s="6" t="inlineStr"/>
+      <c r="X40" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y40" s="6" t="inlineStr"/>
       <c r="Z40" s="6" t="inlineStr"/>
       <c r="AA40" s="6" t="inlineStr"/>
@@ -21897,13 +21901,10 @@
       <c r="AE40" s="6" t="inlineStr"/>
       <c r="AF40" s="6" t="inlineStr"/>
       <c r="AG40" s="6" t="inlineStr"/>
-      <c r="AH40" s="6" t="inlineStr">
-        <is>
-          <t>给予一定的概率使得攻击力能大大增强。|n|n|cffffcc00等级1|r-&lt;AOcr,DataA1&gt;%的概率，&lt;AOcr,DataB1&gt;倍于一般攻击的伤害值。|n|cffffcc00等级2|r-&lt;AOcr,DataA2&gt;%的概率，&lt;AOcr,DataB2&gt;倍于一般攻击的伤害值。|n|cffffcc00等级3|r-&lt;AOcr,DataA1&gt;%的概率，&lt;AOcr,DataB3&gt;倍于一般攻击的伤害值。|n|cffffcc00等级4|r-&lt;AOcr,DataA4&gt;%的概率，&lt;AOcr,DataB4&gt;倍于一般攻击的伤害值。|n|cffffcc00等级5|r-&lt;AOcr,DataA5&gt;%的概率，&lt;AOcr,DataB5&gt;倍于一般攻击的伤害值。</t>
-        </is>
-      </c>
+      <c r="AH40" s="6" t="inlineStr"/>
       <c r="AI40" s="6" t="inlineStr"/>
-      <c r="AJ40" s="6" t="inlineStr">
+      <c r="AJ40" s="6" t="inlineStr"/>
+      <c r="AK40" s="6" t="inlineStr">
         <is>
           <t>{
 "给予&lt;AOcr,DataA1&gt;%的概率使得剑圣的攻击能造成&lt;AOcr,DataB1&gt;倍于一般攻击的伤害值。",
@@ -21914,15 +21915,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK40" s="6" t="inlineStr"/>
-      <c r="AL40" s="6" t="inlineStr"/>
+      <c r="AL40" s="6" t="inlineStr">
+        <is>
+          <t>给予一定的概率使得攻击力能大大增强。|n|n|cffffcc00等级1|r-&lt;AOcr,DataA1&gt;%的概率，&lt;AOcr,DataB1&gt;倍于一般攻击的伤害值。|n|cffffcc00等级2|r-&lt;AOcr,DataA2&gt;%的概率，&lt;AOcr,DataB2&gt;倍于一般攻击的伤害值。|n|cffffcc00等级3|r-&lt;AOcr,DataA1&gt;%的概率，&lt;AOcr,DataB3&gt;倍于一般攻击的伤害值。|n|cffffcc00等级4|r-&lt;AOcr,DataA4&gt;%的概率，&lt;AOcr,DataB4&gt;倍于一般攻击的伤害值。|n|cffffcc00等级5|r-&lt;AOcr,DataA5&gt;%的概率，&lt;AOcr,DataB5&gt;倍于一般攻击的伤害值。</t>
+        </is>
+      </c>
       <c r="AM40" s="6" t="inlineStr"/>
       <c r="AN40" s="6" t="inlineStr"/>
-      <c r="AO40" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO40" s="6" t="inlineStr"/>
       <c r="AP40" s="6" t="inlineStr"/>
     </row>
     <row r="41">
@@ -21984,16 +21984,24 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S41" s="6" t="inlineStr"/>
-      <c r="T41" s="6" t="inlineStr">
+      <c r="S41" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T41" s="6" t="inlineStr"/>
+      <c r="U41" s="6" t="inlineStr"/>
+      <c r="V41" s="6" t="inlineStr">
         <is>
           <t>{25.0,30.0,35.0}</t>
         </is>
       </c>
-      <c r="U41" s="6" t="inlineStr"/>
-      <c r="V41" s="6" t="inlineStr"/>
       <c r="W41" s="6" t="inlineStr"/>
-      <c r="X41" s="6" t="inlineStr"/>
+      <c r="X41" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y41" s="6" t="inlineStr"/>
       <c r="Z41" s="6" t="inlineStr"/>
       <c r="AA41" s="6" t="inlineStr"/>
@@ -22003,13 +22011,10 @@
       <c r="AE41" s="6" t="inlineStr"/>
       <c r="AF41" s="6" t="inlineStr"/>
       <c r="AG41" s="6" t="inlineStr"/>
-      <c r="AH41" s="6" t="inlineStr">
-        <is>
-          <t>使得大地发生颤抖，对有效范围内的建筑物造成每秒的伤害，并使该范围内的单位减速。|n|n|cffffcc00等级1|r-每秒&lt;AOeq,DataB1&gt;点的伤害，减速&lt;AOeq,DataC1,%&gt;%。持续&lt;AOeq,Dur1&gt;秒。|n|cffffcc00等级2|r-每秒&lt;AOeq,DataB2&gt;点的伤害，减速&lt;AOeq,DataC2,%&gt;%。持续&lt;AOeq,Dur2&gt;秒。|n|cffffcc00等级3|r-每秒&lt;AOeq,DataB3&gt;点的伤害，减速&lt;AOeq,DataC3,%&gt;%。持续&lt;AOeq,Dur3&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH41" s="6" t="inlineStr"/>
       <c r="AI41" s="6" t="inlineStr"/>
-      <c r="AJ41" s="6" t="inlineStr">
+      <c r="AJ41" s="6" t="inlineStr"/>
+      <c r="AK41" s="6" t="inlineStr">
         <is>
           <t>{
 "使得大地发生颤抖，对有效范围内的建筑物造成每秒&lt;AOeq,DataB1&gt;点的伤害，并使该范围内的单位减速&lt;AOeq,DataC1,%&gt;%。|n持续&lt;AOeq,Dur1&gt;秒。",
@@ -22018,20 +22023,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK41" s="6" t="inlineStr"/>
       <c r="AL41" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>使得大地发生颤抖，对有效范围内的建筑物造成每秒的伤害，并使该范围内的单位减速。|n|n|cffffcc00等级1|r-每秒&lt;AOeq,DataB1&gt;点的伤害，减速&lt;AOeq,DataC1,%&gt;%。持续&lt;AOeq,Dur1&gt;秒。|n|cffffcc00等级2|r-每秒&lt;AOeq,DataB2&gt;点的伤害，减速&lt;AOeq,DataC2,%&gt;%。持续&lt;AOeq,Dur2&gt;秒。|n|cffffcc00等级3|r-每秒&lt;AOeq,DataB3&gt;点的伤害，减速&lt;AOeq,DataC3,%&gt;%。持续&lt;AOeq,Dur3&gt;秒。</t>
         </is>
       </c>
       <c r="AM41" s="6" t="inlineStr"/>
       <c r="AN41" s="6" t="inlineStr"/>
       <c r="AO41" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AP41" s="6" t="inlineStr">
         <is>
           <t>{
 "enemies",
@@ -22040,6 +22039,7 @@
 }</t>
         </is>
       </c>
+      <c r="AP41" s="6" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
@@ -22094,12 +22094,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S42" s="6" t="inlineStr"/>
+      <c r="S42" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T42" s="6" t="inlineStr"/>
       <c r="U42" s="6" t="inlineStr"/>
       <c r="V42" s="6" t="inlineStr"/>
       <c r="W42" s="6" t="inlineStr"/>
-      <c r="X42" s="6" t="inlineStr"/>
+      <c r="X42" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y42" s="6" t="inlineStr"/>
       <c r="Z42" s="6" t="inlineStr"/>
       <c r="AA42" s="6" t="inlineStr"/>
@@ -22109,13 +22117,10 @@
       <c r="AE42" s="6" t="inlineStr"/>
       <c r="AF42" s="6" t="inlineStr"/>
       <c r="AG42" s="6" t="inlineStr"/>
-      <c r="AH42" s="6" t="inlineStr">
-        <is>
-          <t>能在一定时间内驱散目标区域内的战争迷雾。还能看见敌方的隐形单位。|n|n|cffffcc00等级1|r-消耗&lt;AOfs,Cost1&gt;点魔法，显现范围600码。|n|cffffcc00等级2|r-消耗&lt;AOfs,Cost2&gt;点魔法，显现范围1800码。|n|cffffcc00等级3|r-消耗&lt;AOfs,Cost3&gt;点魔法，显现范围3000码。|n|cffffcc00等级4|r-消耗&lt;AOfs,Cost4&gt;点魔法，显现范围4200码。|n|cffffcc00等级5|r-消耗&lt;AOfs,Cost5&gt;点魔法，显现范围5400码。</t>
-        </is>
-      </c>
+      <c r="AH42" s="6" t="inlineStr"/>
       <c r="AI42" s="6" t="inlineStr"/>
-      <c r="AJ42" s="6" t="inlineStr">
+      <c r="AJ42" s="6" t="inlineStr"/>
+      <c r="AK42" s="6" t="inlineStr">
         <is>
           <t>{
 "能在8秒内驱散目标区域内600码的战争迷雾，也能看到隐形单位，在团战中非常有用，消耗75点魔法值。",
@@ -22126,10 +22131,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK42" s="6" t="inlineStr"/>
       <c r="AL42" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>能在一定时间内驱散目标区域内的战争迷雾。还能看见敌方的隐形单位。|n|n|cffffcc00等级1|r-消耗&lt;AOfs,Cost1&gt;点魔法，显现范围600码。|n|cffffcc00等级2|r-消耗&lt;AOfs,Cost2&gt;点魔法，显现范围1800码。|n|cffffcc00等级3|r-消耗&lt;AOfs,Cost3&gt;点魔法，显现范围3000码。|n|cffffcc00等级4|r-消耗&lt;AOfs,Cost4&gt;点魔法，显现范围4200码。|n|cffffcc00等级5|r-消耗&lt;AOfs,Cost5&gt;点魔法，显现范围5400码。</t>
         </is>
       </c>
       <c r="AM42" s="6" t="inlineStr">
@@ -22138,11 +22142,7 @@
         </is>
       </c>
       <c r="AN42" s="6" t="inlineStr"/>
-      <c r="AO42" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO42" s="6" t="inlineStr"/>
       <c r="AP42" s="6" t="inlineStr"/>
     </row>
     <row r="43">
@@ -22198,12 +22198,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S43" s="6" t="inlineStr"/>
+      <c r="S43" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T43" s="6" t="inlineStr"/>
       <c r="U43" s="6" t="inlineStr"/>
       <c r="V43" s="6" t="inlineStr"/>
       <c r="W43" s="6" t="inlineStr"/>
-      <c r="X43" s="6" t="inlineStr"/>
+      <c r="X43" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y43" s="6" t="inlineStr"/>
       <c r="Z43" s="6" t="inlineStr"/>
       <c r="AA43" s="6" t="inlineStr"/>
@@ -22213,13 +22221,10 @@
       <c r="AE43" s="6" t="inlineStr"/>
       <c r="AF43" s="6" t="inlineStr"/>
       <c r="AG43" s="6" t="inlineStr"/>
-      <c r="AH43" s="6" t="inlineStr">
-        <is>
-          <t>召唤出一道能进行跳跃的医疗能量波，每次跳跃都会削弱医疗波的医疗能力。|n|n|cffffcc00等级1|r-恢复&lt;AOhw,DataA1&gt;点生命值，跳跃&lt;AOhw,DataB1&gt;次。|n|cffffcc00等级2|r-恢复&lt;AOhw,DataA2&gt;点生命值，跳跃&lt;AOhw,DataB2&gt;次。|n|cffffcc00等级3|r-恢复&lt;AOhw,DataA3&gt;点生命值，跳跃&lt;AOhw,DataB3&gt;次。|n|cffffcc00等级4|r-恢复&lt;AOhw,DataA4&gt;点生命值，跳跃&lt;AOhw,DataB4&gt;次。|n|cffffcc00等级5|r-恢复&lt;AOhw,DataA5&gt;点生命值，跳跃&lt;AOhw,DataB5&gt;次。</t>
-        </is>
-      </c>
+      <c r="AH43" s="6" t="inlineStr"/>
       <c r="AI43" s="6" t="inlineStr"/>
-      <c r="AJ43" s="6" t="inlineStr">
+      <c r="AJ43" s="6" t="inlineStr"/>
+      <c r="AK43" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出一道能跳跃&lt;AOhw,DataB1&gt;次的医疗能量波，对首个目标能恢复&lt;AOhw,DataA1&gt;点的生命值。每次跳跃都会削弱医疗波的医疗能力。",
@@ -22230,19 +22235,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK43" s="6" t="inlineStr"/>
       <c r="AL43" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>召唤出一道能进行跳跃的医疗能量波，每次跳跃都会削弱医疗波的医疗能力。|n|n|cffffcc00等级1|r-恢复&lt;AOhw,DataA1&gt;点生命值，跳跃&lt;AOhw,DataB1&gt;次。|n|cffffcc00等级2|r-恢复&lt;AOhw,DataA2&gt;点生命值，跳跃&lt;AOhw,DataB2&gt;次。|n|cffffcc00等级3|r-恢复&lt;AOhw,DataA3&gt;点生命值，跳跃&lt;AOhw,DataB3&gt;次。|n|cffffcc00等级4|r-恢复&lt;AOhw,DataA4&gt;点生命值，跳跃&lt;AOhw,DataB4&gt;次。|n|cffffcc00等级5|r-恢复&lt;AOhw,DataA5&gt;点生命值，跳跃&lt;AOhw,DataB5&gt;次。</t>
         </is>
       </c>
       <c r="AM43" s="6" t="inlineStr"/>
       <c r="AN43" s="6" t="inlineStr"/>
-      <c r="AO43" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO43" s="6" t="inlineStr"/>
       <c r="AP43" s="6" t="inlineStr"/>
     </row>
     <row r="44">
@@ -22298,22 +22298,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S44" s="6" t="inlineStr"/>
-      <c r="T44" s="6" t="inlineStr">
+      <c r="S44" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T44" s="6" t="inlineStr"/>
+      <c r="U44" s="6" t="inlineStr"/>
+      <c r="V44" s="6" t="inlineStr">
         <is>
           <t>{15.0,30.0,45.0,60.0,75.0}</t>
         </is>
       </c>
-      <c r="U44" s="6" t="inlineStr"/>
-      <c r="V44" s="6" t="inlineStr"/>
       <c r="W44" s="6" t="inlineStr"/>
-      <c r="X44" s="6" t="inlineStr"/>
+      <c r="X44" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y44" s="6" t="inlineStr"/>
-      <c r="Z44" s="6" t="inlineStr">
-        <is>
-          <t>{4.0,5.0,6.0,7.0,8.0}</t>
-        </is>
-      </c>
+      <c r="Z44" s="6" t="inlineStr"/>
       <c r="AA44" s="6" t="inlineStr"/>
       <c r="AB44" s="6" t="inlineStr"/>
       <c r="AC44" s="6" t="inlineStr"/>
@@ -22321,13 +22325,10 @@
       <c r="AE44" s="6" t="inlineStr"/>
       <c r="AF44" s="6" t="inlineStr"/>
       <c r="AG44" s="6" t="inlineStr"/>
-      <c r="AH44" s="6" t="inlineStr">
-        <is>
-          <t>让目标单位在一定的时间内变成一只随机的小动物,废除其特殊技能的使用。|n|n|cffffcc00等级1|r-持续&lt;AOhx,Dur1&gt;秒。|n|cffffcc00等级2|r-持续&lt;AOhx,Dur2&gt;秒。|n|cffffcc00等级3|r-持续&lt;AOhx,Dur3&gt;秒。|n|cffffcc00等级4|r-持续&lt;AOhx,Dur4&gt;秒。|n|cffffcc00等级5|r-持续&lt;AOhx,Dur5&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH44" s="6" t="inlineStr"/>
       <c r="AI44" s="6" t="inlineStr"/>
-      <c r="AJ44" s="6" t="inlineStr">
+      <c r="AJ44" s="6" t="inlineStr"/>
+      <c r="AK44" s="6" t="inlineStr">
         <is>
           <t>{
 "让目标单位在&lt;AOhx,Dur1&gt;秒内变成一只随机的小动物&lt;AOhx,Dur1&gt;秒。",
@@ -22338,20 +22339,19 @@
 }</t>
         </is>
       </c>
-      <c r="AK44" s="6" t="inlineStr"/>
       <c r="AL44" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>让目标单位在一定的时间内变成一只随机的小动物,废除其特殊技能的使用。|n|n|cffffcc00等级1|r-持续&lt;AOhx,Dur1&gt;秒。|n|cffffcc00等级2|r-持续&lt;AOhx,Dur2&gt;秒。|n|cffffcc00等级3|r-持续&lt;AOhx,Dur3&gt;秒。|n|cffffcc00等级4|r-持续&lt;AOhx,Dur4&gt;秒。|n|cffffcc00等级5|r-持续&lt;AOhx,Dur5&gt;秒。</t>
         </is>
       </c>
       <c r="AM44" s="6" t="inlineStr"/>
       <c r="AN44" s="6" t="inlineStr"/>
-      <c r="AO44" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP44" s="6" t="inlineStr"/>
+      <c r="AO44" s="6" t="inlineStr"/>
+      <c r="AP44" s="6" t="inlineStr">
+        <is>
+          <t>{4.0,5.0,6.0,7.0,8.0}</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -22397,15 +22397,15 @@
       <c r="AG45" s="6" t="inlineStr"/>
       <c r="AH45" s="6" t="inlineStr"/>
       <c r="AI45" s="6" t="inlineStr"/>
-      <c r="AJ45" s="6" t="inlineStr"/>
+      <c r="AJ45" s="6" t="inlineStr">
+        <is>
+          <t>（无效不可用的）</t>
+        </is>
+      </c>
       <c r="AK45" s="6" t="inlineStr"/>
       <c r="AL45" s="6" t="inlineStr"/>
       <c r="AM45" s="6" t="inlineStr"/>
-      <c r="AN45" s="6" t="inlineStr">
-        <is>
-          <t>（无效不可用的）</t>
-        </is>
-      </c>
+      <c r="AN45" s="6" t="inlineStr"/>
       <c r="AO45" s="6" t="inlineStr"/>
       <c r="AP45" s="6" t="inlineStr"/>
     </row>
@@ -22482,12 +22482,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S46" s="6" t="inlineStr"/>
+      <c r="S46" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T46" s="6" t="inlineStr"/>
       <c r="U46" s="6" t="inlineStr"/>
       <c r="V46" s="6" t="inlineStr"/>
       <c r="W46" s="6" t="inlineStr"/>
-      <c r="X46" s="6" t="inlineStr"/>
+      <c r="X46" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y46" s="6" t="inlineStr"/>
       <c r="Z46" s="6" t="inlineStr"/>
       <c r="AA46" s="6" t="inlineStr"/>
@@ -22497,13 +22505,10 @@
       <c r="AE46" s="6" t="inlineStr"/>
       <c r="AF46" s="6" t="inlineStr"/>
       <c r="AG46" s="6" t="inlineStr"/>
-      <c r="AH46" s="6" t="inlineStr">
-        <is>
-          <t>制造出一定数量的幻象来迷惑敌人。同时也会驱逐掉剑圣身上所有的魔法效果。|n|n|cffffcc00等级1|r-创造出1个幻象，拥有原来20%的攻击，受到伤害是原来的5倍。|n|cffffcc00等级2|r-创造出2个幻象，拥有原来40%的攻击，受到伤害是原来的4倍。|n|cffffcc00等级3|r-创造出3个幻象，拥有原来60%的攻击，受到伤害是原来的3倍。|n|cffffcc00等级4|r-创造出4个幻象，拥有原来80%的攻击，受到伤害是原来的2倍。|n|cffffcc00等级5|r-创造出5个幻象，拥有原来100%的攻击，受到伤害是原来的1倍。</t>
-        </is>
-      </c>
+      <c r="AH46" s="6" t="inlineStr"/>
       <c r="AI46" s="6" t="inlineStr"/>
-      <c r="AJ46" s="6" t="inlineStr">
+      <c r="AJ46" s="6" t="inlineStr"/>
+      <c r="AK46" s="6" t="inlineStr">
         <is>
           <t>{
 "制造出1个幻象来迷惑敌人，镜像也会拥有原来20%的攻击力但受到的伤害是原来的5倍。会驱逐掉剑圣身上所有的魔法效果。|n持续60秒。",
@@ -22514,10 +22519,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK46" s="6" t="inlineStr"/>
       <c r="AL46" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>制造出一定数量的幻象来迷惑敌人。同时也会驱逐掉剑圣身上所有的魔法效果。|n|n|cffffcc00等级1|r-创造出1个幻象，拥有原来20%的攻击，受到伤害是原来的5倍。|n|cffffcc00等级2|r-创造出2个幻象，拥有原来40%的攻击，受到伤害是原来的4倍。|n|cffffcc00等级3|r-创造出3个幻象，拥有原来60%的攻击，受到伤害是原来的3倍。|n|cffffcc00等级4|r-创造出4个幻象，拥有原来80%的攻击，受到伤害是原来的2倍。|n|cffffcc00等级5|r-创造出5个幻象，拥有原来100%的攻击，受到伤害是原来的1倍。</t>
         </is>
       </c>
       <c r="AM46" s="6" t="inlineStr">
@@ -22526,11 +22530,7 @@
         </is>
       </c>
       <c r="AN46" s="6" t="inlineStr"/>
-      <c r="AO46" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO46" s="6" t="inlineStr"/>
       <c r="AP46" s="6" t="inlineStr"/>
     </row>
     <row r="47">
@@ -22577,15 +22577,15 @@
       <c r="AG47" s="6" t="inlineStr"/>
       <c r="AH47" s="6" t="inlineStr"/>
       <c r="AI47" s="6" t="inlineStr"/>
-      <c r="AJ47" s="6" t="inlineStr"/>
+      <c r="AJ47" s="6" t="inlineStr">
+        <is>
+          <t>(无效不可用的)</t>
+        </is>
+      </c>
       <c r="AK47" s="6" t="inlineStr"/>
       <c r="AL47" s="6" t="inlineStr"/>
       <c r="AM47" s="6" t="inlineStr"/>
-      <c r="AN47" s="6" t="inlineStr">
-        <is>
-          <t>(无效不可用的)</t>
-        </is>
-      </c>
+      <c r="AN47" s="6" t="inlineStr"/>
       <c r="AO47" s="6" t="inlineStr"/>
       <c r="AP47" s="6" t="inlineStr"/>
     </row>
@@ -22633,15 +22633,15 @@
       <c r="AG48" s="6" t="inlineStr"/>
       <c r="AH48" s="6" t="inlineStr"/>
       <c r="AI48" s="6" t="inlineStr"/>
-      <c r="AJ48" s="6" t="inlineStr"/>
+      <c r="AJ48" s="6" t="inlineStr">
+        <is>
+          <t>（无效不可用的)</t>
+        </is>
+      </c>
       <c r="AK48" s="6" t="inlineStr"/>
       <c r="AL48" s="6" t="inlineStr"/>
       <c r="AM48" s="6" t="inlineStr"/>
-      <c r="AN48" s="6" t="inlineStr">
-        <is>
-          <t>（无效不可用的)</t>
-        </is>
-      </c>
+      <c r="AN48" s="6" t="inlineStr"/>
       <c r="AO48" s="6" t="inlineStr"/>
       <c r="AP48" s="6" t="inlineStr"/>
     </row>
@@ -22702,26 +22702,23 @@
       <c r="V49" s="6" t="inlineStr"/>
       <c r="W49" s="6" t="inlineStr"/>
       <c r="X49" s="6" t="inlineStr"/>
-      <c r="Y49" s="6" t="inlineStr"/>
+      <c r="Y49" s="6" t="inlineStr">
+        <is>
+          <t>{3.0,3.0,3.0}</t>
+        </is>
+      </c>
       <c r="Z49" s="6" t="inlineStr"/>
       <c r="AA49" s="6" t="inlineStr"/>
       <c r="AB49" s="6" t="inlineStr"/>
-      <c r="AC49" s="6" t="inlineStr">
-        <is>
-          <t>{3.0,3.0,3.0}</t>
-        </is>
-      </c>
+      <c r="AC49" s="6" t="inlineStr"/>
       <c r="AD49" s="6" t="inlineStr"/>
       <c r="AE49" s="6" t="inlineStr"/>
       <c r="AF49" s="6" t="inlineStr"/>
       <c r="AG49" s="6" t="inlineStr"/>
-      <c r="AH49" s="6" t="inlineStr">
-        <is>
-          <t>使当牛头人酋长被杀时，它就会自动复活。此技能的冷却时间会随着等级的增加而减少。|n|n|cffffcc00等级1|r-&lt;AOre,Cool1&gt;秒的魔法施放间隔时间。|n|cffffcc00等级2|r-&lt;AOre,Cool2&gt;秒的魔法施放间隔时间。|n|cffffcc00等级3|r-&lt;AOre,Cool3&gt;秒的魔法施放间隔时间。</t>
-        </is>
-      </c>
+      <c r="AH49" s="6" t="inlineStr"/>
       <c r="AI49" s="6" t="inlineStr"/>
-      <c r="AJ49" s="6" t="inlineStr">
+      <c r="AJ49" s="6" t="inlineStr"/>
+      <c r="AK49" s="6" t="inlineStr">
         <is>
           <t>{
 "使当牛头人酋长被杀时，它就会自动复活。重生技能有&lt;AOre,Cool1&gt;秒的魔法施放间隔时间。",
@@ -22730,8 +22727,11 @@
 }</t>
         </is>
       </c>
-      <c r="AK49" s="6" t="inlineStr"/>
-      <c r="AL49" s="6" t="inlineStr"/>
+      <c r="AL49" s="6" t="inlineStr">
+        <is>
+          <t>使当牛头人酋长被杀时，它就会自动复活。此技能的冷却时间会随着等级的增加而减少。|n|n|cffffcc00等级1|r-&lt;AOre,Cool1&gt;秒的魔法施放间隔时间。|n|cffffcc00等级2|r-&lt;AOre,Cool2&gt;秒的魔法施放间隔时间。|n|cffffcc00等级3|r-&lt;AOre,Cool3&gt;秒的魔法施放间隔时间。</t>
+        </is>
+      </c>
       <c r="AM49" s="6" t="inlineStr"/>
       <c r="AN49" s="6" t="inlineStr"/>
       <c r="AO49" s="6" t="inlineStr"/>
@@ -22781,15 +22781,15 @@
       <c r="AG50" s="6" t="inlineStr"/>
       <c r="AH50" s="6" t="inlineStr"/>
       <c r="AI50" s="6" t="inlineStr"/>
-      <c r="AJ50" s="6" t="inlineStr"/>
+      <c r="AJ50" s="6" t="inlineStr">
+        <is>
+          <t>(无效不可用的)</t>
+        </is>
+      </c>
       <c r="AK50" s="6" t="inlineStr"/>
       <c r="AL50" s="6" t="inlineStr"/>
       <c r="AM50" s="6" t="inlineStr"/>
-      <c r="AN50" s="6" t="inlineStr">
-        <is>
-          <t>(无效不可用的)</t>
-        </is>
-      </c>
+      <c r="AN50" s="6" t="inlineStr"/>
       <c r="AO50" s="6" t="inlineStr"/>
       <c r="AP50" s="6" t="inlineStr"/>
     </row>
@@ -22838,16 +22838,31 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S51" s="6" t="inlineStr"/>
+      <c r="S51" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T51" s="6" t="inlineStr"/>
       <c r="U51" s="6" t="inlineStr"/>
       <c r="V51" s="6" t="inlineStr"/>
       <c r="W51" s="6" t="inlineStr"/>
-      <c r="X51" s="6" t="inlineStr"/>
+      <c r="X51" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y51" s="6" t="inlineStr"/>
       <c r="Z51" s="6" t="inlineStr"/>
       <c r="AA51" s="6" t="inlineStr"/>
-      <c r="AB51" s="6" t="inlineStr">
+      <c r="AB51" s="6" t="inlineStr"/>
+      <c r="AC51" s="6" t="inlineStr"/>
+      <c r="AD51" s="6" t="inlineStr"/>
+      <c r="AE51" s="6" t="inlineStr"/>
+      <c r="AF51" s="6" t="inlineStr"/>
+      <c r="AG51" s="6" t="inlineStr"/>
+      <c r="AH51" s="6" t="inlineStr"/>
+      <c r="AI51" s="6" t="inlineStr">
         <is>
           <t>{
 "osw1",
@@ -22858,18 +22873,8 @@
 }</t>
         </is>
       </c>
-      <c r="AC51" s="6" t="inlineStr"/>
-      <c r="AD51" s="6" t="inlineStr"/>
-      <c r="AE51" s="6" t="inlineStr"/>
-      <c r="AF51" s="6" t="inlineStr"/>
-      <c r="AG51" s="6" t="inlineStr"/>
-      <c r="AH51" s="6" t="inlineStr">
-        <is>
-          <t>召唤出2头幽狼来为你战斗。|n持续60秒。|n|n|cffffcc00等级1|r-250点生命值，13点的攻击力。|n|cffffcc00等级2|r-375点生命值，19点的攻击力。|n|cffffcc00等级3|r-625点生命值，26点的攻击力，并且拥有致命一击|n|cffffcc00等级4|r-715点生命值，32点的攻击力，并且拥有致命一击和隐形。|n|cffffcc00等级1|r-805点生命值，38点的攻击力，并且拥有致命一击和隐形。</t>
-        </is>
-      </c>
-      <c r="AI51" s="6" t="inlineStr"/>
-      <c r="AJ51" s="6" t="inlineStr">
+      <c r="AJ51" s="6" t="inlineStr"/>
+      <c r="AK51" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出2条幽狼来为你战斗。每头狼具有250点生命值和13点的攻击力。|n持续60秒。|n|n|cffffcc00能攻击地面单位。|r",
@@ -22880,10 +22885,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK51" s="6" t="inlineStr"/>
       <c r="AL51" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>召唤出2头幽狼来为你战斗。|n持续60秒。|n|n|cffffcc00等级1|r-250点生命值，13点的攻击力。|n|cffffcc00等级2|r-375点生命值，19点的攻击力。|n|cffffcc00等级3|r-625点生命值，26点的攻击力，并且拥有致命一击|n|cffffcc00等级4|r-715点生命值，32点的攻击力，并且拥有致命一击和隐形。|n|cffffcc00等级1|r-805点生命值，38点的攻击力，并且拥有致命一击和隐形。</t>
         </is>
       </c>
       <c r="AM51" s="6" t="inlineStr">
@@ -22892,11 +22896,7 @@
         </is>
       </c>
       <c r="AN51" s="6" t="inlineStr"/>
-      <c r="AO51" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO51" s="6" t="inlineStr"/>
       <c r="AP51" s="6" t="inlineStr"/>
     </row>
     <row r="52">
@@ -22952,12 +22952,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S52" s="6" t="inlineStr"/>
+      <c r="S52" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T52" s="6" t="inlineStr"/>
       <c r="U52" s="6" t="inlineStr"/>
       <c r="V52" s="6" t="inlineStr"/>
       <c r="W52" s="6" t="inlineStr"/>
-      <c r="X52" s="6" t="inlineStr"/>
+      <c r="X52" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y52" s="6" t="inlineStr"/>
       <c r="Z52" s="6" t="inlineStr"/>
       <c r="AA52" s="6" t="inlineStr"/>
@@ -22967,13 +22975,10 @@
       <c r="AE52" s="6" t="inlineStr"/>
       <c r="AF52" s="6" t="inlineStr"/>
       <c r="AG52" s="6" t="inlineStr"/>
-      <c r="AH52" s="6" t="inlineStr">
-        <is>
-          <t>能发出一道向前的能量波，对一条线上的敌方地面单位造成一定的伤害。|n|n|cffffcc00等级1|r-&lt;AOsh,DataA1&gt;点的伤害。|n|cffffcc00等级2|r-&lt;AOsh,DataA2&gt;点的伤害。|n|cffffcc00等级3|r-&lt;AOsh,DataA3&gt;点的伤害。|n|cffffcc00等级4|r-&lt;AOsh,DataA4&gt;点的伤害。|n|cffffcc00等级5|r-&lt;AOsh,DataA5&gt;点的伤害。</t>
-        </is>
-      </c>
+      <c r="AH52" s="6" t="inlineStr"/>
       <c r="AI52" s="6" t="inlineStr"/>
-      <c r="AJ52" s="6" t="inlineStr">
+      <c r="AJ52" s="6" t="inlineStr"/>
+      <c r="AK52" s="6" t="inlineStr">
         <is>
           <t>{
 "能发出一道向前的能量波，对一条线上的敌方地面单位造成&lt;AOsh,DataA1&gt;点的伤害。",
@@ -22984,19 +22989,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK52" s="6" t="inlineStr"/>
       <c r="AL52" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>能发出一道向前的能量波，对一条线上的敌方地面单位造成一定的伤害。|n|n|cffffcc00等级1|r-&lt;AOsh,DataA1&gt;点的伤害。|n|cffffcc00等级2|r-&lt;AOsh,DataA2&gt;点的伤害。|n|cffffcc00等级3|r-&lt;AOsh,DataA3&gt;点的伤害。|n|cffffcc00等级4|r-&lt;AOsh,DataA4&gt;点的伤害。|n|cffffcc00等级5|r-&lt;AOsh,DataA5&gt;点的伤害。</t>
         </is>
       </c>
       <c r="AM52" s="6" t="inlineStr"/>
       <c r="AN52" s="6" t="inlineStr"/>
-      <c r="AO52" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO52" s="6" t="inlineStr"/>
       <c r="AP52" s="6" t="inlineStr"/>
     </row>
     <row r="53">
@@ -23048,16 +23048,31 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S53" s="6" t="inlineStr"/>
+      <c r="S53" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T53" s="6" t="inlineStr"/>
       <c r="U53" s="6" t="inlineStr"/>
       <c r="V53" s="6" t="inlineStr"/>
       <c r="W53" s="6" t="inlineStr"/>
-      <c r="X53" s="6" t="inlineStr"/>
+      <c r="X53" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y53" s="6" t="inlineStr"/>
       <c r="Z53" s="6" t="inlineStr"/>
       <c r="AA53" s="6" t="inlineStr"/>
-      <c r="AB53" s="6" t="inlineStr">
+      <c r="AB53" s="6" t="inlineStr"/>
+      <c r="AC53" s="6" t="inlineStr"/>
+      <c r="AD53" s="6" t="inlineStr"/>
+      <c r="AE53" s="6" t="inlineStr"/>
+      <c r="AF53" s="6" t="inlineStr"/>
+      <c r="AG53" s="6" t="inlineStr"/>
+      <c r="AH53" s="6" t="inlineStr"/>
+      <c r="AI53" s="6" t="inlineStr">
         <is>
           <t>{
 "osp1",
@@ -23068,18 +23083,8 @@
 }</t>
         </is>
       </c>
-      <c r="AC53" s="6" t="inlineStr"/>
-      <c r="AD53" s="6" t="inlineStr"/>
-      <c r="AE53" s="6" t="inlineStr"/>
-      <c r="AF53" s="6" t="inlineStr"/>
-      <c r="AG53" s="6" t="inlineStr"/>
-      <c r="AH53" s="6" t="inlineStr">
-        <is>
-          <t>召唤出一个固定不动的毒蛇守卫来为暗影猎手攻击。并对魔法免疫。|n持续&lt;AOsw,Dur1&gt;秒。|n|n|cffffcc00能攻击地面和空中单位。|r|n|n|cffffcc00等级1|r-93点生命值，13点攻击力。|n|cffffcc00等级2|r-168点生命值，28点攻击力。|n|cffffcc00等级3|r-168点生命值，52点攻击力。|n|cffffcc00等级41|r-168点生命值，64点攻击力。|n|cffffcc00等级5|r-168点生命值，71点攻击力。</t>
-        </is>
-      </c>
-      <c r="AI53" s="6" t="inlineStr"/>
-      <c r="AJ53" s="6" t="inlineStr">
+      <c r="AJ53" s="6" t="inlineStr"/>
+      <c r="AK53" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出一个固定不动的毒蛇守卫来为暗影猎手攻击。守卫具有93点生命值并对魔法免疫。攻击力为13点。|n持续40秒。|n|n|cffffcc00能攻击地面和空中单位。|r",
@@ -23090,19 +23095,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK53" s="6" t="inlineStr"/>
       <c r="AL53" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>召唤出一个固定不动的毒蛇守卫来为暗影猎手攻击。并对魔法免疫。|n持续&lt;AOsw,Dur1&gt;秒。|n|n|cffffcc00能攻击地面和空中单位。|r|n|n|cffffcc00等级1|r-93点生命值，13点攻击力。|n|cffffcc00等级2|r-168点生命值，28点攻击力。|n|cffffcc00等级3|r-168点生命值，52点攻击力。|n|cffffcc00等级41|r-168点生命值，64点攻击力。|n|cffffcc00等级5|r-168点生命值，71点攻击力。</t>
         </is>
       </c>
       <c r="AM53" s="6" t="inlineStr"/>
       <c r="AN53" s="6" t="inlineStr"/>
-      <c r="AO53" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO53" s="6" t="inlineStr"/>
       <c r="AP53" s="6" t="inlineStr"/>
     </row>
     <row r="54">
@@ -23148,12 +23148,20 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S54" s="6" t="inlineStr"/>
+      <c r="S54" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T54" s="6" t="inlineStr"/>
       <c r="U54" s="6" t="inlineStr"/>
       <c r="V54" s="6" t="inlineStr"/>
       <c r="W54" s="6" t="inlineStr"/>
-      <c r="X54" s="6" t="inlineStr"/>
+      <c r="X54" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y54" s="6" t="inlineStr"/>
       <c r="Z54" s="6" t="inlineStr"/>
       <c r="AA54" s="6" t="inlineStr"/>
@@ -23163,13 +23171,10 @@
       <c r="AE54" s="6" t="inlineStr"/>
       <c r="AF54" s="6" t="inlineStr"/>
       <c r="AG54" s="6" t="inlineStr"/>
-      <c r="AH54" s="6" t="inlineStr">
-        <is>
-          <t>将在暗影猎手附近一定区域内的所有友军单位都变为无敌。|n|n|cffffcc00等级1|r-持续&lt;AOvd,Dur1&gt;秒。|n|cffffcc00等级2|r-持续&lt;AOvd,Dur2&gt;秒。|n|cffffcc00等级3|r-持续&lt;AOvd,Dur3&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH54" s="6" t="inlineStr"/>
       <c r="AI54" s="6" t="inlineStr"/>
-      <c r="AJ54" s="6" t="inlineStr">
+      <c r="AJ54" s="6" t="inlineStr"/>
+      <c r="AK54" s="6" t="inlineStr">
         <is>
           <t>{
 "将在暗影猎手附近一定区域内的所有友军单位都变为无敌。|n但是暗影猎手自己不会变为无敌。|n持续&lt;AOvd,Dur1&gt;秒。",
@@ -23178,19 +23183,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK54" s="6" t="inlineStr"/>
       <c r="AL54" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>将在暗影猎手附近一定区域内的所有友军单位都变为无敌。|n|n|cffffcc00等级1|r-持续&lt;AOvd,Dur1&gt;秒。|n|cffffcc00等级2|r-持续&lt;AOvd,Dur2&gt;秒。|n|cffffcc00等级3|r-持续&lt;AOvd,Dur3&gt;秒。</t>
         </is>
       </c>
       <c r="AM54" s="6" t="inlineStr"/>
       <c r="AN54" s="6" t="inlineStr"/>
-      <c r="AO54" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="AO54" s="6" t="inlineStr"/>
       <c r="AP54" s="6" t="inlineStr"/>
     </row>
     <row r="55">
@@ -23237,15 +23237,15 @@
       <c r="AG55" s="6" t="inlineStr"/>
       <c r="AH55" s="6" t="inlineStr"/>
       <c r="AI55" s="6" t="inlineStr"/>
-      <c r="AJ55" s="6" t="inlineStr"/>
+      <c r="AJ55" s="6" t="inlineStr">
+        <is>
+          <t>（无效不可用的）</t>
+        </is>
+      </c>
       <c r="AK55" s="6" t="inlineStr"/>
       <c r="AL55" s="6" t="inlineStr"/>
       <c r="AM55" s="6" t="inlineStr"/>
-      <c r="AN55" s="6" t="inlineStr">
-        <is>
-          <t>（无效不可用的）</t>
-        </is>
-      </c>
+      <c r="AN55" s="6" t="inlineStr"/>
       <c r="AO55" s="6" t="inlineStr"/>
       <c r="AP55" s="6" t="inlineStr"/>
     </row>
@@ -23298,22 +23298,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S56" s="6" t="inlineStr"/>
-      <c r="T56" s="6" t="inlineStr">
+      <c r="S56" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="T56" s="6" t="inlineStr"/>
+      <c r="U56" s="6" t="inlineStr"/>
+      <c r="V56" s="6" t="inlineStr">
         <is>
           <t>{20.0,40.0,60.0,80.0,100.0}</t>
         </is>
       </c>
-      <c r="U56" s="6" t="inlineStr"/>
-      <c r="V56" s="6" t="inlineStr"/>
       <c r="W56" s="6" t="inlineStr"/>
-      <c r="X56" s="6" t="inlineStr"/>
+      <c r="X56" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y56" s="6" t="inlineStr"/>
-      <c r="Z56" s="6" t="inlineStr">
-        <is>
-          <t>{20.0,40.0,60.0,80.0,100.0}</t>
-        </is>
-      </c>
+      <c r="Z56" s="6" t="inlineStr"/>
       <c r="AA56" s="6" t="inlineStr"/>
       <c r="AB56" s="6" t="inlineStr"/>
       <c r="AC56" s="6" t="inlineStr"/>
@@ -23321,13 +23325,10 @@
       <c r="AE56" s="6" t="inlineStr"/>
       <c r="AF56" s="6" t="inlineStr"/>
       <c r="AG56" s="6" t="inlineStr"/>
-      <c r="AH56" s="6" t="inlineStr">
-        <is>
-          <t>使得剑圣在一定时间内隐形并加快移动速度，如果此时进行攻击的话，那么就不再隐形但会造成更多的伤害。|n|n|cffffcc00等级1|r-消耗&lt;AOwk,Cost1&gt;点魔法，加快&lt;AOwk,DataB1,%&gt;%的移动速度，增加&lt;AOwk,DataC1&gt;点的伤害，持续&lt;AOwk,Dur1&gt;秒。|n|cffffcc00等级2|r-消耗&lt;AOwk,Cost2&gt;点魔法，加快&lt;AOwk,DataB2,%&gt;%的移动速度，增加&lt;AOwk,DataC2&gt;点的伤害，持续&lt;AOwk,Dur2&gt;秒。|n|cffffcc00等级3|r-消耗&lt;AOwk,Cost3&gt;点魔法，加快&lt;AOwk,DataB3,%&gt;%的移动速度，增加&lt;AOwk,DataC3&gt;点的伤害，持续&lt;AOwk,Dur3&gt;秒。|n|cffffcc00等级4|r-消耗&lt;AOwk,Cost4&gt;点魔法，加快&lt;AOwk,DataB4,%&gt;%的移动速度，增加&lt;AOwk,DataC4&gt;点的伤害，持续&lt;AOwk,Dur4&gt;秒。|n|cffffcc00等级5|r-消耗&lt;AOwk,Cost5&gt;点魔法，加快&lt;AOwk,DataB5,%&gt;%的移动速度，增加&lt;AOwk,DataC5&gt;点的伤害，持续&lt;AOwk,Dur5&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH56" s="6" t="inlineStr"/>
       <c r="AI56" s="6" t="inlineStr"/>
-      <c r="AJ56" s="6" t="inlineStr">
+      <c r="AJ56" s="6" t="inlineStr"/>
+      <c r="AK56" s="6" t="inlineStr">
         <is>
           <t>{
 "使得剑圣在&lt;AOwk,Dur1&gt;秒内隐形并增加&lt;AOwk,DataB1,%&gt;%的移动速度。如果此时剑圣进行攻击的话，那么就不再隐形，但是攻击力会增加&lt;AOwk,DataC1&gt;点。",
@@ -23338,20 +23339,19 @@
 }</t>
         </is>
       </c>
-      <c r="AK56" s="6" t="inlineStr"/>
       <c r="AL56" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>使得剑圣在一定时间内隐形并加快移动速度，如果此时进行攻击的话，那么就不再隐形但会造成更多的伤害。|n|n|cffffcc00等级1|r-消耗&lt;AOwk,Cost1&gt;点魔法，加快&lt;AOwk,DataB1,%&gt;%的移动速度，增加&lt;AOwk,DataC1&gt;点的伤害，持续&lt;AOwk,Dur1&gt;秒。|n|cffffcc00等级2|r-消耗&lt;AOwk,Cost2&gt;点魔法，加快&lt;AOwk,DataB2,%&gt;%的移动速度，增加&lt;AOwk,DataC2&gt;点的伤害，持续&lt;AOwk,Dur2&gt;秒。|n|cffffcc00等级3|r-消耗&lt;AOwk,Cost3&gt;点魔法，加快&lt;AOwk,DataB3,%&gt;%的移动速度，增加&lt;AOwk,DataC3&gt;点的伤害，持续&lt;AOwk,Dur3&gt;秒。|n|cffffcc00等级4|r-消耗&lt;AOwk,Cost4&gt;点魔法，加快&lt;AOwk,DataB4,%&gt;%的移动速度，增加&lt;AOwk,DataC4&gt;点的伤害，持续&lt;AOwk,Dur4&gt;秒。|n|cffffcc00等级5|r-消耗&lt;AOwk,Cost5&gt;点魔法，加快&lt;AOwk,DataB5,%&gt;%的移动速度，增加&lt;AOwk,DataC5&gt;点的伤害，持续&lt;AOwk,Dur5&gt;秒。</t>
         </is>
       </c>
       <c r="AM56" s="6" t="inlineStr"/>
       <c r="AN56" s="6" t="inlineStr"/>
-      <c r="AO56" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP56" s="6" t="inlineStr"/>
+      <c r="AO56" s="6" t="inlineStr"/>
+      <c r="AP56" s="6" t="inlineStr">
+        <is>
+          <t>{20.0,40.0,60.0,80.0,100.0}</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
@@ -23406,22 +23406,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S57" s="6" t="inlineStr"/>
-      <c r="T57" s="6" t="inlineStr">
+      <c r="S57" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T57" s="6" t="inlineStr"/>
+      <c r="U57" s="6" t="inlineStr"/>
+      <c r="V57" s="6" t="inlineStr">
         <is>
           <t>{3.0,4.0,5.0,6.0,7.0}</t>
         </is>
       </c>
-      <c r="U57" s="6" t="inlineStr"/>
-      <c r="V57" s="6" t="inlineStr"/>
       <c r="W57" s="6" t="inlineStr"/>
-      <c r="X57" s="6" t="inlineStr"/>
+      <c r="X57" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y57" s="6" t="inlineStr"/>
-      <c r="Z57" s="6" t="inlineStr">
-        <is>
-          <t>{2.0,3.0,4.0,5.0,6.0}</t>
-        </is>
-      </c>
+      <c r="Z57" s="6" t="inlineStr"/>
       <c r="AA57" s="6" t="inlineStr"/>
       <c r="AB57" s="6" t="inlineStr"/>
       <c r="AC57" s="6" t="inlineStr"/>
@@ -23429,13 +23433,10 @@
       <c r="AE57" s="6" t="inlineStr"/>
       <c r="AF57" s="6" t="inlineStr"/>
       <c r="AG57" s="6" t="inlineStr"/>
-      <c r="AH57" s="6" t="inlineStr">
-        <is>
-          <t>重击地面，对周围的地面单位造成一定的伤害。|n|n|cffffcc00等级1|r-&lt;AOws,DataA1&gt;点伤害，&lt;AOws,Dur1&gt;秒眩晕效果。|n|cffffcc00等级2|r-&lt;AOws,DataA2&gt;点伤害，&lt;AOws,Dur2&gt;秒眩晕效果。|n|cffffcc00等级3|r-&lt;AOws,DataA3&gt;点伤害，&lt;AOws,Dur3&gt;秒眩晕效果。|n|cffffcc00等级4|r-&lt;AOws,DataA4&gt;点伤害，&lt;AOws,Dur4&gt;秒眩晕效果。|n|cffffcc00等级3|r-&lt;AOws,DataA5&gt;点伤害，&lt;AOws,Dur5&gt;秒眩晕效果。</t>
-        </is>
-      </c>
+      <c r="AH57" s="6" t="inlineStr"/>
       <c r="AI57" s="6" t="inlineStr"/>
-      <c r="AJ57" s="6" t="inlineStr">
+      <c r="AJ57" s="6" t="inlineStr"/>
+      <c r="AK57" s="6" t="inlineStr">
         <is>
           <t>{
 "重击地面，对周围的地面单位造成&lt;AOws,DataA1&gt;点的伤害并在&lt;AOws,Dur1&gt;秒内使其处于昏晕状态。",
@@ -23446,20 +23447,19 @@
 }</t>
         </is>
       </c>
-      <c r="AK57" s="6" t="inlineStr"/>
       <c r="AL57" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>重击地面，对周围的地面单位造成一定的伤害。|n|n|cffffcc00等级1|r-&lt;AOws,DataA1&gt;点伤害，&lt;AOws,Dur1&gt;秒眩晕效果。|n|cffffcc00等级2|r-&lt;AOws,DataA2&gt;点伤害，&lt;AOws,Dur2&gt;秒眩晕效果。|n|cffffcc00等级3|r-&lt;AOws,DataA3&gt;点伤害，&lt;AOws,Dur3&gt;秒眩晕效果。|n|cffffcc00等级4|r-&lt;AOws,DataA4&gt;点伤害，&lt;AOws,Dur4&gt;秒眩晕效果。|n|cffffcc00等级3|r-&lt;AOws,DataA5&gt;点伤害，&lt;AOws,Dur5&gt;秒眩晕效果。</t>
         </is>
       </c>
       <c r="AM57" s="6" t="inlineStr"/>
       <c r="AN57" s="6" t="inlineStr"/>
-      <c r="AO57" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP57" s="6" t="inlineStr"/>
+      <c r="AO57" s="6" t="inlineStr"/>
+      <c r="AP57" s="6" t="inlineStr">
+        <is>
+          <t>{2.0,3.0,4.0,5.0,6.0}</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -23516,14 +23516,18 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S58" s="6" t="inlineStr"/>
-      <c r="T58" s="6" t="inlineStr">
+      <c r="S58" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T58" s="6" t="inlineStr"/>
+      <c r="U58" s="6" t="inlineStr"/>
+      <c r="V58" s="6" t="inlineStr">
         <is>
           <t>{7.0,9.0,11.0}</t>
         </is>
       </c>
-      <c r="U58" s="6" t="inlineStr"/>
-      <c r="V58" s="6" t="inlineStr"/>
       <c r="W58" s="6" t="inlineStr"/>
       <c r="X58" s="6" t="inlineStr"/>
       <c r="Y58" s="6" t="inlineStr"/>
@@ -23535,13 +23539,10 @@
       <c r="AE58" s="6" t="inlineStr"/>
       <c r="AF58" s="6" t="inlineStr"/>
       <c r="AG58" s="6" t="inlineStr"/>
-      <c r="AH58" s="6" t="inlineStr">
-        <is>
-          <t>使得剑圣周围能形成一股具有极强攻击力的剑刃风暴。对周围敌方的地面单位造成每秒的伤害。|n|n|cffffcc00等级1|r-每秒&lt;AOww,DataA1&gt;点的伤害。|n持续&lt;AOww,Dur1&gt;秒。|n|cffffcc00等级2|r-每秒&lt;AOww,DataA2&gt;点的伤害。|n持续&lt;AOww,Dur2&gt;秒。|n|cffffcc00等级3|r-每秒&lt;AOww,DataA3&gt;点的伤害。|n持续&lt;AOww,Dur3&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH58" s="6" t="inlineStr"/>
       <c r="AI58" s="6" t="inlineStr"/>
-      <c r="AJ58" s="6" t="inlineStr">
+      <c r="AJ58" s="6" t="inlineStr"/>
+      <c r="AK58" s="6" t="inlineStr">
         <is>
           <t>{
 "使得剑圣周围能形成一股具有极强攻击力的剑刃风暴。对周围敌方的地面单位造成每秒&lt;AOww,DataA1&gt;点的伤害。|n持续&lt;AOww,Dur1&gt;秒。",
@@ -23550,10 +23551,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK58" s="6" t="inlineStr"/>
       <c r="AL58" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>使得剑圣周围能形成一股具有极强攻击力的剑刃风暴。对周围敌方的地面单位造成每秒的伤害。|n|n|cffffcc00等级1|r-每秒&lt;AOww,DataA1&gt;点的伤害。|n持续&lt;AOww,Dur1&gt;秒。|n|cffffcc00等级2|r-每秒&lt;AOww,DataA2&gt;点的伤害。|n持续&lt;AOww,Dur2&gt;秒。|n|cffffcc00等级3|r-每秒&lt;AOww,DataA3&gt;点的伤害。|n持续&lt;AOww,Dur3&gt;秒。</t>
         </is>
       </c>
       <c r="AM58" s="6" t="inlineStr">
@@ -23620,22 +23620,26 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S59" s="6" t="inlineStr"/>
-      <c r="T59" s="6" t="inlineStr">
+      <c r="S59" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T59" s="6" t="inlineStr"/>
+      <c r="U59" s="6" t="inlineStr"/>
+      <c r="V59" s="6" t="inlineStr">
         <is>
           <t>{40.0,50.0,60.0}</t>
         </is>
       </c>
-      <c r="U59" s="6" t="inlineStr"/>
-      <c r="V59" s="6" t="inlineStr"/>
       <c r="W59" s="6" t="inlineStr"/>
-      <c r="X59" s="6" t="inlineStr"/>
+      <c r="X59" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y59" s="6" t="inlineStr"/>
-      <c r="Z59" s="6" t="inlineStr">
-        <is>
-          <t>{40.0,50.0,60.0}</t>
-        </is>
-      </c>
+      <c r="Z59" s="6" t="inlineStr"/>
       <c r="AA59" s="6" t="inlineStr"/>
       <c r="AB59" s="6" t="inlineStr"/>
       <c r="AC59" s="6" t="inlineStr"/>
@@ -23643,13 +23647,10 @@
       <c r="AE59" s="6" t="inlineStr"/>
       <c r="AF59" s="6" t="inlineStr"/>
       <c r="AG59" s="6" t="inlineStr"/>
-      <c r="AH59" s="6" t="inlineStr">
-        <is>
-          <t>召唤周围死去的亡灵来为你战斗。|n|n|cffffcc00等级1|r-复活&lt;AUan,DataA1&gt;个阵亡单位，持续时间为&lt;AUan,Dur1&gt;秒。|n|cffffcc00等级2|r-复活&lt;AUan,DataA2&gt;个阵亡单位，持续时间为&lt;AUan,Dur2&gt;秒。|n|cffffcc00等级3|r-复活&lt;AUan,DataA3&gt;个阵亡单位，持续时间为&lt;AUan,Dur3&gt;秒。</t>
-        </is>
-      </c>
+      <c r="AH59" s="6" t="inlineStr"/>
       <c r="AI59" s="6" t="inlineStr"/>
-      <c r="AJ59" s="6" t="inlineStr">
+      <c r="AJ59" s="6" t="inlineStr"/>
+      <c r="AK59" s="6" t="inlineStr">
         <is>
           <t>{
 "复活&lt;AUan,DataA1&gt;个阵亡单位，持续时间为&lt;AUan,Dur1&gt;秒。",
@@ -23658,10 +23659,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK59" s="6" t="inlineStr"/>
       <c r="AL59" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>召唤周围死去的亡灵来为你战斗。|n|n|cffffcc00等级1|r-复活&lt;AUan,DataA1&gt;个阵亡单位，持续时间为&lt;AUan,Dur1&gt;秒。|n|cffffcc00等级2|r-复活&lt;AUan,DataA2&gt;个阵亡单位，持续时间为&lt;AUan,Dur2&gt;秒。|n|cffffcc00等级3|r-复活&lt;AUan,DataA3&gt;个阵亡单位，持续时间为&lt;AUan,Dur3&gt;秒。</t>
         </is>
       </c>
       <c r="AM59" s="6" t="inlineStr">
@@ -23670,12 +23670,12 @@
         </is>
       </c>
       <c r="AN59" s="6" t="inlineStr"/>
-      <c r="AO59" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AP59" s="6" t="inlineStr"/>
+      <c r="AO59" s="6" t="inlineStr"/>
+      <c r="AP59" s="6" t="inlineStr">
+        <is>
+          <t>{40.0,50.0,60.0}</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
@@ -23734,12 +23734,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S60" s="6" t="inlineStr"/>
+      <c r="S60" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T60" s="6" t="inlineStr"/>
       <c r="U60" s="6" t="inlineStr"/>
       <c r="V60" s="6" t="inlineStr"/>
       <c r="W60" s="6" t="inlineStr"/>
-      <c r="X60" s="6" t="inlineStr"/>
+      <c r="X60" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y60" s="6" t="inlineStr"/>
       <c r="Z60" s="6" t="inlineStr"/>
       <c r="AA60" s="6" t="inlineStr"/>
@@ -23749,13 +23757,10 @@
       <c r="AE60" s="6" t="inlineStr"/>
       <c r="AF60" s="6" t="inlineStr"/>
       <c r="AG60" s="6" t="inlineStr"/>
-      <c r="AH60" s="6" t="inlineStr">
-        <is>
-          <t>增加周围友军单位的移动速度和生命恢复速度。|n|n|cffffcc00等级1|r-增加&lt;AUau,DataA1,%&gt;%的移动速度和小幅度的生命恢复速度。|n|cffffcc00等级2|r-增加&lt;AUau,DataA2,%&gt;%的移动速度和中等幅度的生命恢复速度。|n|cffffcc00等级3|r-增加&lt;AUau,DataA3,%&gt;%的移动速度和大幅度的生命恢复速度。。|n|cffffcc00等级4|r-增加&lt;AUau,DataA4,%&gt;%的移动速度和大幅度的生命恢复速度。。|n|cffffcc00等级5|r-增加&lt;AUau,DataA5,%&gt;%的移动速度和大幅度的生命恢复速度。</t>
-        </is>
-      </c>
+      <c r="AH60" s="6" t="inlineStr"/>
       <c r="AI60" s="6" t="inlineStr"/>
-      <c r="AJ60" s="6" t="inlineStr">
+      <c r="AJ60" s="6" t="inlineStr"/>
+      <c r="AK60" s="6" t="inlineStr">
         <is>
           <t>{
 "增加周围友军单位&lt;AUau,DataA1,%&gt;%的移动速度和生命恢复速度。",
@@ -23766,19 +23771,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK60" s="6" t="inlineStr"/>
       <c r="AL60" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>增加周围友军单位的移动速度和生命恢复速度。|n|n|cffffcc00等级1|r-增加&lt;AUau,DataA1,%&gt;%的移动速度和小幅度的生命恢复速度。|n|cffffcc00等级2|r-增加&lt;AUau,DataA2,%&gt;%的移动速度和中等幅度的生命恢复速度。|n|cffffcc00等级3|r-增加&lt;AUau,DataA3,%&gt;%的移动速度和大幅度的生命恢复速度。。|n|cffffcc00等级4|r-增加&lt;AUau,DataA4,%&gt;%的移动速度和大幅度的生命恢复速度。。|n|cffffcc00等级5|r-增加&lt;AUau,DataA5,%&gt;%的移动速度和大幅度的生命恢复速度。</t>
         </is>
       </c>
       <c r="AM60" s="6" t="inlineStr"/>
       <c r="AN60" s="6" t="inlineStr"/>
-      <c r="AO60" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO60" s="6" t="inlineStr"/>
       <c r="AP60" s="6" t="inlineStr"/>
     </row>
     <row r="61">
@@ -23834,12 +23834,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S61" s="6" t="inlineStr"/>
+      <c r="S61" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T61" s="6" t="inlineStr"/>
       <c r="U61" s="6" t="inlineStr"/>
       <c r="V61" s="6" t="inlineStr"/>
       <c r="W61" s="6" t="inlineStr"/>
-      <c r="X61" s="6" t="inlineStr"/>
+      <c r="X61" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y61" s="6" t="inlineStr"/>
       <c r="Z61" s="6" t="inlineStr"/>
       <c r="AA61" s="6" t="inlineStr"/>
@@ -23849,13 +23857,10 @@
       <c r="AE61" s="6" t="inlineStr"/>
       <c r="AF61" s="6" t="inlineStr"/>
       <c r="AG61" s="6" t="inlineStr"/>
-      <c r="AH61" s="6" t="inlineStr">
-        <is>
-          <t>使附近的单位在近战攻击时可以将对敌人的伤害值转成自己的生命值|n|n|cffffcc00等级1|r-将&lt;AUav,DataA1,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级2|r-将&lt;AUav,DataA2,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级3|r-将&lt;AUav,DataA1,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级4|r-将&lt;AUav,DataA4,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级5|r-将&lt;AUav,DataA5,%&gt;%对敌人的伤害值转成自己的生命值。</t>
-        </is>
-      </c>
+      <c r="AH61" s="6" t="inlineStr"/>
       <c r="AI61" s="6" t="inlineStr"/>
-      <c r="AJ61" s="6" t="inlineStr">
+      <c r="AJ61" s="6" t="inlineStr"/>
+      <c r="AK61" s="6" t="inlineStr">
         <is>
           <t>{
 "附近的单位可以将&lt;AUav,DataA1,%&gt;%对敌人的伤害值转成自己的生命值。",
@@ -23866,19 +23871,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK61" s="6" t="inlineStr"/>
       <c r="AL61" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>使附近的单位在近战攻击时可以将对敌人的伤害值转成自己的生命值|n|n|cffffcc00等级1|r-将&lt;AUav,DataA1,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级2|r-将&lt;AUav,DataA2,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级3|r-将&lt;AUav,DataA1,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级4|r-将&lt;AUav,DataA4,%&gt;%对敌人的伤害值转成自己的生命值。|n|cffffcc00等级5|r-将&lt;AUav,DataA5,%&gt;%对敌人的伤害值转成自己的生命值。</t>
         </is>
       </c>
       <c r="AM61" s="6" t="inlineStr"/>
       <c r="AN61" s="6" t="inlineStr"/>
-      <c r="AO61" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO61" s="6" t="inlineStr"/>
       <c r="AP61" s="6" t="inlineStr"/>
     </row>
     <row r="62">
@@ -23944,12 +23944,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S62" s="6" t="inlineStr"/>
+      <c r="S62" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T62" s="6" t="inlineStr"/>
       <c r="U62" s="6" t="inlineStr"/>
       <c r="V62" s="6" t="inlineStr"/>
       <c r="W62" s="6" t="inlineStr"/>
-      <c r="X62" s="6" t="inlineStr"/>
+      <c r="X62" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y62" s="6" t="inlineStr"/>
       <c r="Z62" s="6" t="inlineStr"/>
       <c r="AA62" s="6" t="inlineStr"/>
@@ -23959,13 +23967,10 @@
       <c r="AE62" s="6" t="inlineStr"/>
       <c r="AF62" s="6" t="inlineStr"/>
       <c r="AG62" s="6" t="inlineStr"/>
-      <c r="AH62" s="6" t="inlineStr">
-        <is>
-          <t>从目标尸体中召唤出1条甲虫来。|n|n|cffffcc00等级1|r-最多能控制3条甲虫。|n|cffffcc00等级2|r-最多能控制4条甲虫。|n|cffffcc00等级3|r-最多能控制5条甲虫。|n|cffffcc00等级4|r-最多能控制6条甲虫。|n|cffffcc00等级5|r-最多能控制7条甲虫。</t>
-        </is>
-      </c>
+      <c r="AH62" s="6" t="inlineStr"/>
       <c r="AI62" s="6" t="inlineStr"/>
-      <c r="AJ62" s="6" t="inlineStr">
+      <c r="AJ62" s="6" t="inlineStr"/>
+      <c r="AK62" s="6" t="inlineStr">
         <is>
           <t>{
 "从目标尸体中召唤出1条甲虫来。可以控制3条甲虫。",
@@ -23976,10 +23981,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK62" s="6" t="inlineStr"/>
       <c r="AL62" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>从目标尸体中召唤出1条甲虫来。|n|n|cffffcc00等级1|r-最多能控制3条甲虫。|n|cffffcc00等级2|r-最多能控制4条甲虫。|n|cffffcc00等级3|r-最多能控制5条甲虫。|n|cffffcc00等级4|r-最多能控制6条甲虫。|n|cffffcc00等级5|r-最多能控制7条甲虫。</t>
         </is>
       </c>
       <c r="AM62" s="6" t="inlineStr">
@@ -23988,11 +23992,7 @@
         </is>
       </c>
       <c r="AN62" s="6" t="inlineStr"/>
-      <c r="AO62" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO62" s="6" t="inlineStr"/>
       <c r="AP62" s="6" t="inlineStr"/>
     </row>
     <row r="63">
@@ -24048,12 +24048,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S63" s="6" t="inlineStr"/>
+      <c r="S63" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T63" s="6" t="inlineStr"/>
       <c r="U63" s="6" t="inlineStr"/>
       <c r="V63" s="6" t="inlineStr"/>
       <c r="W63" s="6" t="inlineStr"/>
-      <c r="X63" s="6" t="inlineStr"/>
+      <c r="X63" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y63" s="6" t="inlineStr"/>
       <c r="Z63" s="6" t="inlineStr"/>
       <c r="AA63" s="6" t="inlineStr"/>
@@ -24063,13 +24071,10 @@
       <c r="AE63" s="6" t="inlineStr"/>
       <c r="AF63" s="6" t="inlineStr"/>
       <c r="AG63" s="6" t="inlineStr"/>
-      <c r="AH63" s="6" t="inlineStr">
-        <is>
-          <t>放出一群蝙蝠和昆虫对一线上的敌人造成一定的伤害。|n|n|cffffcc00等级1|r-对每个单位造成&lt;AUcs,DataA1&gt;点的伤害。|n|cffffcc00等级2|r-对每个单位造成&lt;AUcs,DataA2&gt;点的伤害。|n|cffffcc00等级3|r-对每个单位造成&lt;AUcs,DataA4&gt;点的伤害。|n|cffffcc00等级4|r-对每个单位造成&lt;AUcs,DataA4&gt;点的伤害。|n|cffffcc00等级5|r-对每个单位造成&lt;AUcs,DataA5&gt;点的伤害。</t>
-        </is>
-      </c>
+      <c r="AH63" s="6" t="inlineStr"/>
       <c r="AI63" s="6" t="inlineStr"/>
-      <c r="AJ63" s="6" t="inlineStr">
+      <c r="AJ63" s="6" t="inlineStr"/>
+      <c r="AK63" s="6" t="inlineStr">
         <is>
           <t>{
 "放出一群蝙蝠和昆虫对一线上的敌人造成&lt;AUcs,DataA1&gt;点的伤害。",
@@ -24080,19 +24085,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK63" s="6" t="inlineStr"/>
       <c r="AL63" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>放出一群蝙蝠和昆虫对一线上的敌人造成一定的伤害。|n|n|cffffcc00等级1|r-对每个单位造成&lt;AUcs,DataA1&gt;点的伤害。|n|cffffcc00等级2|r-对每个单位造成&lt;AUcs,DataA2&gt;点的伤害。|n|cffffcc00等级3|r-对每个单位造成&lt;AUcs,DataA4&gt;点的伤害。|n|cffffcc00等级4|r-对每个单位造成&lt;AUcs,DataA4&gt;点的伤害。|n|cffffcc00等级5|r-对每个单位造成&lt;AUcs,DataA5&gt;点的伤害。</t>
         </is>
       </c>
       <c r="AM63" s="6" t="inlineStr"/>
       <c r="AN63" s="6" t="inlineStr"/>
-      <c r="AO63" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO63" s="6" t="inlineStr"/>
       <c r="AP63" s="6" t="inlineStr"/>
     </row>
     <row r="64">
@@ -24144,12 +24144,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S64" s="6" t="inlineStr"/>
+      <c r="S64" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T64" s="6" t="inlineStr"/>
       <c r="U64" s="6" t="inlineStr"/>
       <c r="V64" s="6" t="inlineStr"/>
       <c r="W64" s="6" t="inlineStr"/>
-      <c r="X64" s="6" t="inlineStr"/>
+      <c r="X64" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y64" s="6" t="inlineStr"/>
       <c r="Z64" s="6" t="inlineStr"/>
       <c r="AA64" s="6" t="inlineStr"/>
@@ -24159,13 +24167,10 @@
       <c r="AE64" s="6" t="inlineStr"/>
       <c r="AF64" s="6" t="inlineStr"/>
       <c r="AG64" s="6" t="inlineStr"/>
-      <c r="AH64" s="6" t="inlineStr">
-        <is>
-          <t>能治疗友军的某个不死单位或者伤害敌人的某个单位。|n|n|cffffcc00等级1|r-恢复&lt;AUdc,DataA1&gt;点生命值。|n|cffffcc00等级2|r-恢复&lt;AUdc,DataA2&gt;点生命值。|n|cffffcc00等级3|r-恢复&lt;AUdc,DataA3&gt;点生命值。|n|cffffcc00等级4|r-恢复&lt;AUdc,DataA4&gt;点生命值。|n|cffffcc00等级5|r-恢复&lt;AUdc,DataA5&gt;点生命值。</t>
-        </is>
-      </c>
+      <c r="AH64" s="6" t="inlineStr"/>
       <c r="AI64" s="6" t="inlineStr"/>
-      <c r="AJ64" s="6" t="inlineStr">
+      <c r="AJ64" s="6" t="inlineStr"/>
+      <c r="AK64" s="6" t="inlineStr">
         <is>
           <t>{
 "能恢复友军某个不死单位&lt;AUdc,DataA1&gt;点的生命值或者对敌人的某个单位造成一半数值的伤害。",
@@ -24176,10 +24181,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK64" s="6" t="inlineStr"/>
       <c r="AL64" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>能治疗友军的某个不死单位或者伤害敌人的某个单位。|n|n|cffffcc00等级1|r-恢复&lt;AUdc,DataA1&gt;点生命值。|n|cffffcc00等级2|r-恢复&lt;AUdc,DataA2&gt;点生命值。|n|cffffcc00等级3|r-恢复&lt;AUdc,DataA3&gt;点生命值。|n|cffffcc00等级4|r-恢复&lt;AUdc,DataA4&gt;点生命值。|n|cffffcc00等级5|r-恢复&lt;AUdc,DataA5&gt;点生命值。</t>
         </is>
       </c>
       <c r="AM64" s="6" t="inlineStr">
@@ -24188,11 +24192,7 @@
         </is>
       </c>
       <c r="AN64" s="6" t="inlineStr"/>
-      <c r="AO64" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO64" s="6" t="inlineStr"/>
       <c r="AP64" s="6" t="inlineStr"/>
     </row>
     <row r="65">
@@ -24250,22 +24250,26 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S65" s="6" t="inlineStr"/>
-      <c r="T65" s="6" t="inlineStr">
+      <c r="S65" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T65" s="6" t="inlineStr"/>
+      <c r="U65" s="6" t="inlineStr"/>
+      <c r="V65" s="6" t="inlineStr">
         <is>
           <t>{10.0,10.0,10.0}</t>
         </is>
       </c>
-      <c r="U65" s="6" t="inlineStr"/>
-      <c r="V65" s="6" t="inlineStr"/>
       <c r="W65" s="6" t="inlineStr"/>
-      <c r="X65" s="6" t="inlineStr"/>
+      <c r="X65" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y65" s="6" t="inlineStr"/>
-      <c r="Z65" s="6" t="inlineStr">
-        <is>
-          <t>{10.0,10.0,10.0}</t>
-        </is>
-      </c>
+      <c r="Z65" s="6" t="inlineStr"/>
       <c r="AA65" s="6" t="inlineStr"/>
       <c r="AB65" s="6" t="inlineStr"/>
       <c r="AC65" s="6" t="inlineStr"/>
@@ -24273,13 +24277,10 @@
       <c r="AE65" s="6" t="inlineStr"/>
       <c r="AF65" s="6" t="inlineStr"/>
       <c r="AG65" s="6" t="inlineStr"/>
-      <c r="AH65" s="6" t="inlineStr">
-        <is>
-          <t>能以每秒百分比的速度来消耗有效范围内一敌人切单位和敌人建筑物的生命值。也能摧毁树木。持续10秒。(在第二次魔兽战争中，被称为死亡终结之域)|n|n|cffffcc00等级1|r-每秒伤害4%。|n|cffffcc00等级2|r-每秒伤害8%。|n|cffffcc00等级3|r-每秒伤害12%。</t>
-        </is>
-      </c>
+      <c r="AH65" s="6" t="inlineStr"/>
       <c r="AI65" s="6" t="inlineStr"/>
-      <c r="AJ65" s="6" t="inlineStr">
+      <c r="AJ65" s="6" t="inlineStr"/>
+      <c r="AK65" s="6" t="inlineStr">
         <is>
           <t>{
 "能以每秒&lt;AUdd,DataA1,%&gt;%的速度来消耗有效范围内敌人单位和敌人建筑物的生命值。也能摧毁树木。|n持续&lt;AUdd,Dur1&gt;秒。",
@@ -24288,10 +24289,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK65" s="6" t="inlineStr"/>
       <c r="AL65" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>能以每秒百分比的速度来消耗有效范围内一敌人切单位和敌人建筑物的生命值。也能摧毁树木。持续10秒。(在第二次魔兽战争中，被称为死亡终结之域)|n|n|cffffcc00等级1|r-每秒伤害4%。|n|cffffcc00等级2|r-每秒伤害8%。|n|cffffcc00等级3|r-每秒伤害12%。</t>
         </is>
       </c>
       <c r="AM65" s="6" t="inlineStr">
@@ -24300,12 +24300,12 @@
         </is>
       </c>
       <c r="AN65" s="6" t="inlineStr"/>
-      <c r="AO65" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AP65" s="6" t="inlineStr"/>
+      <c r="AO65" s="6" t="inlineStr"/>
+      <c r="AP65" s="6" t="inlineStr">
+        <is>
+          <t>{10.0,10.0,10.0}</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
@@ -24360,12 +24360,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S66" s="6" t="inlineStr"/>
+      <c r="S66" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T66" s="6" t="inlineStr"/>
       <c r="U66" s="6" t="inlineStr"/>
       <c r="V66" s="6" t="inlineStr"/>
       <c r="W66" s="6" t="inlineStr"/>
-      <c r="X66" s="6" t="inlineStr"/>
+      <c r="X66" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y66" s="6" t="inlineStr"/>
       <c r="Z66" s="6" t="inlineStr"/>
       <c r="AA66" s="6" t="inlineStr"/>
@@ -24375,13 +24383,10 @@
       <c r="AE66" s="6" t="inlineStr"/>
       <c r="AF66" s="6" t="inlineStr"/>
       <c r="AG66" s="6" t="inlineStr"/>
-      <c r="AH66" s="6" t="inlineStr">
-        <is>
-          <t>杀死一个友军单位，将其一定百分比的生命值转成死亡骑士的生命值。|n|n|cffffcc00等级1|r-转化&lt;AUdp,DataB1,%&gt;%。|n|cffffcc00等级2|r-转化&lt;AUdp,DataB2,%&gt;%。|n|cffffcc00等级3|r-转化&lt;AUdp,DataB3,%&gt;%。|n|cffffcc00等级4|r-转化&lt;AUdp,DataB4,%&gt;%。|n|cffffcc00等级5|r-转化&lt;AUdp,DataB5,%&gt;%。</t>
-        </is>
-      </c>
+      <c r="AH66" s="6" t="inlineStr"/>
       <c r="AI66" s="6" t="inlineStr"/>
-      <c r="AJ66" s="6" t="inlineStr">
+      <c r="AJ66" s="6" t="inlineStr"/>
+      <c r="AK66" s="6" t="inlineStr">
         <is>
           <t>{
 "杀死一个友军单位，将其&lt;AUdp,DataB1,%&gt;%的生命值转化成死亡骑士的生命值。",
@@ -24392,10 +24397,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK66" s="6" t="inlineStr"/>
       <c r="AL66" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>杀死一个友军单位，将其一定百分比的生命值转成死亡骑士的生命值。|n|n|cffffcc00等级1|r-转化&lt;AUdp,DataB1,%&gt;%。|n|cffffcc00等级2|r-转化&lt;AUdp,DataB2,%&gt;%。|n|cffffcc00等级3|r-转化&lt;AUdp,DataB3,%&gt;%。|n|cffffcc00等级4|r-转化&lt;AUdp,DataB4,%&gt;%。|n|cffffcc00等级5|r-转化&lt;AUdp,DataB5,%&gt;%。</t>
         </is>
       </c>
       <c r="AM66" s="6" t="inlineStr">
@@ -24404,11 +24408,7 @@
         </is>
       </c>
       <c r="AN66" s="6" t="inlineStr"/>
-      <c r="AO66" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO66" s="6" t="inlineStr"/>
       <c r="AP66" s="6" t="inlineStr"/>
     </row>
     <row r="67">
@@ -24460,12 +24460,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S67" s="6" t="inlineStr"/>
+      <c r="S67" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="T67" s="6" t="inlineStr"/>
       <c r="U67" s="6" t="inlineStr"/>
       <c r="V67" s="6" t="inlineStr"/>
       <c r="W67" s="6" t="inlineStr"/>
-      <c r="X67" s="6" t="inlineStr"/>
+      <c r="X67" s="6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="Y67" s="6" t="inlineStr"/>
       <c r="Z67" s="6" t="inlineStr"/>
       <c r="AA67" s="6" t="inlineStr"/>
@@ -24475,13 +24483,10 @@
       <c r="AE67" s="6" t="inlineStr"/>
       <c r="AF67" s="6" t="inlineStr"/>
       <c r="AG67" s="6" t="inlineStr"/>
-      <c r="AH67" s="6" t="inlineStr">
-        <is>
-          <t>牺牲一个友军单位来将其一定百分比的生命值转化成巫妖的魔法值。|n|n|cffffcc00等级1|r-转化&lt;AUdr,DataA1,%&gt;%的生命值。|n|cffffcc00等级2|r-转化&lt;AUdr,DataA2,%&gt;%的生命值。|n|cffffcc00等级3|r-转化&lt;AUdr,DataA3,%&gt;%的生命值。|n|cffffcc00等级4|r-转化&lt;AUdr,DataA4,%&gt;%的生命值。|n|cffffcc00等级5|r-转化&lt;AUdr,DataA5,%&gt;%的生命值。</t>
-        </is>
-      </c>
+      <c r="AH67" s="6" t="inlineStr"/>
       <c r="AI67" s="6" t="inlineStr"/>
-      <c r="AJ67" s="6" t="inlineStr">
+      <c r="AJ67" s="6" t="inlineStr"/>
+      <c r="AK67" s="6" t="inlineStr">
         <is>
           <t>{
 "牺牲一个友军单位来将其&lt;AUdr,DataA1,%&gt;%的生命值转化成巫妖的魔法值。",
@@ -24492,10 +24497,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK67" s="6" t="inlineStr"/>
       <c r="AL67" s="6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>牺牲一个友军单位来将其一定百分比的生命值转化成巫妖的魔法值。|n|n|cffffcc00等级1|r-转化&lt;AUdr,DataA1,%&gt;%的生命值。|n|cffffcc00等级2|r-转化&lt;AUdr,DataA2,%&gt;%的生命值。|n|cffffcc00等级3|r-转化&lt;AUdr,DataA3,%&gt;%的生命值。|n|cffffcc00等级4|r-转化&lt;AUdr,DataA4,%&gt;%的生命值。|n|cffffcc00等级5|r-转化&lt;AUdr,DataA5,%&gt;%的生命值。</t>
         </is>
       </c>
       <c r="AM67" s="6" t="inlineStr">
@@ -24504,11 +24508,7 @@
         </is>
       </c>
       <c r="AN67" s="6" t="inlineStr"/>
-      <c r="AO67" s="6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="AO67" s="6" t="inlineStr"/>
       <c r="AP67" s="6" t="inlineStr"/>
     </row>
     <row r="68">
@@ -24560,12 +24560,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S68" s="6" t="inlineStr"/>
+      <c r="S68" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="T68" s="6" t="inlineStr"/>
       <c r="U68" s="6" t="inlineStr"/>
       <c r="V68" s="6" t="inlineStr"/>
       <c r="W68" s="6" t="inlineStr"/>
-      <c r="X68" s="6" t="inlineStr"/>
+      <c r="X68" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y68" s="6" t="inlineStr"/>
       <c r="Z68" s="6" t="inlineStr"/>
       <c r="AA68" s="6" t="inlineStr"/>
@@ -24575,13 +24583,10 @@
       <c r="AE68" s="6" t="inlineStr"/>
       <c r="AF68" s="6" t="inlineStr"/>
       <c r="AG68" s="6" t="inlineStr"/>
-      <c r="AH68" s="6" t="inlineStr">
-        <is>
-          <t>使目标身上具有一层持续45秒的霜冻保护。这保护层能增加一定的护甲并使近战攻击该目标的敌人在一定时间内减速。|n|n|cffffcc00等级1|r-增加&lt;AUfa,DataB1&gt;点护甲。|n|cffffcc00等级2|r-增加&lt;AUfa,DataB2&gt;点护甲。|n|cffffcc00等级3|r-增加&lt;AUfa,DataB3&gt;点护甲。|n|cffffcc00等级4|r-增加&lt;AUfa,DataB4&gt;点护甲。|n|cffffcc00等级5|r-增加&lt;AUfa,DataB5&gt;点护甲。</t>
-        </is>
-      </c>
+      <c r="AH68" s="6" t="inlineStr"/>
       <c r="AI68" s="6" t="inlineStr"/>
-      <c r="AJ68" s="6" t="inlineStr">
+      <c r="AJ68" s="6" t="inlineStr"/>
+      <c r="AK68" s="6" t="inlineStr">
         <is>
           <t>{
 "使目标身上具有一层霜冻保护。这保护层能增加&lt;AUfa,DataB1&gt;点的护甲并使近战攻击该目标的敌人在&lt;AUfa,Dur1&gt;秒内减速。|n持续&lt;AUfa,DataA1&gt;秒。",
@@ -24592,10 +24597,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK68" s="6" t="inlineStr"/>
       <c r="AL68" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>使目标身上具有一层持续45秒的霜冻保护。这保护层能增加一定的护甲并使近战攻击该目标的敌人在一定时间内减速。|n|n|cffffcc00等级1|r-增加&lt;AUfa,DataB1&gt;点护甲。|n|cffffcc00等级2|r-增加&lt;AUfa,DataB2&gt;点护甲。|n|cffffcc00等级3|r-增加&lt;AUfa,DataB3&gt;点护甲。|n|cffffcc00等级4|r-增加&lt;AUfa,DataB4&gt;点护甲。|n|cffffcc00等级5|r-增加&lt;AUfa,DataB5&gt;点护甲。</t>
         </is>
       </c>
       <c r="AM68" s="6" t="inlineStr">
@@ -24604,11 +24608,7 @@
         </is>
       </c>
       <c r="AN68" s="6" t="inlineStr"/>
-      <c r="AO68" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO68" s="6" t="inlineStr"/>
       <c r="AP68" s="6" t="inlineStr"/>
     </row>
     <row r="69">
@@ -24660,22 +24660,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S69" s="6" t="inlineStr"/>
-      <c r="T69" s="6" t="inlineStr">
+      <c r="S69" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="T69" s="6" t="inlineStr"/>
+      <c r="U69" s="6" t="inlineStr"/>
+      <c r="V69" s="6" t="inlineStr">
         <is>
           <t>{4.0,6.0,8.0,10.0,12.0}</t>
         </is>
       </c>
-      <c r="U69" s="6" t="inlineStr"/>
-      <c r="V69" s="6" t="inlineStr"/>
       <c r="W69" s="6" t="inlineStr"/>
-      <c r="X69" s="6" t="inlineStr"/>
+      <c r="X69" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y69" s="6" t="inlineStr"/>
-      <c r="Z69" s="6" t="inlineStr">
-        <is>
-          <t>{2.0,3.0,4.0,5.0,6.0}</t>
-        </is>
-      </c>
+      <c r="Z69" s="6" t="inlineStr"/>
       <c r="AA69" s="6" t="inlineStr"/>
       <c r="AB69" s="6" t="inlineStr"/>
       <c r="AC69" s="6" t="inlineStr"/>
@@ -24683,13 +24687,10 @@
       <c r="AE69" s="6" t="inlineStr"/>
       <c r="AF69" s="6" t="inlineStr"/>
       <c r="AG69" s="6" t="inlineStr"/>
-      <c r="AH69" s="6" t="inlineStr">
-        <is>
-          <t>能对敌人进行一轮冰冻攻击，对其造成一定伤害并使其减速。|n|n|cffffcc00等级1|r-&lt;AUfn,DataB1&gt;点常规伤害，&lt;AUfn,DataA1&gt;点新星伤害。&lt;AUfn,Dur1&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级2|r-&lt;AUfn,DataB2&gt;点常规伤害，&lt;AUfn,DataA2&gt;点新星伤害。&lt;AUfn,Dur2&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级3|r-&lt;AUfn,DataB3&gt;点常规伤害，&lt;AUfn,DataA3&gt;点新星伤害。&lt;AUfn,Dur3&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级4|r-&lt;AUfn,DataB4&gt;点常规伤害，&lt;AUfn,DataA4&gt;点新星伤害。&lt;AUfn,Dur4&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级5|r-&lt;AUfn,DataB5&gt;点常规伤害，&lt;AUfn,DataA5&gt;点新星伤害。&lt;AUfn,Dur5&gt;秒内减慢敌人的移动和进攻速度。</t>
-        </is>
-      </c>
+      <c r="AH69" s="6" t="inlineStr"/>
       <c r="AI69" s="6" t="inlineStr"/>
-      <c r="AJ69" s="6" t="inlineStr">
+      <c r="AJ69" s="6" t="inlineStr"/>
+      <c r="AK69" s="6" t="inlineStr">
         <is>
           <t>{
 "对敌人造成&lt;AUfn,DataB1&gt;点的常规伤害和&lt;AUfn,DataA1&gt;的新星伤害。所具有的冰冻效果能在&lt;AUfn,Dur1&gt;秒内减慢敌人的移动和进攻速度。",
@@ -24700,20 +24701,19 @@
 }</t>
         </is>
       </c>
-      <c r="AK69" s="6" t="inlineStr"/>
       <c r="AL69" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>能对敌人进行一轮冰冻攻击，对其造成一定伤害并使其减速。|n|n|cffffcc00等级1|r-&lt;AUfn,DataB1&gt;点常规伤害，&lt;AUfn,DataA1&gt;点新星伤害。&lt;AUfn,Dur1&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级2|r-&lt;AUfn,DataB2&gt;点常规伤害，&lt;AUfn,DataA2&gt;点新星伤害。&lt;AUfn,Dur2&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级3|r-&lt;AUfn,DataB3&gt;点常规伤害，&lt;AUfn,DataA3&gt;点新星伤害。&lt;AUfn,Dur3&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级4|r-&lt;AUfn,DataB4&gt;点常规伤害，&lt;AUfn,DataA4&gt;点新星伤害。&lt;AUfn,Dur4&gt;秒内减慢敌人的移动和进攻速度。|n|cffffcc00等级5|r-&lt;AUfn,DataB5&gt;点常规伤害，&lt;AUfn,DataA5&gt;点新星伤害。&lt;AUfn,Dur5&gt;秒内减慢敌人的移动和进攻速度。</t>
         </is>
       </c>
       <c r="AM69" s="6" t="inlineStr"/>
       <c r="AN69" s="6" t="inlineStr"/>
-      <c r="AO69" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP69" s="6" t="inlineStr"/>
+      <c r="AO69" s="6" t="inlineStr"/>
+      <c r="AP69" s="6" t="inlineStr">
+        <is>
+          <t>{2.0,3.0,4.0,5.0,6.0}</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
@@ -24766,20 +24766,18 @@
       </c>
       <c r="S70" s="6" t="inlineStr">
         <is>
-          <t>{
-"|cffc3dbff点击右键以启动自动施放功能。",
-"|cffc3dbff点击右键以启动自动施放功能。",
-"|cffc3dbff点击右键以启动自动施放功能。",
-"|cffc4dbff点击右键以启动自动施放功能。",
-"|cffc5dbff点击右键以启动自动施放功能。",
-}</t>
+          <t>W</t>
         </is>
       </c>
       <c r="T70" s="6" t="inlineStr"/>
       <c r="U70" s="6" t="inlineStr"/>
       <c r="V70" s="6" t="inlineStr"/>
       <c r="W70" s="6" t="inlineStr"/>
-      <c r="X70" s="6" t="inlineStr"/>
+      <c r="X70" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y70" s="6" t="inlineStr"/>
       <c r="Z70" s="6" t="inlineStr"/>
       <c r="AA70" s="6" t="inlineStr"/>
@@ -24791,11 +24789,18 @@
       <c r="AG70" s="6" t="inlineStr"/>
       <c r="AH70" s="6" t="inlineStr">
         <is>
-          <t>使目标身上具有一层持续45秒的霜冻保护。这保护层能增加一定的护甲并使近战攻击该目标的敌人在一定时间内减速。|n|n|cffffcc00等级1|r-增加&lt;AUfa,DataB1&gt;点护甲。|n|cffffcc00等级2|r-增加&lt;AUfa,DataB2&gt;点护甲。|n|cffffcc00等级3|r-增加&lt;AUfa,DataB3&gt;点护甲。|n|cffffcc00等级4|r-增加&lt;AUfa,DataB4&gt;点护甲。|n|cffffcc00等级5|r-增加&lt;AUfa,DataB5&gt;点护甲。</t>
+          <t>{
+"|cffc3dbff点击右键以启动自动施放功能。",
+"|cffc3dbff点击右键以启动自动施放功能。",
+"|cffc3dbff点击右键以启动自动施放功能。",
+"|cffc4dbff点击右键以启动自动施放功能。",
+"|cffc5dbff点击右键以启动自动施放功能。",
+}</t>
         </is>
       </c>
       <c r="AI70" s="6" t="inlineStr"/>
-      <c r="AJ70" s="6" t="inlineStr">
+      <c r="AJ70" s="6" t="inlineStr"/>
+      <c r="AK70" s="6" t="inlineStr">
         <is>
           <t>{
 "使目标身上具有一层霜冻保护。这保护层能增加&lt;AUfa,DataB1&gt;点的护甲并使近战攻击该目标的敌人在&lt;AUfa,Dur1&gt;秒内减速。|n持续&lt;AUfa,DataA1&gt;秒。",
@@ -24806,10 +24811,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK70" s="6" t="inlineStr"/>
       <c r="AL70" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>使目标身上具有一层持续45秒的霜冻保护。这保护层能增加一定的护甲并使近战攻击该目标的敌人在一定时间内减速。|n|n|cffffcc00等级1|r-增加&lt;AUfa,DataB1&gt;点护甲。|n|cffffcc00等级2|r-增加&lt;AUfa,DataB2&gt;点护甲。|n|cffffcc00等级3|r-增加&lt;AUfa,DataB3&gt;点护甲。|n|cffffcc00等级4|r-增加&lt;AUfa,DataB4&gt;点护甲。|n|cffffcc00等级5|r-增加&lt;AUfa,DataB5&gt;点护甲。</t>
         </is>
       </c>
       <c r="AM70" s="6" t="inlineStr">
@@ -24818,11 +24822,7 @@
         </is>
       </c>
       <c r="AN70" s="6" t="inlineStr"/>
-      <c r="AO70" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO70" s="6" t="inlineStr"/>
       <c r="AP70" s="6" t="inlineStr"/>
     </row>
     <row r="71">
@@ -24878,22 +24878,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S71" s="6" t="inlineStr"/>
-      <c r="T71" s="6" t="inlineStr">
+      <c r="S71" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="T71" s="6" t="inlineStr"/>
+      <c r="U71" s="6" t="inlineStr"/>
+      <c r="V71" s="6" t="inlineStr">
         <is>
           <t>{2.0,3.0,4.0,5.0,6.0}</t>
         </is>
       </c>
-      <c r="U71" s="6" t="inlineStr"/>
-      <c r="V71" s="6" t="inlineStr"/>
       <c r="W71" s="6" t="inlineStr"/>
-      <c r="X71" s="6" t="inlineStr"/>
+      <c r="X71" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="Y71" s="6" t="inlineStr"/>
-      <c r="Z71" s="6" t="inlineStr">
-        <is>
-          <t>{1.0,2.0,3.0,4.0,5.0}</t>
-        </is>
-      </c>
+      <c r="Z71" s="6" t="inlineStr"/>
       <c r="AA71" s="6" t="inlineStr"/>
       <c r="AB71" s="6" t="inlineStr"/>
       <c r="AC71" s="6" t="inlineStr"/>
@@ -24901,13 +24905,10 @@
       <c r="AE71" s="6" t="inlineStr"/>
       <c r="AF71" s="6" t="inlineStr"/>
       <c r="AG71" s="6" t="inlineStr"/>
-      <c r="AH71" s="6" t="inlineStr">
-        <is>
-          <t>以地穴领主的巨爪震击地面，射出一道直线形尖刺蔓藤，造成极大伤害并将其轨迹上的敌地面单位抛入空中。|n|n|cffffcc00等级1|r-&lt;AUim,DataC1&gt;伤害力，&lt;AUim,Dur1&gt;秒晕眩。|n|cffffcc00等级2|r-&lt;AUim,DataC2&gt;伤害力，&lt;AUim,Dur2&gt;秒晕眩。|n|cffffcc00等级3|r-&lt;AUim,DataC3&gt;伤害力，&lt;AUim,Dur3&gt;秒晕眩。|n|cffffcc00等级4|r-&lt;AUim,DataC4&gt;伤害力，&lt;AUim,Dur4&gt;秒晕眩。|n|cffffcc00等级5|r-&lt;AUim,DataC5&gt;伤害力，&lt;AUim,Dur5&gt;秒晕眩。</t>
-        </is>
-      </c>
+      <c r="AH71" s="6" t="inlineStr"/>
       <c r="AI71" s="6" t="inlineStr"/>
-      <c r="AJ71" s="6" t="inlineStr">
+      <c r="AJ71" s="6" t="inlineStr"/>
+      <c r="AK71" s="6" t="inlineStr">
         <is>
           <t>{
 "以地穴领主的巨爪震击地面，射出一道直线形尖刺蔓藤，造成&lt;AUim,DataC1&gt;点伤害力，并将其轨迹上的敌地面单位抛入空中，使他们晕眩&lt;AUim,Dur1&gt;秒。",
@@ -24918,10 +24919,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK71" s="6" t="inlineStr"/>
       <c r="AL71" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>以地穴领主的巨爪震击地面，射出一道直线形尖刺蔓藤，造成极大伤害并将其轨迹上的敌地面单位抛入空中。|n|n|cffffcc00等级1|r-&lt;AUim,DataC1&gt;伤害力，&lt;AUim,Dur1&gt;秒晕眩。|n|cffffcc00等级2|r-&lt;AUim,DataC2&gt;伤害力，&lt;AUim,Dur2&gt;秒晕眩。|n|cffffcc00等级3|r-&lt;AUim,DataC3&gt;伤害力，&lt;AUim,Dur3&gt;秒晕眩。|n|cffffcc00等级4|r-&lt;AUim,DataC4&gt;伤害力，&lt;AUim,Dur4&gt;秒晕眩。|n|cffffcc00等级5|r-&lt;AUim,DataC5&gt;伤害力，&lt;AUim,Dur5&gt;秒晕眩。</t>
         </is>
       </c>
       <c r="AM71" s="6" t="inlineStr">
@@ -24930,12 +24930,12 @@
         </is>
       </c>
       <c r="AN71" s="6" t="inlineStr"/>
-      <c r="AO71" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="AP71" s="6" t="inlineStr"/>
+      <c r="AO71" s="6" t="inlineStr"/>
+      <c r="AP71" s="6" t="inlineStr">
+        <is>
+          <t>{1.0,2.0,3.0,4.0,5.0}</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
@@ -24988,22 +24988,26 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S72" s="6" t="inlineStr"/>
-      <c r="T72" s="6" t="inlineStr">
+      <c r="S72" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T72" s="6" t="inlineStr"/>
+      <c r="U72" s="6" t="inlineStr"/>
+      <c r="V72" s="6" t="inlineStr">
         <is>
           <t>{2.0,4.0,6.0}</t>
         </is>
       </c>
-      <c r="U72" s="6" t="inlineStr"/>
-      <c r="V72" s="6" t="inlineStr"/>
       <c r="W72" s="6" t="inlineStr"/>
-      <c r="X72" s="6" t="inlineStr"/>
+      <c r="X72" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y72" s="6" t="inlineStr"/>
-      <c r="Z72" s="6" t="inlineStr">
-        <is>
-          <t>{2.0,3.0,4.0}</t>
-        </is>
-      </c>
+      <c r="Z72" s="6" t="inlineStr"/>
       <c r="AA72" s="6" t="inlineStr"/>
       <c r="AB72" s="6" t="inlineStr"/>
       <c r="AC72" s="6" t="inlineStr"/>
@@ -25011,13 +25015,10 @@
       <c r="AE72" s="6" t="inlineStr"/>
       <c r="AF72" s="6" t="inlineStr"/>
       <c r="AG72" s="6" t="inlineStr"/>
-      <c r="AH72" s="6" t="inlineStr">
-        <is>
-          <t>召唤出一地狱火恶魔从天而降，对地面上的敌人造成伤害，并在一定的时间内使其处于昏晕状态。|n|n|cffffcc00等级1|r-能造成&lt;AUin,DataA1&gt;点的伤害，并在&lt;AUin,Dur1&gt;秒的昏晕状态。地狱火恶魔持续180秒。|n|cffffcc00等级2|r-能造成&lt;AUin,DataA2&gt;点的伤害，并在&lt;AUin,Dur2&gt;秒的昏晕状态。地狱火恶魔持续180秒。|n|cffffcc00等级3|r-能造成&lt;AUin,DataA3&gt;点的伤害，并在&lt;AUin,Dur3&gt;秒的昏晕状态。地狱火恶魔持续180秒。</t>
-        </is>
-      </c>
+      <c r="AH72" s="6" t="inlineStr"/>
       <c r="AI72" s="6" t="inlineStr"/>
-      <c r="AJ72" s="6" t="inlineStr">
+      <c r="AJ72" s="6" t="inlineStr"/>
+      <c r="AK72" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出一地狱火恶魔从天而降，对地面上的敌人造成&lt;AUin,DataA1&gt;点的伤害，并在&lt;AUin,Dur1&gt;秒内使其处于昏晕状态。地狱火恶魔持续&lt;AUin,DataB1&gt;秒。",
@@ -25026,10 +25027,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK72" s="6" t="inlineStr"/>
       <c r="AL72" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>召唤出一地狱火恶魔从天而降，对地面上的敌人造成伤害，并在一定的时间内使其处于昏晕状态。|n|n|cffffcc00等级1|r-能造成&lt;AUin,DataA1&gt;点的伤害，并在&lt;AUin,Dur1&gt;秒的昏晕状态。地狱火恶魔持续180秒。|n|cffffcc00等级2|r-能造成&lt;AUin,DataA2&gt;点的伤害，并在&lt;AUin,Dur2&gt;秒的昏晕状态。地狱火恶魔持续180秒。|n|cffffcc00等级3|r-能造成&lt;AUin,DataA3&gt;点的伤害，并在&lt;AUin,Dur3&gt;秒的昏晕状态。地狱火恶魔持续180秒。</t>
         </is>
       </c>
       <c r="AM72" s="6" t="inlineStr">
@@ -25038,12 +25038,12 @@
         </is>
       </c>
       <c r="AN72" s="6" t="inlineStr"/>
-      <c r="AO72" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AP72" s="6" t="inlineStr"/>
+      <c r="AO72" s="6" t="inlineStr"/>
+      <c r="AP72" s="6" t="inlineStr">
+        <is>
+          <t>{2.0,3.0,4.0}</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
@@ -25116,12 +25116,20 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S73" s="6" t="inlineStr"/>
+      <c r="S73" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T73" s="6" t="inlineStr"/>
       <c r="U73" s="6" t="inlineStr"/>
       <c r="V73" s="6" t="inlineStr"/>
       <c r="W73" s="6" t="inlineStr"/>
-      <c r="X73" s="6" t="inlineStr"/>
+      <c r="X73" s="6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y73" s="6" t="inlineStr"/>
       <c r="Z73" s="6" t="inlineStr"/>
       <c r="AA73" s="6" t="inlineStr"/>
@@ -25131,13 +25139,10 @@
       <c r="AE73" s="6" t="inlineStr"/>
       <c r="AF73" s="6" t="inlineStr"/>
       <c r="AG73" s="6" t="inlineStr"/>
-      <c r="AH73" s="6" t="inlineStr">
-        <is>
-          <t>召唤出一群蝗虫来攻击敌人。在它们啃咬敌人的血肉的时候，会将其转化为一种能量物质，在蝗虫返回到地穴领主身边的时候该物质能恢复地穴领主的生命值，持续30秒。|n|n|cffffcc00等级1|r-召唤出20个蝗虫，每次蝗虫的吸血量为伤害的40%，吸血最大为30点。|n|cffffcc00等级2|r-召唤出22个蝗虫，每次蝗虫的吸血量为伤害的60%，吸血最大为40点。|n|cffffcc00等级3|r-召唤出24个蝗虫，每次蝗虫的吸血量为伤害的80%，吸血最大为50点。</t>
-        </is>
-      </c>
+      <c r="AH73" s="6" t="inlineStr"/>
       <c r="AI73" s="6" t="inlineStr"/>
-      <c r="AJ73" s="6" t="inlineStr">
+      <c r="AJ73" s="6" t="inlineStr"/>
+      <c r="AK73" s="6" t="inlineStr">
         <is>
           <t>{
 "召唤出20个蝗虫，每次蝗虫的吸血量为伤害的40%，吸血最大为30点。|n持续30秒。",
@@ -25146,10 +25151,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK73" s="6" t="inlineStr"/>
       <c r="AL73" s="6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>召唤出一群蝗虫来攻击敌人。在它们啃咬敌人的血肉的时候，会将其转化为一种能量物质，在蝗虫返回到地穴领主身边的时候该物质能恢复地穴领主的生命值，持续30秒。|n|n|cffffcc00等级1|r-召唤出20个蝗虫，每次蝗虫的吸血量为伤害的40%，吸血最大为30点。|n|cffffcc00等级2|r-召唤出22个蝗虫，每次蝗虫的吸血量为伤害的60%，吸血最大为40点。|n|cffffcc00等级3|r-召唤出24个蝗虫，每次蝗虫的吸血量为伤害的80%，吸血最大为50点。</t>
         </is>
       </c>
       <c r="AM73" s="6" t="inlineStr">
@@ -25159,11 +25163,6 @@
       </c>
       <c r="AN73" s="6" t="inlineStr"/>
       <c r="AO73" s="6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AP73" s="6" t="inlineStr">
         <is>
           <t>{
 "air,ground,enemy",
@@ -25172,6 +25171,7 @@
 }</t>
         </is>
       </c>
+      <c r="AP73" s="6" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
@@ -25218,22 +25218,26 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S74" s="6" t="inlineStr"/>
-      <c r="T74" s="6" t="inlineStr">
+      <c r="S74" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T74" s="6" t="inlineStr"/>
+      <c r="U74" s="6" t="inlineStr"/>
+      <c r="V74" s="6" t="inlineStr">
         <is>
           <t>{10.0,15.0,20.0,25.0,30.0}</t>
         </is>
       </c>
-      <c r="U74" s="6" t="inlineStr"/>
-      <c r="V74" s="6" t="inlineStr"/>
       <c r="W74" s="6" t="inlineStr"/>
-      <c r="X74" s="6" t="inlineStr"/>
+      <c r="X74" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y74" s="6" t="inlineStr"/>
-      <c r="Z74" s="6" t="inlineStr">
-        <is>
-          <t>{5.0,10.0,15.0,20.0,25.0}</t>
-        </is>
-      </c>
+      <c r="Z74" s="6" t="inlineStr"/>
       <c r="AA74" s="6" t="inlineStr"/>
       <c r="AB74" s="6" t="inlineStr"/>
       <c r="AC74" s="6" t="inlineStr"/>
@@ -25241,13 +25245,10 @@
       <c r="AE74" s="6" t="inlineStr"/>
       <c r="AF74" s="6" t="inlineStr"/>
       <c r="AG74" s="6" t="inlineStr"/>
-      <c r="AH74" s="6" t="inlineStr">
-        <is>
-          <t>使目标单位处于睡眠状态。该单位被攻击以后会自动醒来。|n|n|cffffcc00等级1|r-&lt;AUsl,Dur1&gt;秒的睡眠时间，消耗&lt;AUsl,Cost1&gt;点魔法。|n|cffffcc00等级2|r-&lt;AUsl,Dur2&gt;秒的睡眠时间，消耗&lt;AUsl,Cost2&gt;点魔法。|n|cffffcc00等级3|r-&lt;AUsl,Dur3&gt;秒的睡眠时间，消耗&lt;AUsl,Cost3&gt;点魔法。|n|cffffcc00等级4|r-&lt;AUsl,Dur4&gt;秒的睡眠时间，消耗&lt;AUsl,Cost4&gt;点魔法。|n|cffffcc00等级5|r-&lt;AUsl,Dur5&gt;秒的睡眠时间，消耗&lt;AUsl,Cost5&gt;点魔法。</t>
-        </is>
-      </c>
+      <c r="AH74" s="6" t="inlineStr"/>
       <c r="AI74" s="6" t="inlineStr"/>
-      <c r="AJ74" s="6" t="inlineStr">
+      <c r="AJ74" s="6" t="inlineStr"/>
+      <c r="AK74" s="6" t="inlineStr">
         <is>
           <t>{
 "在&lt;AUsl,Dur1&gt;秒内使目标单位处于睡眠状态。该单位被攻击以后会自动醒来。",
@@ -25258,10 +25259,9 @@
 }</t>
         </is>
       </c>
-      <c r="AK74" s="6" t="inlineStr"/>
       <c r="AL74" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>使目标单位处于睡眠状态。该单位被攻击以后会自动醒来。|n|n|cffffcc00等级1|r-&lt;AUsl,Dur1&gt;秒的睡眠时间，消耗&lt;AUsl,Cost1&gt;点魔法。|n|cffffcc00等级2|r-&lt;AUsl,Dur2&gt;秒的睡眠时间，消耗&lt;AUsl,Cost2&gt;点魔法。|n|cffffcc00等级3|r-&lt;AUsl,Dur3&gt;秒的睡眠时间，消耗&lt;AUsl,Cost3&gt;点魔法。|n|cffffcc00等级4|r-&lt;AUsl,Dur4&gt;秒的睡眠时间，消耗&lt;AUsl,Cost4&gt;点魔法。|n|cffffcc00等级5|r-&lt;AUsl,Dur5&gt;秒的睡眠时间，消耗&lt;AUsl,Cost5&gt;点魔法。</t>
         </is>
       </c>
       <c r="AM74" s="6" t="inlineStr">
@@ -25270,12 +25270,12 @@
         </is>
       </c>
       <c r="AN74" s="6" t="inlineStr"/>
-      <c r="AO74" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AP74" s="6" t="inlineStr"/>
+      <c r="AO74" s="6" t="inlineStr"/>
+      <c r="AP74" s="6" t="inlineStr">
+        <is>
+          <t>{5.0,10.0,15.0,20.0,25.0}</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
@@ -25335,7 +25335,11 @@
       <c r="U75" s="6" t="inlineStr"/>
       <c r="V75" s="6" t="inlineStr"/>
       <c r="W75" s="6" t="inlineStr"/>
-      <c r="X75" s="6" t="inlineStr"/>
+      <c r="X75" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="Y75" s="6" t="inlineStr"/>
       <c r="Z75" s="6" t="inlineStr"/>
       <c r="AA75" s="6" t="inlineStr"/>
@@ -25345,13 +25349,10 @@
       <c r="AE75" s="6" t="inlineStr"/>
       <c r="AF75" s="6" t="inlineStr"/>
       <c r="AG75" s="6" t="inlineStr"/>
-      <c r="AH75" s="6" t="inlineStr">
-        <is>
-          <t>在地穴领主的身上形成一层带有尖刺的保护壳，增加其防御能力并能弹射敌人的近战攻击。|n|n|cffffcc00等级1|r-弹射&lt;AUts,DataA1,%&gt;%的伤害，增加&lt;AUts,DataC1&gt;点护甲。|n|cffffcc00等级2|r-弹射&lt;AUts,DataA2,%&gt;%的伤害，增加&lt;AUts,DataC2&gt;点护甲。|n|cffffcc00等级3|r-弹射&lt;AUts,DataA3,%&gt;%点的伤害，增加&lt;AUts,DataC3&gt;点护甲。|n|cffffcc00等级4|r-弹射&lt;AUts,DataA4,%&gt;%点的伤害，增加&lt;AUts,DataC4&gt;点护甲。|n|cffffcc00等级5|r-弹射&lt;AUts,DataA5,%&gt;%点的伤害，增加&lt;AUts,DataC5&gt;点护甲。</t>
-        </is>
-      </c>
+      <c r="AH75" s="6" t="inlineStr"/>
       <c r="AI75" s="6" t="inlineStr"/>
-      <c r="AJ75" s="6" t="inlineStr">
+      <c r="AJ75" s="6" t="inlineStr"/>
+      <c r="AK75" s="6" t="inlineStr">
         <is>
           <t>{
 "增加地穴领主&lt;AUts,DataC1&gt;点的护甲并能将敌人&lt;AUts,DataA1,%&gt;%的近战攻击弹射回去。",
@@ -25362,15 +25363,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK75" s="6" t="inlineStr"/>
-      <c r="AL75" s="6" t="inlineStr"/>
+      <c r="AL75" s="6" t="inlineStr">
+        <is>
+          <t>在地穴领主的身上形成一层带有尖刺的保护壳，增加其防御能力并能弹射敌人的近战攻击。|n|n|cffffcc00等级1|r-弹射&lt;AUts,DataA1,%&gt;%的伤害，增加&lt;AUts,DataC1&gt;点护甲。|n|cffffcc00等级2|r-弹射&lt;AUts,DataA2,%&gt;%的伤害，增加&lt;AUts,DataC2&gt;点护甲。|n|cffffcc00等级3|r-弹射&lt;AUts,DataA3,%&gt;%点的伤害，增加&lt;AUts,DataC3&gt;点护甲。|n|cffffcc00等级4|r-弹射&lt;AUts,DataA4,%&gt;%点的伤害，增加&lt;AUts,DataC4&gt;点护甲。|n|cffffcc00等级5|r-弹射&lt;AUts,DataA5,%&gt;%点的伤害，增加&lt;AUts,DataC5&gt;点护甲。</t>
+        </is>
+      </c>
       <c r="AM75" s="6" t="inlineStr"/>
       <c r="AN75" s="6" t="inlineStr"/>
-      <c r="AO75" s="6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="AO75" s="6" t="inlineStr"/>
       <c r="AP75" s="6" t="inlineStr"/>
     </row>
     <row r="76">
@@ -25641,21 +25641,17 @@
       <c r="Q80" s="6" t="inlineStr"/>
       <c r="R80" s="6" t="inlineStr"/>
       <c r="S80" s="6" t="inlineStr"/>
-      <c r="T80" s="6" t="inlineStr">
+      <c r="T80" s="6" t="inlineStr"/>
+      <c r="U80" s="6" t="inlineStr"/>
+      <c r="V80" s="6" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="U80" s="6" t="inlineStr"/>
-      <c r="V80" s="6" t="inlineStr"/>
       <c r="W80" s="6" t="inlineStr"/>
       <c r="X80" s="6" t="inlineStr"/>
       <c r="Y80" s="6" t="inlineStr"/>
-      <c r="Z80" s="6" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
+      <c r="Z80" s="6" t="inlineStr"/>
       <c r="AA80" s="6" t="inlineStr"/>
       <c r="AB80" s="6" t="inlineStr"/>
       <c r="AC80" s="6" t="inlineStr"/>
@@ -25671,7 +25667,11 @@
       <c r="AM80" s="6" t="inlineStr"/>
       <c r="AN80" s="6" t="inlineStr"/>
       <c r="AO80" s="6" t="inlineStr"/>
-      <c r="AP80" s="6" t="inlineStr"/>
+      <c r="AP80" s="6" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="inlineStr">
@@ -25705,21 +25705,17 @@
       <c r="Q81" s="6" t="inlineStr"/>
       <c r="R81" s="6" t="inlineStr"/>
       <c r="S81" s="6" t="inlineStr"/>
-      <c r="T81" s="6" t="inlineStr">
+      <c r="T81" s="6" t="inlineStr"/>
+      <c r="U81" s="6" t="inlineStr"/>
+      <c r="V81" s="6" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="U81" s="6" t="inlineStr"/>
-      <c r="V81" s="6" t="inlineStr"/>
       <c r="W81" s="6" t="inlineStr"/>
       <c r="X81" s="6" t="inlineStr"/>
       <c r="Y81" s="6" t="inlineStr"/>
-      <c r="Z81" s="6" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
+      <c r="Z81" s="6" t="inlineStr"/>
       <c r="AA81" s="6" t="inlineStr"/>
       <c r="AB81" s="6" t="inlineStr"/>
       <c r="AC81" s="6" t="inlineStr"/>
@@ -25735,7 +25731,11 @@
       <c r="AM81" s="6" t="inlineStr"/>
       <c r="AN81" s="6" t="inlineStr"/>
       <c r="AO81" s="6" t="inlineStr"/>
-      <c r="AP81" s="6" t="inlineStr"/>
+      <c r="AP81" s="6" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
@@ -25769,21 +25769,17 @@
       <c r="Q82" s="6" t="inlineStr"/>
       <c r="R82" s="6" t="inlineStr"/>
       <c r="S82" s="6" t="inlineStr"/>
-      <c r="T82" s="6" t="inlineStr">
+      <c r="T82" s="6" t="inlineStr"/>
+      <c r="U82" s="6" t="inlineStr"/>
+      <c r="V82" s="6" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="U82" s="6" t="inlineStr"/>
-      <c r="V82" s="6" t="inlineStr"/>
       <c r="W82" s="6" t="inlineStr"/>
       <c r="X82" s="6" t="inlineStr"/>
       <c r="Y82" s="6" t="inlineStr"/>
-      <c r="Z82" s="6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
+      <c r="Z82" s="6" t="inlineStr"/>
       <c r="AA82" s="6" t="inlineStr"/>
       <c r="AB82" s="6" t="inlineStr"/>
       <c r="AC82" s="6" t="inlineStr"/>
@@ -25799,7 +25795,11 @@
       <c r="AM82" s="6" t="inlineStr"/>
       <c r="AN82" s="6" t="inlineStr"/>
       <c r="AO82" s="6" t="inlineStr"/>
-      <c r="AP82" s="6" t="inlineStr"/>
+      <c r="AP82" s="6" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
@@ -26825,21 +26825,21 @@
       <c r="AG100" s="6" t="inlineStr"/>
       <c r="AH100" s="6" t="inlineStr"/>
       <c r="AI100" s="6" t="inlineStr"/>
-      <c r="AJ100" s="6" t="inlineStr">
+      <c r="AJ100" s="6" t="inlineStr"/>
+      <c r="AK100" s="6" t="inlineStr">
         <is>
           <t>在目标单位周围形成一个带电护罩，能对其周围的敌人造成每秒&lt;Alsh,DataA1&gt;点的伤害。|n持续&lt;Alsh,Dur1&gt;秒。</t>
         </is>
       </c>
-      <c r="AK100" s="6" t="inlineStr"/>
       <c r="AL100" s="6" t="inlineStr"/>
       <c r="AM100" s="6" t="inlineStr"/>
       <c r="AN100" s="6" t="inlineStr"/>
-      <c r="AO100" s="6" t="inlineStr"/>
-      <c r="AP100" s="6" t="inlineStr">
+      <c r="AO100" s="6" t="inlineStr">
         <is>
           <t>enemies</t>
         </is>
       </c>
+      <c r="AP100" s="6" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
@@ -26949,21 +26949,21 @@
       <c r="AG102" s="6" t="inlineStr"/>
       <c r="AH102" s="6" t="inlineStr"/>
       <c r="AI102" s="6" t="inlineStr"/>
-      <c r="AJ102" s="6" t="inlineStr">
+      <c r="AJ102" s="6" t="inlineStr"/>
+      <c r="AK102" s="6" t="inlineStr">
         <is>
           <t>以魔力禁锢一个目标敌对单位，使其不能移动或攻击，并每秒受到&lt;Amls,DataA1&gt;伤害力。|n持续&lt;Amls,Dur1&gt;秒。</t>
         </is>
       </c>
-      <c r="AK102" s="6" t="inlineStr"/>
       <c r="AL102" s="6" t="inlineStr"/>
       <c r="AM102" s="6" t="inlineStr"/>
       <c r="AN102" s="6" t="inlineStr"/>
-      <c r="AO102" s="6" t="inlineStr"/>
-      <c r="AP102" s="6" t="inlineStr">
+      <c r="AO102" s="6" t="inlineStr">
         <is>
           <t>enemies,organic</t>
         </is>
       </c>
+      <c r="AP102" s="6" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
@@ -27117,21 +27117,17 @@
       <c r="Q105" s="6" t="inlineStr"/>
       <c r="R105" s="6" t="inlineStr"/>
       <c r="S105" s="6" t="inlineStr"/>
-      <c r="T105" s="6" t="inlineStr">
+      <c r="T105" s="6" t="inlineStr"/>
+      <c r="U105" s="6" t="inlineStr"/>
+      <c r="V105" s="6" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="U105" s="6" t="inlineStr"/>
-      <c r="V105" s="6" t="inlineStr"/>
       <c r="W105" s="6" t="inlineStr"/>
       <c r="X105" s="6" t="inlineStr"/>
       <c r="Y105" s="6" t="inlineStr"/>
-      <c r="Z105" s="6" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
+      <c r="Z105" s="6" t="inlineStr"/>
       <c r="AA105" s="6" t="inlineStr"/>
       <c r="AB105" s="6" t="inlineStr"/>
       <c r="AC105" s="6" t="inlineStr"/>
@@ -27151,7 +27147,11 @@
       </c>
       <c r="AN105" s="6" t="inlineStr"/>
       <c r="AO105" s="6" t="inlineStr"/>
-      <c r="AP105" s="6" t="inlineStr"/>
+      <c r="AP105" s="6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
@@ -27189,21 +27189,17 @@
       <c r="Q106" s="6" t="inlineStr"/>
       <c r="R106" s="6" t="inlineStr"/>
       <c r="S106" s="6" t="inlineStr"/>
-      <c r="T106" s="6" t="inlineStr">
+      <c r="T106" s="6" t="inlineStr"/>
+      <c r="U106" s="6" t="inlineStr"/>
+      <c r="V106" s="6" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="U106" s="6" t="inlineStr"/>
-      <c r="V106" s="6" t="inlineStr"/>
       <c r="W106" s="6" t="inlineStr"/>
       <c r="X106" s="6" t="inlineStr"/>
       <c r="Y106" s="6" t="inlineStr"/>
-      <c r="Z106" s="6" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
+      <c r="Z106" s="6" t="inlineStr"/>
       <c r="AA106" s="6" t="inlineStr"/>
       <c r="AB106" s="6" t="inlineStr"/>
       <c r="AC106" s="6" t="inlineStr"/>
@@ -27223,7 +27219,11 @@
       </c>
       <c r="AN106" s="6" t="inlineStr"/>
       <c r="AO106" s="6" t="inlineStr"/>
-      <c r="AP106" s="6" t="inlineStr"/>
+      <c r="AP106" s="6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
@@ -27269,21 +27269,17 @@
       <c r="Q107" s="6" t="inlineStr"/>
       <c r="R107" s="6" t="inlineStr"/>
       <c r="S107" s="6" t="inlineStr"/>
-      <c r="T107" s="6" t="inlineStr">
+      <c r="T107" s="6" t="inlineStr"/>
+      <c r="U107" s="6" t="inlineStr"/>
+      <c r="V107" s="6" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="U107" s="6" t="inlineStr"/>
-      <c r="V107" s="6" t="inlineStr"/>
       <c r="W107" s="6" t="inlineStr"/>
       <c r="X107" s="6" t="inlineStr"/>
       <c r="Y107" s="6" t="inlineStr"/>
-      <c r="Z107" s="6" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
+      <c r="Z107" s="6" t="inlineStr"/>
       <c r="AA107" s="6" t="inlineStr"/>
       <c r="AB107" s="6" t="inlineStr"/>
       <c r="AC107" s="6" t="inlineStr"/>
@@ -27303,7 +27299,11 @@
       </c>
       <c r="AN107" s="6" t="inlineStr"/>
       <c r="AO107" s="6" t="inlineStr"/>
-      <c r="AP107" s="6" t="inlineStr"/>
+      <c r="AP107" s="6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
@@ -27414,15 +27414,15 @@
       <c r="V109" s="6" t="inlineStr"/>
       <c r="W109" s="6" t="inlineStr"/>
       <c r="X109" s="6" t="inlineStr"/>
-      <c r="Y109" s="6" t="inlineStr"/>
+      <c r="Y109" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="Z109" s="6" t="inlineStr"/>
       <c r="AA109" s="6" t="inlineStr"/>
       <c r="AB109" s="6" t="inlineStr"/>
-      <c r="AC109" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="AC109" s="6" t="inlineStr"/>
       <c r="AD109" s="6" t="inlineStr"/>
       <c r="AE109" s="6" t="inlineStr"/>
       <c r="AF109" s="6" t="inlineStr"/>
@@ -27482,15 +27482,15 @@
       <c r="V110" s="6" t="inlineStr"/>
       <c r="W110" s="6" t="inlineStr"/>
       <c r="X110" s="6" t="inlineStr"/>
-      <c r="Y110" s="6" t="inlineStr"/>
+      <c r="Y110" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="Z110" s="6" t="inlineStr"/>
       <c r="AA110" s="6" t="inlineStr"/>
       <c r="AB110" s="6" t="inlineStr"/>
-      <c r="AC110" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="AC110" s="6" t="inlineStr"/>
       <c r="AD110" s="6" t="inlineStr"/>
       <c r="AE110" s="6" t="inlineStr"/>
       <c r="AF110" s="6" t="inlineStr"/>
@@ -27546,15 +27546,15 @@
       <c r="V111" s="6" t="inlineStr"/>
       <c r="W111" s="6" t="inlineStr"/>
       <c r="X111" s="6" t="inlineStr"/>
-      <c r="Y111" s="6" t="inlineStr"/>
+      <c r="Y111" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="Z111" s="6" t="inlineStr"/>
       <c r="AA111" s="6" t="inlineStr"/>
       <c r="AB111" s="6" t="inlineStr"/>
-      <c r="AC111" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="AC111" s="6" t="inlineStr"/>
       <c r="AD111" s="6" t="inlineStr"/>
       <c r="AE111" s="6" t="inlineStr"/>
       <c r="AF111" s="6" t="inlineStr"/>
@@ -27617,15 +27617,15 @@
       <c r="AG112" s="6" t="inlineStr"/>
       <c r="AH112" s="6" t="inlineStr"/>
       <c r="AI112" s="6" t="inlineStr"/>
-      <c r="AJ112" s="6" t="inlineStr"/>
+      <c r="AJ112" s="6" t="inlineStr">
+        <is>
+          <t>(无效不可用)</t>
+        </is>
+      </c>
       <c r="AK112" s="6" t="inlineStr"/>
       <c r="AL112" s="6" t="inlineStr"/>
       <c r="AM112" s="6" t="inlineStr"/>
-      <c r="AN112" s="6" t="inlineStr">
-        <is>
-          <t>(无效不可用)</t>
-        </is>
-      </c>
+      <c r="AN112" s="6" t="inlineStr"/>
       <c r="AO112" s="6" t="inlineStr"/>
       <c r="AP112" s="6" t="inlineStr"/>
     </row>
@@ -27905,12 +27905,12 @@
       <c r="AG117" s="6" t="inlineStr"/>
       <c r="AH117" s="6" t="inlineStr"/>
       <c r="AI117" s="6" t="inlineStr"/>
-      <c r="AJ117" s="6" t="inlineStr">
+      <c r="AJ117" s="6" t="inlineStr"/>
+      <c r="AK117" s="6" t="inlineStr">
         <is>
           <t>降低所有施加在山岭巨人身上的伤害&lt;Assk,DataC1&gt;点。</t>
         </is>
       </c>
-      <c r="AK117" s="6" t="inlineStr"/>
       <c r="AL117" s="6" t="inlineStr"/>
       <c r="AM117" s="6" t="inlineStr"/>
       <c r="AN117" s="6" t="inlineStr"/>
@@ -28313,15 +28313,15 @@
       <c r="AG124" s="6" t="inlineStr"/>
       <c r="AH124" s="6" t="inlineStr"/>
       <c r="AI124" s="6" t="inlineStr"/>
-      <c r="AJ124" s="6" t="inlineStr"/>
+      <c r="AJ124" s="6" t="inlineStr">
+        <is>
+          <t>(野怪)</t>
+        </is>
+      </c>
       <c r="AK124" s="6" t="inlineStr"/>
       <c r="AL124" s="6" t="inlineStr"/>
       <c r="AM124" s="6" t="inlineStr"/>
-      <c r="AN124" s="6" t="inlineStr">
-        <is>
-          <t>(野怪)</t>
-        </is>
-      </c>
+      <c r="AN124" s="6" t="inlineStr"/>
       <c r="AO124" s="6" t="inlineStr"/>
       <c r="AP124" s="6" t="inlineStr"/>
     </row>
@@ -28392,21 +28392,21 @@
       </c>
       <c r="S125" s="6" t="inlineStr"/>
       <c r="T125" s="6" t="inlineStr"/>
-      <c r="U125" s="6" t="inlineStr">
-        <is>
-          <t>ReplaceableTextures\\PassiveButtons\\PASBTNStatUp.blp</t>
-        </is>
-      </c>
+      <c r="U125" s="6" t="inlineStr"/>
       <c r="V125" s="6" t="inlineStr"/>
-      <c r="W125" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="W125" s="6" t="inlineStr"/>
       <c r="X125" s="6" t="inlineStr"/>
       <c r="Y125" s="6" t="inlineStr"/>
-      <c r="Z125" s="6" t="inlineStr"/>
-      <c r="AA125" s="6" t="inlineStr"/>
+      <c r="Z125" s="6" t="inlineStr">
+        <is>
+          <t>ReplaceableTextures\\PassiveButtons\\PASBTNStatUp.blp</t>
+        </is>
+      </c>
+      <c r="AA125" s="6" t="inlineStr">
+        <is>
+          <t>ReplaceableTextures\\PassiveButtons\\PASBTNStatUp.blp</t>
+        </is>
+      </c>
       <c r="AB125" s="6" t="inlineStr"/>
       <c r="AC125" s="6" t="inlineStr"/>
       <c r="AD125" s="6" t="inlineStr">
@@ -28422,14 +28422,15 @@
       </c>
       <c r="AE125" s="6" t="inlineStr">
         <is>
-          <t>ReplaceableTextures\\PassiveButtons\\PASBTNStatUp.blp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF125" s="6" t="inlineStr"/>
       <c r="AG125" s="6" t="inlineStr"/>
       <c r="AH125" s="6" t="inlineStr"/>
       <c r="AI125" s="6" t="inlineStr"/>
-      <c r="AJ125" s="6" t="inlineStr">
+      <c r="AJ125" s="6" t="inlineStr"/>
+      <c r="AK125" s="6" t="inlineStr">
         <is>
           <t>{
 "",
@@ -28440,12 +28441,10 @@
 }</t>
         </is>
       </c>
-      <c r="AK125" s="6" t="inlineStr"/>
       <c r="AL125" s="6" t="inlineStr"/>
       <c r="AM125" s="6" t="inlineStr"/>
       <c r="AN125" s="6" t="inlineStr"/>
-      <c r="AO125" s="6" t="inlineStr"/>
-      <c r="AP125" s="6" t="inlineStr">
+      <c r="AO125" s="6" t="inlineStr">
         <is>
           <t>{
 "ground,vulnerable,air,invulnerable,friend,self",
@@ -28456,6 +28455,7 @@
 }</t>
         </is>
       </c>
+      <c r="AP125" s="6" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
@@ -28536,48 +28536,57 @@
           <t>5</t>
         </is>
       </c>
-      <c r="S126" s="6" t="inlineStr"/>
+      <c r="S126" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="T126" s="6" t="inlineStr"/>
       <c r="U126" s="6" t="inlineStr">
         <is>
+          <t>absorb</t>
+        </is>
+      </c>
+      <c r="V126" s="6" t="inlineStr"/>
+      <c r="W126" s="6" t="inlineStr">
+        <is>
           <t>ReplaceableTextures\\CommandButtons\\BTNSentryWard.blp</t>
         </is>
       </c>
-      <c r="V126" s="6" t="inlineStr"/>
-      <c r="W126" s="6" t="inlineStr"/>
       <c r="X126" s="6" t="inlineStr">
         <is>
-          <t>absorb</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="Y126" s="6" t="inlineStr"/>
-      <c r="Z126" s="6" t="inlineStr"/>
-      <c r="AA126" s="6" t="inlineStr"/>
+      <c r="Z126" s="6" t="inlineStr">
+        <is>
+          <t>ReplaceableTextures\\CommandButtons\\BTNSentryWard.blp</t>
+        </is>
+      </c>
+      <c r="AA126" s="6" t="inlineStr">
+        <is>
+          <t>ReplaceableTextures\\CommandButtons\\BTNSentryWard.blp</t>
+        </is>
+      </c>
       <c r="AB126" s="6" t="inlineStr"/>
-      <c r="AC126" s="6" t="inlineStr"/>
+      <c r="AC126" s="6" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
       <c r="AD126" s="6" t="inlineStr"/>
-      <c r="AE126" s="6" t="inlineStr">
-        <is>
-          <t>ReplaceableTextures\\CommandButtons\\BTNSentryWard.blp</t>
-        </is>
-      </c>
+      <c r="AE126" s="6" t="inlineStr"/>
       <c r="AF126" s="6" t="inlineStr"/>
       <c r="AG126" s="6" t="inlineStr">
         <is>
           <t>spell</t>
         </is>
       </c>
-      <c r="AH126" s="6" t="inlineStr">
-        <is>
-          <t>安放一个炸弹，在5秒后引爆，对周围的单位造成伤害，并且使其减速。</t>
-        </is>
-      </c>
-      <c r="AI126" s="6" t="inlineStr">
-        <is>
-          <t>ReplaceableTextures\\CommandButtons\\BTNSentryWard.blp</t>
-        </is>
-      </c>
-      <c r="AJ126" s="6" t="inlineStr">
+      <c r="AH126" s="6" t="inlineStr"/>
+      <c r="AI126" s="6" t="inlineStr"/>
+      <c r="AJ126" s="6" t="inlineStr"/>
+      <c r="AK126" s="6" t="inlineStr">
         <is>
           <t>{
 "安放一个炸弹，在5秒后引爆，对周围的单位造成100点的伤害，并且在2秒内减慢移动速度。",
@@ -28588,23 +28597,14 @@
 }</t>
         </is>
       </c>
-      <c r="AK126" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
       <c r="AL126" s="6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>安放一个炸弹，在5秒后引爆，对周围的单位造成伤害，并且使其减速。</t>
         </is>
       </c>
       <c r="AM126" s="6" t="inlineStr"/>
       <c r="AN126" s="6" t="inlineStr"/>
-      <c r="AO126" s="6" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
+      <c r="AO126" s="6" t="inlineStr"/>
       <c r="AP126" s="6" t="inlineStr"/>
     </row>
     <row r="127">
@@ -28637,11 +28637,7 @@
       <c r="S127" s="6" t="inlineStr"/>
       <c r="T127" s="6" t="inlineStr"/>
       <c r="U127" s="6" t="inlineStr"/>
-      <c r="V127" s="6" t="inlineStr">
-        <is>
-          <t>Abilities\\Weapons\\LichMissile\\LichMissile.mdl</t>
-        </is>
-      </c>
+      <c r="V127" s="6" t="inlineStr"/>
       <c r="W127" s="6" t="inlineStr"/>
       <c r="X127" s="6" t="inlineStr"/>
       <c r="Y127" s="6" t="inlineStr"/>
@@ -28659,7 +28655,11 @@
       <c r="AK127" s="6" t="inlineStr"/>
       <c r="AL127" s="6" t="inlineStr"/>
       <c r="AM127" s="6" t="inlineStr"/>
-      <c r="AN127" s="6" t="inlineStr"/>
+      <c r="AN127" s="6" t="inlineStr">
+        <is>
+          <t>Abilities\\Weapons\\LichMissile\\LichMissile.mdl</t>
+        </is>
+      </c>
       <c r="AO127" s="6" t="inlineStr"/>
       <c r="AP127" s="6" t="inlineStr"/>
     </row>
@@ -28772,17 +28772,17 @@
       <c r="R129" s="6" t="inlineStr"/>
       <c r="S129" s="6" t="inlineStr"/>
       <c r="T129" s="6" t="inlineStr"/>
-      <c r="U129" s="6" t="inlineStr">
-        <is>
-          <t>ReplaceableTextures\\CommandButtons\\BTNIncinerate.blp</t>
-        </is>
-      </c>
+      <c r="U129" s="6" t="inlineStr"/>
       <c r="V129" s="6" t="inlineStr"/>
       <c r="W129" s="6" t="inlineStr"/>
       <c r="X129" s="6" t="inlineStr"/>
       <c r="Y129" s="6" t="inlineStr"/>
       <c r="Z129" s="6" t="inlineStr"/>
-      <c r="AA129" s="6" t="inlineStr"/>
+      <c r="AA129" s="6" t="inlineStr">
+        <is>
+          <t>ReplaceableTextures\\CommandButtons\\BTNIncinerate.blp</t>
+        </is>
+      </c>
       <c r="AB129" s="6" t="inlineStr"/>
       <c r="AC129" s="6" t="inlineStr"/>
       <c r="AD129" s="6" t="inlineStr">
@@ -28795,21 +28795,21 @@
       <c r="AG129" s="6" t="inlineStr"/>
       <c r="AH129" s="6" t="inlineStr"/>
       <c r="AI129" s="6" t="inlineStr"/>
-      <c r="AJ129" s="6" t="inlineStr"/>
+      <c r="AJ129" s="6" t="inlineStr">
+        <is>
+          <t>(主城)</t>
+        </is>
+      </c>
       <c r="AK129" s="6" t="inlineStr"/>
       <c r="AL129" s="6" t="inlineStr"/>
       <c r="AM129" s="6" t="inlineStr"/>
-      <c r="AN129" s="6" t="inlineStr">
-        <is>
-          <t>(主城)</t>
-        </is>
-      </c>
-      <c r="AO129" s="6" t="inlineStr"/>
-      <c r="AP129" s="6" t="inlineStr">
+      <c r="AN129" s="6" t="inlineStr"/>
+      <c r="AO129" s="6" t="inlineStr">
         <is>
           <t>friend,organic</t>
         </is>
       </c>
+      <c r="AP129" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
